--- a/Batch/13/Day_3.xlsx
+++ b/Batch/13/Day_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\batch\da13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C14897-1E81-46A0-9DA6-2543975C0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562B6C7C-203F-4FF6-BD6A-D117AD13D635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{513BE6A7-3374-4AEE-929F-0B77A0CBB36A}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="179">
   <si>
     <t>Intro To Excel</t>
   </si>
@@ -603,1992 +603,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>SUM Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Department Budget:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Your manager has asked you to calculate the total salary budget for the company. Can you find the sum of all employees' salaries?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Workload Evaluation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The HR department wants to know the total number of projects assigned to all employees combined. Can you calculate the total number of projects?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Resource Allocation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The Finance department needs to allocate funds based on total weekly work hours. What is the total work hours per week for all employees?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Experience Summary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total number of years of experience of all employees across all departments.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Training Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The company is planning a training session for employees. If each employee has to attend 3 hours of training per week, calculate the total training hours needed for all employees.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Performance Incentive:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The company offers a performance bonus based on rating. Sum up the total of all performance ratings to allocate bonuses.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Hiring Impact:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A report is needed to show the combined years employees have been in their current roles. What is the total number of years all employees have been in their current roles?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Annual Review:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> You are asked to sum up all salaries to get a sense of total yearly payments for employee reviews.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Department Effort:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The CEO wants to know the sum of the projects completed by the Marketing team. What’s the total number of projects assigned to employees in Marketing?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Workload Stress:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HR needs to analyze if employees are being overworked. Calculate the total weekly work hours of employees who have been assigned more than 10 projects.</t>
-    </r>
-  </si>
-  <si>
-    <t>SUMIF Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Finance Department Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total salary for employees working in the Finance department.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Marketing Projects:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Find the total number of projects for employees working in the Marketing department.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. High Performers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The HR team wants to reward employees with a performance rating of 8 or more. What is the total salary of employees with a performance rating of 8 or more?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Intern Workload:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Find the total number of projects for employees with the employment status "Intern."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Contract Worker Pay:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the total salary of all employees working under contract?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Seattle Office Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total number of work hours per week for employees based in the Seattle office.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Low Experience, High Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the total salary of employees with less than 10 years of experience but earning over $70,000?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Divorced Employee Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Find the total salary for employees who are divorced.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Single Employees' Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total number of weekly work hours for employees who are single.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Other Genders' Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the total number of work hours per week for employees who identify as "Other" in gender?</t>
-    </r>
-  </si>
-  <si>
-    <t>SUMIFS Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Married Engineers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total salary of employees with a job title "Engineer" who are also married.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Boston High Performers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Find the total salary of employees located in Boston with a performance rating of 7 or higher.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Finance PhDs:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the total number of projects for employees in the Finance department who have a PhD?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Austin Permanent Staff:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total work hours per week for employees based in Austin who are "Permanent" employees.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Manager Salaries:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the total salary of employees with the job title "Manager" and with more than 10 years of experience?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Intern Workload:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Find the total work hours for "Intern" employees with a performance rating of at least 5.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Older Permanent Staff:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total salary of permanent employees who are older than 40.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Seattle Married Workers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the total number of projects for employees based in Seattle who are married?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Low Experience, High Rating:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Find the total salary for employees with less than 15 years of experience and a performance rating higher than 7.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Marketing Developer Projects:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total number of projects for employees in Marketing with the job title "Developer."</t>
-    </r>
-  </si>
-  <si>
-    <t>SUMPRODUCT Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Salary-Weighted Projects:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total salary weighted by the number of projects handled by each employee.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Work Hours &amp; Performance:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total work hours per week weighted by the performance rating of each employee.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Age-Salary Weighting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The HR department wants to know the total of all employee ages weighted by their salaries.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Experience &amp; Projects:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total of all employees' years of experience weighted by the number of projects they have handled.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Rating &amp; Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Multiply each employee’s weekly work hours by their performance rating and sum the total.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Experience-Salary Calculation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the sum of salaries weighted by the years of experience each employee has.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Work Hours by Gender:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the total number of work hours per week weighted by gender ("Male" = 1, "Female" = 2, "Other" = 3)?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Salary by Marital Status:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the sum of salaries weighted by marital status ("Married" = 1, "Single" = 2, "Divorced" = 3, "Widowed" = 4).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Performance by Projects:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the sum of performance ratings weighted by the number of projects employees have handled.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Experience &amp; Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the total work hours per week weighted by years of experience for each employee.</t>
-    </r>
-  </si>
-  <si>
-    <t>COUNT Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Total Employees:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the total number of employees in the dataset.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Austin Office Employees:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees are based in Austin?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Permanent Employees:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the total number of "Permanent" employees.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Contract Workers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees are working under a contract?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. High Performers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees with a performance rating of 8 or more.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Managers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees have the job title "Manager"?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Interns:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees with the employment status "Intern."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Divorced Employees:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees are divorced?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Master's Degree Holders:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees have a Master's degree?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Employees in Finance:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees in the Finance department.</t>
-    </r>
-  </si>
-  <si>
-    <t>COUNTA Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Total Entries:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the total number of filled rows in the data.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Job Titles:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees have a job title listed?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Marital Status:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees who have a marital status listed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Education Levels:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees have their education listed?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Contract Employees' Salaries:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees working under contract who have a salary mentioned.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Permanent Employees' Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many "Permanent" employees have their work hours filled in?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Performance Ratings:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count how many employees have a performance rating.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Employees with Projects:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees have a number of projects assigned to them?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Experience Years:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees with years of experience listed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Department Entries:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many department entries are listed for the employees?</t>
-    </r>
-  </si>
-  <si>
-    <t>COUNTBLANK Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Missing Marital Status:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count how many employees have a missing marital status.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Blank Job Titles:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count how many employees have a blank job title.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Blank Locations:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count how many employees have no location listed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Education Not Mentioned:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees do not have their education mentioned?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Missing Salary Data:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees have missing salary data?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Missing Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees with missing work hours.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Missing Performance Ratings:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees have no performance rating mentioned?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Missing Project Data:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count how many employees do not have the number of projects filled in.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Years in Role Not Listed:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees do not have their "Years in Current Role" mentioned?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Blank Experience Entries:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees with missing experience data.</t>
-    </r>
-  </si>
-  <si>
-    <t>COUNTIF Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. PhD Holders:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count how many employees have a PhD.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Widowed Employees:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees who are widowed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Marketing Department:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees are in the Marketing department?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Permanent Employees:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees with "Permanent" employment status.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Seattle Office:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees are based in Seattle?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. High Performance:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count how many employees have a performance rating of 9 or higher.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Low Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees have a salary below $50,000?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Divorced Engineers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of engineers who are divorced.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Contract Workers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees are working under contract?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Analyst Job Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees have the job title "Analyst"?</t>
-    </r>
-  </si>
-  <si>
-    <t>COUNTIFS Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Married Finance Employees:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of married employees in the Finance department.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. High Salary, Low Experience:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count how many employees have a salary over $100,000 but less than 10 years of experience.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Marketing Interns:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees are working as interns in the Marketing department?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Experienced, High Performers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees with more than 20 years of experience and a performance rating higher than 8.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Divorced Managers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many managers are divorced?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Seattle Finance Workers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many Finance department employees are based in Seattle?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Widowed PhDs:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count the number of employees with a PhD who are widowed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Engineering, Contract Workers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees are in the Engineering department and working under contract?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Boston Employees:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> How many employees are based in Boston and have handled more than 10 projects?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. High Salary, Low Rating:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Count how many employees have a salary above $90,000 but a performance rating below 5.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Odd/Even Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Use the MOD function to determine how many employees have an odd-numbered salary.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Work Hour Groups:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Group employees based on whether their work hours per week divided by 10 leaves a remainder of 1.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Age Remainder:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the remainder when dividing each employee’s age by 7?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Experience Remainder:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Use MOD to find employees whose years of experience divided by 4 leaves a remainder of 0.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Projects Grouping:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Identify employees whose number of projects divided by 3 leaves a remainder of 2.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Salary Modulo 5:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Find the remainder of dividing each employee’s salary by 5.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Performance Rating Groups:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Divide each employee’s performance rating by 3 and find the remainder.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Work Hours Modulo 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Find out which employees' work hours divided by 8 leave a remainder of 4.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Experience Modulo 7:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the remainder when each employee's years of experience is divided by 7?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Projects Modulo 4:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Find employees whose number of projects divided by 4 leaves a remainder of 3.</t>
-    </r>
-  </si>
-  <si>
-    <t>AVERAGE Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Average Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average salary of all employees.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Average Experience:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average number of years of experience of employees in the dataset?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Work Hours Per Week:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average number of work hours per week for all employees.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Projects Handled:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average number of projects assigned to each employee?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Performance Rating:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average performance rating for all employees.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Years in Role:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average number of years employees have been in their current roles?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Austin Office Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average salary of employees based in Austin.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Marketing Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average number of work hours per week for employees in the Marketing department?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Contract Employees’ Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average salary of employees with a "Contract" employment status.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Average Age:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average age of all employees?</t>
-    </r>
-  </si>
-  <si>
-    <t>AVERAGEIF Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Permanent Employee Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average salary of "Permanent" employees?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. High Performers' Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average number of work hours per week for employees with a performance rating of 8 or higher.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Married Employees’ Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average salary of married employees?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Divorced Employees’ Experience:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average years of experience for divorced employees.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Widowed Employees’ Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average salary of employees who are widowed?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. High School Education Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average number of work hours per week for employees with a "High School" education?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Finance Department Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average salary of employees in the Finance department?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. Seattle Office Projects:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average number of projects assigned to employees in Seattle.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Male Employees’ Experience:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average years of experience for male employees?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Contract Workers' Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average salary of employees working under contract?</t>
-    </r>
-  </si>
-  <si>
-    <t>AVERAGEIFS Function</t>
-  </si>
-  <si>
-    <r>
-      <t>1. High Performers, Married:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average salary of married employees with a performance rating of 7 or more.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Seattle Married Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average number of work hours per week for married employees based in Seattle?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Marketing Developers' Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average salary of employees with the job title "Developer" in the Marketing department.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Permanent High Performers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average number of projects for "Permanent" employees with a performance rating of 8 or higher?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Experienced Widowed Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average salary of employees with more than 10 years of experience who are widowed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Divorced, Low Experience:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average salary of divorced employees with less than 15 years of experience?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7. Austin Finance Projects:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate the average number of projects assigned to Finance department employees based in Austin.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8. High School, Low Salary:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average number of years in the current role for employees with a "High School" education and a salary below $50,000?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. Permanent Employees' Work Hours:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average number of work hours per week for "Permanent" employees based in Boston?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. Experienced PhD Holders:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What is the average salary of employees with a PhD and more than 20 years of experience?</t>
-    </r>
-  </si>
-  <si>
     <t>Siraj</t>
   </si>
 </sst>
@@ -2681,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2695,21 +709,15 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3095,8 +1103,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>105490</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Ink 28">
@@ -3115,7 +1123,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Ink 28">
@@ -3160,8 +1168,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>56170</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Ink 29">
@@ -3180,7 +1188,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Ink 29">
@@ -3225,8 +1233,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>106128</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Ink 36">
@@ -3245,7 +1253,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Ink 36">
@@ -3378,8 +1386,8 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>133580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="49" name="Ink 48">
@@ -3398,7 +1406,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="49" name="Ink 48">
@@ -3443,8 +1451,8 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>18421</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="70" name="Ink 69">
@@ -3463,7 +1471,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="70" name="Ink 69">
@@ -3552,8 +1560,8 @@
       <xdr:row>102</xdr:row>
       <xdr:rowOff>153551</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Ink 83">
@@ -3572,7 +1580,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Ink 83">
@@ -3661,8 +1669,8 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>66866</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="92" name="Ink 91">
@@ -3681,7 +1689,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="92" name="Ink 91">
@@ -3726,8 +1734,8 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>112668</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="93" name="Ink 92">
@@ -3746,7 +1754,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="93" name="Ink 92">
@@ -3791,8 +1799,8 @@
       <xdr:row>116</xdr:row>
       <xdr:rowOff>135531</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Ink 110">
@@ -3811,7 +1819,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Ink 110">
@@ -3856,8 +1864,8 @@
       <xdr:row>116</xdr:row>
       <xdr:rowOff>37333</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="143" name="Ink 142">
@@ -3876,7 +1884,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="143" name="Ink 142">
@@ -3921,8 +1929,8 @@
       <xdr:row>118</xdr:row>
       <xdr:rowOff>84708</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="164" name="Ink 163">
@@ -3941,7 +1949,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="164" name="Ink 163">
@@ -3986,8 +1994,8 @@
       <xdr:row>119</xdr:row>
       <xdr:rowOff>160030</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="181" name="Ink 180">
@@ -4006,7 +2014,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="181" name="Ink 180">
@@ -4051,8 +2059,8 @@
       <xdr:row>116</xdr:row>
       <xdr:rowOff>114455</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="182" name="Ink 181">
@@ -4071,7 +2079,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="182" name="Ink 181">
@@ -4116,8 +2124,8 @@
       <xdr:row>122</xdr:row>
       <xdr:rowOff>170211</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="186" name="Ink 185">
@@ -4136,7 +2144,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="186" name="Ink 185">
@@ -4181,8 +2189,8 @@
       <xdr:row>121</xdr:row>
       <xdr:rowOff>93644</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="194" name="Ink 193">
@@ -4201,7 +2209,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="194" name="Ink 193">
@@ -4246,8 +2254,8 @@
       <xdr:row>120</xdr:row>
       <xdr:rowOff>30840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="197" name="Ink 196">
@@ -4266,7 +2274,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="197" name="Ink 196">
@@ -4311,8 +2319,8 @@
       <xdr:row>122</xdr:row>
       <xdr:rowOff>85169</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="203" name="Ink 202">
@@ -4331,7 +2339,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="203" name="Ink 202">
@@ -4376,8 +2384,8 @@
       <xdr:row>126</xdr:row>
       <xdr:rowOff>171777</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="208" name="Ink 207">
@@ -4396,7 +2404,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="208" name="Ink 207">
@@ -4441,8 +2449,8 @@
       <xdr:row>127</xdr:row>
       <xdr:rowOff>19383</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="209" name="Ink 208">
@@ -4461,7 +2469,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="209" name="Ink 208">
@@ -4506,8 +2514,8 @@
       <xdr:row>127</xdr:row>
       <xdr:rowOff>95785</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="229" name="Ink 228">
@@ -4526,7 +2534,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="229" name="Ink 228">
@@ -4571,8 +2579,8 @@
       <xdr:row>127</xdr:row>
       <xdr:rowOff>116583</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="230" name="Ink 229">
@@ -4591,7 +2599,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="230" name="Ink 229">
@@ -4636,8 +2644,8 @@
       <xdr:row>128</xdr:row>
       <xdr:rowOff>171272</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="233" name="Ink 232">
@@ -4656,7 +2664,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="233" name="Ink 232">
@@ -4701,8 +2709,8 @@
       <xdr:row>128</xdr:row>
       <xdr:rowOff>172990</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="238" name="Ink 237">
@@ -4721,7 +2729,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="238" name="Ink 237">
@@ -4766,8 +2774,8 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>28371</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="242" name="Ink 241">
@@ -4786,7 +2794,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="242" name="Ink 241">
@@ -4831,8 +2839,8 @@
       <xdr:row>132</xdr:row>
       <xdr:rowOff>178737</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="246" name="Ink 245">
@@ -4851,7 +2859,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="246" name="Ink 245">
@@ -4896,8 +2904,8 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>46668</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="258" name="Ink 257">
@@ -4916,7 +2924,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="258" name="Ink 257">
@@ -4961,8 +2969,8 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>39468</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="259" name="Ink 258">
@@ -4981,7 +2989,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="259" name="Ink 258">
@@ -5026,8 +3034,8 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>125211</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="261" name="Ink 260">
@@ -5046,7 +3054,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="261" name="Ink 260">
@@ -5091,8 +3099,8 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>29451</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="263" name="Ink 262">
@@ -5111,7 +3119,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="263" name="Ink 262">
@@ -5244,8 +3252,8 @@
       <xdr:row>120</xdr:row>
       <xdr:rowOff>178339</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="268" name="Ink 267">
@@ -5264,7 +3272,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="268" name="Ink 267">
@@ -5309,8 +3317,8 @@
       <xdr:row>122</xdr:row>
       <xdr:rowOff>30790</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="269" name="Ink 268">
@@ -5329,7 +3337,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="269" name="Ink 268">
@@ -5379,8 +3387,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>38041</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Ink 6">
@@ -5399,7 +3407,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Ink 6">
@@ -5620,8 +3628,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>11639</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -5640,7 +3648,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -5685,8 +3693,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>133005</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Ink 29">
@@ -5705,7 +3713,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Ink 29">
@@ -5750,8 +3758,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>29769</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="60" name="Ink 59">
@@ -5770,7 +3778,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="60" name="Ink 59">
@@ -5815,8 +3823,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>123639</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Ink 68">
@@ -5835,7 +3843,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Ink 68">
@@ -6193,8 +4201,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>65448</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Ink 9">
@@ -6213,7 +4221,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Ink 9">
@@ -6258,8 +4266,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>30446</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -6278,7 +4286,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -6323,8 +4331,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>151930</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Ink 17">
@@ -6343,7 +4351,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Ink 17">
@@ -6432,8 +4440,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>152094</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Ink 24">
@@ -6452,7 +4460,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Ink 24">
@@ -6497,8 +4505,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>105572</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Ink 29">
@@ -6517,7 +4525,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Ink 29">
@@ -6562,8 +4570,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>144174</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="51" name="Ink 50">
@@ -6582,7 +4590,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="51" name="Ink 50">
@@ -6627,8 +4635,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>131410</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Ink 74">
@@ -6647,7 +4655,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Ink 74">
@@ -6692,8 +4700,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>9051</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="76" name="Ink 75">
@@ -6712,7 +4720,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="76" name="Ink 75">
@@ -6801,8 +4809,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>161062</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Ink 83">
@@ -6821,7 +4829,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Ink 83">
@@ -6866,8 +4874,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>27224</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="106" name="Ink 105">
@@ -6886,7 +4894,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="106" name="Ink 105">
@@ -6931,8 +4939,8 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>67143</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="107" name="Ink 106">
@@ -6951,7 +4959,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="107" name="Ink 106">
@@ -6996,8 +5004,8 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>9822</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="119" name="Ink 118">
@@ -7016,7 +5024,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="119" name="Ink 118">
@@ -7061,8 +5069,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>131984</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="129" name="Ink 128">
@@ -7081,7 +5089,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="129" name="Ink 128">
@@ -7126,8 +5134,8 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>38664</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Ink 130">
@@ -7146,7 +5154,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Ink 130">
@@ -7191,8 +5199,8 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>10478</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="137" name="Ink 136">
@@ -7211,7 +5219,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="137" name="Ink 136">
@@ -7256,8 +5264,8 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>38618</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="170" name="Ink 169">
@@ -7276,7 +5284,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="170" name="Ink 169">
@@ -7321,8 +5329,8 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>132985</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="171" name="Ink 170">
@@ -7341,7 +5349,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="171" name="Ink 170">
@@ -7386,8 +5394,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>18249</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="182" name="Ink 181">
@@ -7406,7 +5414,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="182" name="Ink 181">
@@ -7451,8 +5459,8 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>57976</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="188" name="Ink 187">
@@ -7471,7 +5479,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="188" name="Ink 187">
@@ -7516,8 +5524,8 @@
       <xdr:row>92</xdr:row>
       <xdr:rowOff>106133</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="189" name="Ink 188">
@@ -7536,7 +5544,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="189" name="Ink 188">
@@ -7581,8 +5589,8 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>35866</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="222" name="Ink 221">
@@ -7601,7 +5609,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="222" name="Ink 221">
@@ -7646,8 +5654,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>113649</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="223" name="Ink 222">
@@ -7666,7 +5674,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="223" name="Ink 222">
@@ -7711,8 +5719,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>162609</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="226" name="Ink 225">
@@ -7731,7 +5739,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="226" name="Ink 225">
@@ -7776,8 +5784,8 @@
       <xdr:row>100</xdr:row>
       <xdr:rowOff>153992</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="227" name="Ink 226">
@@ -7796,7 +5804,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="227" name="Ink 226">
@@ -7841,8 +5849,8 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>68185</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="232" name="Ink 231">
@@ -7861,7 +5869,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="232" name="Ink 231">
@@ -7906,8 +5914,8 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>56280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="244" name="Ink 243">
@@ -7926,7 +5934,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="244" name="Ink 243">
@@ -7971,8 +5979,8 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>18376</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="270" name="Ink 269">
@@ -7991,7 +5999,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="270" name="Ink 269">
@@ -8036,8 +6044,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>103127</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="271" name="Ink 270">
@@ -8056,7 +6064,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="271" name="Ink 270">
@@ -8101,8 +6109,8 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>144864</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="272" name="Ink 271">
@@ -8121,7 +6129,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="272" name="Ink 271">
@@ -8166,8 +6174,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>112487</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="273" name="Ink 272">
@@ -8186,7 +6194,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="273" name="Ink 272">
@@ -8231,8 +6239,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>172331</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="277" name="Ink 276">
@@ -8251,7 +6259,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="277" name="Ink 276">
@@ -8296,8 +6304,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>9971</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="278" name="Ink 277">
@@ -8316,7 +6324,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="278" name="Ink 277">
@@ -8361,8 +6369,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>36775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="281" name="Ink 280">
@@ -8381,7 +6389,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="281" name="Ink 280">
@@ -8426,8 +6434,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>96813</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="284" name="Ink 283">
@@ -8446,7 +6454,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="284" name="Ink 283">
@@ -8491,8 +6499,8 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>49358</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="285" name="Ink 284">
@@ -8511,7 +6519,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="285" name="Ink 284">
@@ -8556,8 +6564,8 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>26934</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="295" name="Ink 294">
@@ -8576,7 +6584,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="295" name="Ink 294">
@@ -8621,8 +6629,8 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>132098</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="296" name="Ink 295">
@@ -8641,7 +6649,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="296" name="Ink 295">
@@ -8686,8 +6694,8 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>105900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="304" name="Ink 303">
@@ -8706,7 +6714,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="304" name="Ink 303">
@@ -8751,8 +6759,8 @@
       <xdr:row>92</xdr:row>
       <xdr:rowOff>7935</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="309" name="Ink 308">
@@ -8771,7 +6779,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="309" name="Ink 308">
@@ -8816,8 +6824,8 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>75535</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="314" name="Ink 313">
@@ -8836,7 +6844,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="314" name="Ink 313">
@@ -8881,8 +6889,8 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>85779</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="315" name="Ink 314">
@@ -8901,7 +6909,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="315" name="Ink 314">
@@ -8946,8 +6954,8 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>29409</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="325" name="Ink 324">
@@ -8966,7 +6974,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="325" name="Ink 324">
@@ -9011,8 +7019,8 @@
       <xdr:row>108</xdr:row>
       <xdr:rowOff>104080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="328" name="Ink 327">
@@ -9031,7 +7039,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="328" name="Ink 327">
@@ -9076,8 +7084,8 @@
       <xdr:row>108</xdr:row>
       <xdr:rowOff>169960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="334" name="Ink 333">
@@ -9096,7 +7104,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="334" name="Ink 333">
@@ -9141,8 +7149,8 @@
       <xdr:row>108</xdr:row>
       <xdr:rowOff>135040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="335" name="Ink 334">
@@ -9161,7 +7169,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="335" name="Ink 334">
@@ -9206,8 +7214,8 @@
       <xdr:row>110</xdr:row>
       <xdr:rowOff>96265</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="336" name="Ink 335">
@@ -9226,7 +7234,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="336" name="Ink 335">
@@ -9271,8 +7279,8 @@
       <xdr:row>110</xdr:row>
       <xdr:rowOff>163749</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="344" name="Ink 343">
@@ -9291,7 +7299,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="344" name="Ink 343">
@@ -9359,7 +7367,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4051.12">679 378 8148,'0'0'5186,"100"-59"-5522,-69 53-1313,-6 2-1072,-7 0-2930</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4498.32">849 350 3890,'0'0'7401,"11"1"-7023,-1-1-324,1 0-1,-1 0 0,0-1 0,1 0 1,16-6-1,-24 7-61,-1-1 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,1 1 1,-2-1-1,1 1 0,0-1 0,0 0 1,0 0-1,-1 1 0,1-1 0,-1 0 1,1-1-1,-1 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,-1-5 0,0 6 29,0-1-1,1 1 0,-1-1 0,0 1 1,0 0-1,-1-1 0,1 1 1,0 0-1,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 1 1,1-1-1,-1 1 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,-3 1 0,2-1 67,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-4 2 0,1 6 101,-1 1 1,2-1 0,-1 1 0,1 0 0,1 0 0,0 1 0,1-1-1,0 0 1,0 1 0,1 0 0,1-1 0,0 1 0,3 20 0,-2-29-188,-1-1 0,1 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,0-1-1,0 1 0,0-1 1,0 1-1,2 0 0,2 1-10,-1-1-1,1 0 1,-1 0-1,1 0 1,0-1-1,0 0 1,10 1-1,45-5-2077,-55 2 1229,-1 0 0,1-1 0,-1 0 0,1 1 0,-1-2 0,8-3 0,7-10-5062</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4499.32">1080 263 6227,'0'0'4365,"16"5"-3461,50 16-13,-63-19-844,-1-1 0,1 1 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,0 0 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 0,-1 0 1,0 4-1,1-4 8,0-1 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 0 0,0 0 1,0 1-1,0-1 0,0 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1 0 1,-1 0-1,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-3 0 1,4-32 74,3 17-385,0 0-1,0 0 0,1 1 0,1 0 1,0-1-1,1 1 0,1 1 1,0-1-1,0 1 0,1 0 0,1 0 1,0 1-1,14-15 0,-15 97 3095,-8-35-2370,0-24-571,0-1 1,1 1 0,0 0-1,1 0 1,0-1 0,4 15 0,-2-20-2228,1-3-1609</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4949.4">1326 60 9380,'0'0'2097</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4949.39">1326 60 9380,'0'0'2097</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5361.65">1598 214 7716,'0'0'2982,"-14"2"-1264,-49 8-554,59-9-1100,0 1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,1 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 1-1,1 0 1,-5 7-1,0 3 38,1-1 0,-9 28-1,14-37-87,0-1-36,0 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,0-1-1,0 1 1,0-1 0,1 4 0,-1-6-6,0-1-1,0 1 0,1-1 1,-1 1-1,0 0 1,0-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 0,0 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,-1 0-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,-1-1 1,1 0-1,6-5-134,-1 0 0,1 0 0,-1-1 0,-1 0-1,1 0 1,-1-1 0,0 1 0,-1-1 0,0 0 0,0 0 0,3-10 0,15-28 831,-21 46-595,-1-1-1,0 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 1 0,0-1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,0 1 0,1-1 0,-1 1 1,17 22 302,-10-13 266,-3-6-605,-1-1 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 1 0,-1-2 0,1 1 0,4-2 0,1-1-494,0 0 1,-1-1-1,0 1 0,0-2 1,0 1-1,-1-1 0,0-1 1,0 1-1,0-1 0,6-9 1,-1-1-3529</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10604.1">1971 217 6115,'0'0'7611,"0"3"-7509,0 194 2582,-2-260-2761,1 21-234,1 0 0,7-60 0,-5 92 294,-1 0 0,2 0 0,-1 0 1,1 0-1,1 0 0,0 1 0,0-1 1,1 1-1,0 0 0,0 0 0,1 1 1,0 0-1,1 0 0,0 0 0,9-7 1,-15 14 36,0-1 1,1 1 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,0 1 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,0 0 0,0 0-1,-1 0 1,4 1 0,-4-1-10,0 1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 1 0,-1-1-1,1 0 1,-1 0 0,0 1 0,1-1-1,-1 0 1,0 0 0,0 1 0,1-1-1,-1 2 1,0 5 11,0 0-1,-1 0 1,1-1 0,-2 1 0,1 0-1,-1-1 1,0 1 0,-4 10-1,-3-3-66,-1 1-1,-1-2 1,0 1-1,-1-1 0,0-1 1,-1 0-1,0-1 0,-1 0 1,-1-1-1,-25 14 1,40-25 42,0 1 0,0-1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 1-1,1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 0-1,17 11-170,29 11-137,-35-17 305,116 44 781,-53-23 236,-64-18-1186,-3-1-1467,4-4-3689,-3-3-1522</inkml:trace>
 </inkml:ink>
@@ -9392,7 +7400,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">245 28 3025,'0'0'8263,"-2"-9"-1334,-1 5-7493,-6 0 544,0 2 0,-1-1 0,1 1-1,0 1 1,-1 0 0,1 0 0,0 1-1,-1 0 1,-16 2 0,-7-1-15,29 0 21,-1 0-1,0 0 1,1 0-1,-1 0 1,1 1 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 1 0,0-1-1,0 1 1,1 0-1,-1 0 1,1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,1 0-1,0 0 1,0 1 0,0-1-1,0 0 1,1 1-1,0-1 1,0 1 0,0 0-1,0-1 1,1 1-1,-1 0 1,1-1 0,1 1-1,-1 0 1,1-1-1,1 9 1,0-9 6,-1 0 0,1-1 1,0 1-1,0-1 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,1 0 1,-1 0-1,4 1 0,71 26-107,-60-23 66,-12-4 69,40 16-155,-45-18 131,0 1-1,-1-1 1,1 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-2 0-1,0 2 32,-1-2 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-6-1 0,-52 2 268,45-3-184,11 1-686,-17 0 1825,16-2-2856,30-12-9975</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="439.66">348 179 4178,'0'0'6923,"0"5"-4677,-4 36-1560,2-33-621,1 0-1,0 0 0,0 1 0,1-1 1,0 0-1,1 1 0,-1-1 0,2 0 1,-1 1-1,5 12 0,-5-19-58,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,2 0 0,1-1 16,0 1 0,0-1 1,0 0-1,-1 0 0,1 0 0,-1-1 0,1 0 0,-1 1 0,0-2 0,4-3 0,-1 0 131,-1-1 0,0 0-1,-1-1 1,0 0 0,0 1 0,0-2-1,-1 1 1,-1 0 0,0-1 0,0 0-1,-1 1 1,0-1 0,0 0 0,-1 0-1,-1-20 1,0 29-356,0 11-7269,0 3 3382</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="821.67">520 189 7475,'0'0'6972,"18"-7"-6449,57-17-115,-72 23-397,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 1 0,1-1 1,1 4-1,0 0-9,0-1 1,-1 1-1,1-1 1,-1 1-1,0 0 1,-1 0-1,0 0 1,0 0-1,0 7 1,-1-11-2,0-1-1,0 1 1,0 0 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,0-1 1,1 0 0,-1 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1-1 0,-3 2-1,0-1 71,-1 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-6-1-1,10-1-47,0 1 1,1-1-1,-1 1 0,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 1,1 1-1,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 1,1 0-1,-1-1 0,0-35 32,1 25 10,-1 7-56,0 0 1,1-1-1,0 1 1,0-1 0,1 1-1,-1 0 1,1 0-1,0 0 1,1 0-1,-1 0 1,6-7 0,-7 8 599,-1 14-12394</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1205.14">520 176 656</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1205.13">520 176 656</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1660.41">520 176 656,'89'-2'5109,"-88"2"-4720,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1 0,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1 0,1 2-1,8 21 2094,-7 35-3371,-3-37 1843,3 89 959,-2-124-1803,0-1 1,0 0-1,2 0 0,0 1 1,5-15-1,-7 24-144,0 0 1,1 1-1,0-1 0,0 1 1,0-1-1,0 1 1,1 0-1,-1 0 0,1 0 1,0 1-1,0-1 0,1 0 1,-1 1-1,1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,8-3 0,-10 6 13,0 0 0,0-1 0,-1 1 1,1 0-1,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,1 2 0,24 64 313,-16-38-91,-12-41-176,2 1 1,-1-1-1,1 1 0,1-1 1,0 1-1,0-1 0,1 1 1,1 0-1,5-17 0,-5 21-63,0 1 0,0 0 0,1 1-1,-1-1 1,1 1 0,0-1 0,1 1 0,-1 0-1,0 1 1,1-1 0,0 1 0,0 0-1,0 0 1,0 0 0,11-3 0,-13 5 51,0 0 0,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 1 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 1 1,0-1-1,0 0 1,0 0-1,0 1 0,0-1 1,-1 1-1,3 4 0,0 2 80,-1 0-1,0 0 1,-1 1-1,0-1 1,0 0-1,-1 1 0,0 0 1,-1-1-1,0 1 1,-1 10-1,0 6 52,-4-7-1086</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2047.85">1189 321 8052,'0'0'8251,"14"0"-7834,23 0-75,0-3 1,-1 0 0,55-14 0,-71 13-264,23-8-307,-42 11-167,-11 1-5355,-5 0 1476</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2420.03">1419 172 8708,'0'0'7070,"16"1"-6787,-2-1-240,-1 1 1,1 0-1,0 1 0,-1 1 1,18 5-1,-27-7-35,1 1-1,-1 0 0,0-1 1,0 1-1,-1 1 0,1-1 1,0 0-1,-1 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 1 1,0-1-1,-1 1 0,1 0 1,-1-1-1,0 1 0,0 0 1,-1 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,1 6 1,-2-8 8,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,-3 0 0,4-1 43,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,1-3 0,-1 1 17,0-2-65,1-1 0,-1 0-1,1 0 1,0 1 0,1-1 0,0 1 0,0-1 0,0 1 0,1 0-1,-1-1 1,2 1 0,-1 1 0,1-1 0,0 0 0,0 1 0,9-9 0,-9 10-233,0 1 1,0 0-1,0 0 1,0 1-1,1-1 1,0 1-1,-1 0 1,1 0-1,0 1 1,0-1-1,0 1 1,0 0-1,0 1 1,0-1-1,5 1 1,-4 0-388,2-1-548,-1 1 0,0 1 0,1-1 0,-1 1 0,0 1 0,9 2 0,5 3-2693</inkml:trace>
@@ -9464,7 +7472,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4080.48">2354 219 1072,'0'0'13276,"-9"-5"-12751,3 1-464,4 3-46,1-1 0,-1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-3 1 0,-3 3 62,-1 2-1,1-1 1,1 1 0,0 0-1,0 0 1,0 1 0,1 0-1,1 0 1,-1 1 0,1 0-1,1 0 1,0 0 0,1 0-1,-1 0 1,2 1 0,0-1-1,0 1 1,0 17 0,2-26-100,1-1 1,0 0-1,-1 1 1,1-1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 1,1-1-1,-1 1 0,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,3-1-1,4 2-122,0-1 0,0-1-1,0 1 1,16-5 0,-17 2 153,-1 0 0,1-1 0,0 0 1,-1 0-1,0-1 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,-1 0 1,1 0-1,-2-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-1 1,0 1-1,0-14 0,-2 20 576,0 8-277,-3 27-337,1-26 21,1 0 1,1 0 0,-1 1 0,1-1-1,1 0 1,1 12 0,-1-19-7,0-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1-1-1,25-4-348,-6-6 232,0-1 1,-1-1-1,0 0 1,-1-2-1,0 0 1,19-22-1,-32 37 536,-4 11-280,-1 15 45,-1-24-76,0 86 681,0-88-801,11-9-653,2-2 537,3-4-322,0 0 1,2 2-1,-1 0 0,2 1 0,0 0 0,40-16 1,-58 27 952,15 30 1145,-13-27-1606,1 1 1,-1-1 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0-1-1,-1 1 1,1-1 0,0 0-1,0 0 1,5-3 0,-1 2 20,0-1-1,-1 0 1,0-1 0,0 1-1,0-1 1,0-1 0,0 1-1,-1-1 1,0-1 0,0 1-1,7-9 1,-10 10 40,0 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1-1 0,0 1 0,0-1 0,0 1-1,0-1 1,-1 1 0,1-8 0,-1 11-55,0 1 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,-14 12 90,9-1-151,1 1 0,0-1 0,0 1 0,2 0 1,-1 0-1,-2 26 0,2 82-33,5-91 60,-2 0 0,0 0 1,-10 49-1,9-71-41,-1 0 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,-10 9 0,11-11 15,-1 0-1,1-1 1,-1 0 0,0 0 0,1 0 0,-1 0 0,-1-1 0,1 0 0,0 0-1,0 0 1,-1-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 0-1,-8 0 1,12-1 68,0 0 0,0 1 0,-1-1 0,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1-1,0-1 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1-1-1,1 1 1,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-3 0,-1-1-20,1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0 0 0,5-6 0,5 0-521,0 0 0,1 1 0,16-9 0,22-9-3710,-20 13-843</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4499.31">3146 301 8084,'0'0'8401,"2"-17"-7147,12-55-459,-12 68-761,-1-1 1,1 1-1,1 0 1,-1 0-1,0 0 1,1 0-1,0 0 1,0 1 0,0-1-1,0 1 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0 0 1,0 0-1,1 1 1,-1-1-1,1 1 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 1-1,0 0 1,-1 0-1,1 1 1,0-1-1,8 3 1,-12-2-70,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,0 1 1,0-1 0,0 0 0,-1 4 0,-4 55-185,1-48 155,0 0-1,-1 0 1,0 0-1,-1-1 1,0 0-1,-1 0 1,-9 11-1,6-9-91,1 1 0,1 0 0,-10 24 0,17-38 133,1-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1-1-1,1 1 0,0 0 0,35-7-82,-34 7 96,76-18 121,-25 6 8,83-29 1,-128 37-83,-7 3-38,1 0 1,-1 0-1,0 0 0,1 0 0,-1 1 1,1-1-1,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,1 0 0,2 0 1,-3 0-785,-3 0-1467,-8 0-1907</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5369.71">339 786 4882,'0'0'7532,"1"-7"-6908,2-33 761,-33 44-726,18 3-642,2 0 1,-1 0 0,1 1 0,0 1 0,1 0 0,-1 0 0,2 1 0,-11 14 0,7-7 40,0 1 1,1 1-1,1-1 1,-11 30-1,18-39-40,0-1 0,0 1-1,1 0 1,1-1 0,-1 1 0,2 0 0,-1 16-1,1-23-12,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,2 0 0,5-1 40,0 1 0,0-2 0,0 1 1,0-1-1,0-1 0,-1 1 0,1-1 0,-1-1 0,0 0 1,0 0-1,11-8 0,-11 7-943,0-1 0,-1-1 0,0 1 0,0-1 0,0 0 0,6-11 0,-3 2-4478</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5774.97">404 823 7796,'0'0'5754,"13"17"-5386,40 55-144,-50-68-200,-1 0-1,0 1 0,1-1 0,-1 0 0,-1 1 0,1 0 0,-1 0 0,0-1 1,0 1-1,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0-1 1,-1 7-1,2-10-14,-3 7 72,0-13-62,2-14-455,3 12 301,0 1 0,1-1 1,0 1-1,0 0 0,0 0 1,0 0-1,1 0 0,0 1 1,8-9-1,48-46 133,-41 43-34,-18 16 110,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 1,0 1-1,3 0 0,-3 1-41,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 1 1,1 0-1,1 11 119,0-1 1,-1 1 0,-1 22-1,0-27 45,0-1-198,0-1-1,-1 1 0,0 0 0,0 0 1,0-1-1,-1 1 0,0-1 0,-1 1 1,-4 9-1,3-10-542,1 0-1,-1-1 1,0 0-1,-1 0 1,1 0-1,-7 5 1,-5 3-3455</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5774.96">404 823 7796,'0'0'5754,"13"17"-5386,40 55-144,-50-68-200,-1 0-1,0 1 0,1-1 0,-1 0 0,-1 1 0,1 0 0,-1 0 0,0-1 1,0 1-1,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0-1 1,-1 7-1,2-10-14,-3 7 72,0-13-62,2-14-455,3 12 301,0 1 0,1-1 1,0 1-1,0 0 0,0 0 1,0 0-1,1 0 0,0 1 1,8-9-1,48-46 133,-41 43-34,-18 16 110,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 1,0 1-1,3 0 0,-3 1-41,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 1 1,1 0-1,1 11 119,0-1 1,-1 1 0,-1 22-1,0-27 45,0-1-198,0-1-1,-1 1 0,0 0 0,0 0 1,0-1-1,-1 1 0,0-1 0,-1 1 1,-4 9-1,3-10-542,1 0-1,-1-1 1,0 0-1,-1 0 1,1 0-1,-7 5 1,-5 3-3455</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6178.77">770 612 8340,'0'0'5234,"4"63"-10484,-12-23-113</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6582.87">832 769 7443,'0'0'6611,"0"106"-5666,0-66-17,0-1-191,-9-6-241,5 0-272,-8-5-224,8-4-208,4-10-833,-4-5-1600</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6583.87">799 912 10229,'0'0'3585,"90"-23"-6002,-69 23-1088</inkml:trace>
@@ -9537,7 +7545,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1560.07">845 251 5122,'0'0'8711,"5"5"-8495,2 5-77,-1 1 0,0-1 0,0 1 0,-1 0 0,0 0 0,-1 1 0,0 0 0,-1-1 0,-1 1 0,2 15 0,0-2-29,-2 1 0,-1 0 0,-1 0 0,-4 30-1,3-50-92,0-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,-5 8 0,6-11 7,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1-1 0,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,0-1-1,1 1 1,-4 0-1,5-4-17,0 1-1,0-1 1,0 1-1,0-1 1,1 0 0,-1 1-1,1-1 1,0 0-1,0 0 1,0 1-1,0-6 1,0 6-8,1-8-56,0 1 0,0-1 1,1 0-1,0 0 0,0 1 1,1-1-1,1 1 1,-1 0-1,2 0 0,-1 0 1,8-11-1,8-7-284,1 0 0,26-24 1,24-32-231,-59 56 724,-14 21 212,-10 16-262,6-4-116,0 0 0,1 1-1,0-1 1,0 1 0,1 0-1,0 0 1,0 0 0,1 1-1,0 0 1,0-1 0,1 1-1,-1 0 1,2 0 0,-2 12-1,3-19-245,4-2 249,-1 1 0,1-1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 0 0,0 1-1,0-1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,-1 0 1,1 1 0,-1-1-1,0 0 1,3-5-1,-1 3-29,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,10-6 1,-13 10 12,-1 24-197,0-17 323,-1-1-78,1-1 0,0 1 0,1-1 0,-1 1 0,1 0-1,0-1 1,3 8 0,-3-11-26,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 0,1 1 1,0 0-1,1-2 0,1 1 42,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 1,3-7-1,28-59 221,-30 54-220,0 0-1,-1 0 1,-1 0 0,0 0-1,-1 0 1,-1-1 0,-3-28-1,-5 27 554,2 16 28,4 11-380,0 64-396,0 55 810,3-115-1240,0 0 0,1 0 0,0-1 0,1 1 0,0-1 0,1 1 1,9 16-1,-2-11-3695,-2-13-1785</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1950.26">1235 291 3474,'0'0'13254,"-21"-87"-13254,54 68-64,8 3-32,0 0-209,-4 4-927,-12 7-929,-17 5-1201</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1951.26">956 0 9172,'0'0'6499,"4"9"-10261,16 17 1041,-3 7-3810</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2554.28">1698 157 5651,'0'0'8403,"7"8"-8170,5 11-89,-2-1 1,0 2 0,-2-1 0,0 1 0,-1 0 0,0 1 0,-2 0 0,3 23 0,1 29 2,-9-108-24,2 1 1,1-1 0,1 1-1,3 0 1,14-47 0,-21 79-128,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,3-2 0,-3 2-16,1 0-1,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 1,0 1-1,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 0,1 0 1,-1-1-1,0 1 0,0 0 1,0 1-1,0 0 0,6 7-43,0 0 0,-1 1 0,0-1 0,6 16 0,-4-8 100,-1 1 1,-1 0-1,-1 0 1,0 0-1,-2 0 1,4 38 0,-7-55-19,2-4-18,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1-1,0 1 1,-1-1 0,1 0-1,-1 1 1,1-7 0,0 2-31,21-82-240,-20 81 258,1 1 0,0-1 0,1 1-1,0 0 1,0 1 0,1-1 0,0 1-1,8-10 1,-13 16 21,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,1 0-1,-1-1 0,1 1 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1-1,0 0 0,-1 0 1,2 1-1,11 20 194,-1 30-41,-3 34-841,-5-28-3886,-1-28-227</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2554.27">1698 157 5651,'0'0'8403,"7"8"-8170,5 11-89,-2-1 1,0 2 0,-2-1 0,0 1 0,-1 0 0,0 1 0,-2 0 0,3 23 0,1 29 2,-9-108-24,2 1 1,1-1 0,1 1-1,3 0 1,14-47 0,-21 79-128,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,3-2 0,-3 2-16,1 0-1,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 1,0 1-1,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 0,1 0 1,-1-1-1,0 1 0,0 0 1,0 1-1,0 0 0,6 7-43,0 0 0,-1 1 0,0-1 0,6 16 0,-4-8 100,-1 1 1,-1 0-1,-1 0 1,0 0-1,-2 0 1,4 38 0,-7-55-19,2-4-18,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1-1,0 1 1,-1-1 0,1 0-1,-1 1 1,1-7 0,0 2-31,21-82-240,-20 81 258,1 1 0,0-1 0,1 1-1,0 0 1,0 1 0,1-1 0,0 1-1,8-10 1,-13 16 21,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,1 0-1,-1-1 0,1 1 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1-1,0 0 0,-1 0 1,2 1-1,11 20 194,-1 30-41,-3 34-841,-5-28-3886,-1-28-227</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3777.28">2235 231 6915,'0'0'8956,"-11"2"-8737,8-2-203,0 0 1,-1 1-1,1-1 0,0 1 0,-1 0 1,1 0-1,0 0 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,1 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,1 0-1,-1 1 0,1-1 0,0 0 1,0 0-1,-1 7 0,-3 56-130,5-58 17,0-8 82,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,1 0 0,15-7-339,10-12 245,-17 8 73,-1-1 0,0 0 0,0 0 0,-2-1 0,8-17 0,-14 34 17,0 1 0,0-1 1,1 1-1,-1-1 0,1 1 0,0-1 1,0 0-1,1 1 0,-1-1 0,1 0 1,0 0-1,3 6 0,-4-7 46,1 0-1,-1-1 1,1 1-1,-1 0 1,1 0 0,0-1-1,0 1 1,0-1-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0 0,-1-1-1,1 0 1,0 1-1,0-1 1,3 1 0,-4-3 6,0 1 1,-1-1-1,1 1 0,-1-1 1,1 0-1,0 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,1 0 0,-1 1 1,0-1-1,0 0 1,0 0-1,0-1 1,3-68 33,-4 55-116,1 15 11,0 1 1,0-1-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 1,0 0-1,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,-1 1 0,2-1 0,1 1-25,0 1 1,-1-1-1,1 0 1,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 0,1 4 1,-1 0 8,1 1 1,-1-1-1,-1 1 0,1 0 1,-1 0-1,0 0 0,-1 0 1,1-1-1,-2 14 0,0-11 252,1-1-1,0 1 1,1 0-1,0 0 1,3 10-1,-4-18-192,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 1 0,0-1-1,0 0 1,0 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 1 0,1-1 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,1 0 1,12-8 255,6-16 108,-19 24-366,9-13 44,-1 1 0,-1-1-1,0-1 1,-1 1 0,-1-1-1,0 0 1,0-1 0,-1 1-1,-1-1 1,-1 1 0,0-1-1,-1 0 1,0 0 0,-2 0 0,-2-23-1,-1 27 347,-1 18-139,-2 18-271,0 159 266,10-196-206,2-1 0,-1 1 0,1 0 1,1 0-1,0 1 0,1 0 0,0 0 0,1 0 0,0 1 0,0 0 0,1 0 0,12-9 0,-20 18-51,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,0 0 0,0 1 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 1 1,1 0-1,-2 0-7,-1 0 1,1 0-1,0 0 1,0 1-1,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,-1-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,-1 3 0,0 4 50,0 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-2 0 0,-6 12 0,5-14-25,-2 4-60,0 0 1,-1 0 0,-1-1-1,1 0 1,-2-1-1,-13 11 1,22-19-48,35-1-1646,-21-2 1789,0-1 0,-1 0-1,1 0 1,-1-2 0,0 1 0,-1-2-1,17-11 1,-9 6 113,-2-2 1,0 0-1,26-27 0,-22 6 818,-20 33-841,-1 1 1,1-1-1,0 1 1,-1-1-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 1 0,-1-1-1,-1-2 1,2 3-117,0 1 1,-1-1 0,1 1 0,0 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,0-1 0,-1 1-1,1 0 1,-1 0 0,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,1 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,-1 0 0,1 1-1,0-1 1,0 1 0,-1-1 0,1 1 0,0-1-1,0 1 1,0-1 0,0 0 0,-1 1 0,1-1-1,0 2 1,-7 27-412,7-24 302,1 1 0,0 0 0,0-1 1,0 1-1,0-1 0,1 0 1,0 1-1,0-1 0,0 0 1,1 0-1,0 0 0,0-1 1,0 1-1,0-1 0,1 1 1,0-1-1,5 5 0,23 31 267,-31-39-162,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,-1 0 0,-39 20 546,36-19-538,-98 36-1496,34-15-3914,16-7-2368</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4567.07">2198 600 8708,'0'0'7638,"7"-3"-7483,-2 0-119,0 0 1,0 1 0,0 0-1,0 0 1,0 0-1,0 1 1,1 0-1,9-1 1,-13 2-21,-1 0 1,1 0-1,0 0 1,0 0 0,-1 1-1,1-1 1,-1 1-1,1-1 1,0 1-1,-1 0 1,1-1-1,-1 1 1,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1 0 1,0-1 0,0 1-1,-1 3 1,1 6 46,0 1 0,-1-1-1,0 0 1,-1 1 0,-1-1 0,1 0 0,-2 0 0,0-1 0,0 1 0,-1-1 0,0 1 0,-1-1 0,0-1 0,-9 13 0,-5 1-266,0-1-1,-1 0 1,-1-1 0,-32 22 0,54-43 179,0 1 1,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0-1,0 0 1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,-1-1 0,1 1-1,0 0 1,0-1 0,-1 1 0,1-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,-1-1-1,1 1 1,1-1 0,-1 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,1 0 0,-2 0 44,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 1 1,0-1 0,-1 1-1,1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,2 0 1,1 0-2,0 1 1,0 0 0,1 0-1,-1 0 1,0 1 0,0-1-1,0 1 1,0 0 0,-1 0-1,1 1 1,0-1 0,-1 1 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,-1 1 0,1-1-1,-1 1 1,4 7 0,19 21-1857,-23-30 1206,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,6 4 0,5 0-5453</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4944.71">2421 690 5523,'0'0'12485,"-6"0"-12045,5 0-437,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 2 1,1 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,1-1 0,0 1 0,-1 0-1,4 5 1,0 3 25,1-1 0,1 0 0,0 0-1,0 0 1,1-1 0,12 13 0,14 5 66,-25-22-376,-1 0 0,0 1 0,0 0 0,-1 0 0,6 7 0,-10-7-2031,-15-4-9637</inkml:trace>
@@ -9696,7 +7704,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">128 347 4786,'0'0'4810,"0"-9"-4228,1 0-351,0 6-134,-1 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,-1-3 0,2 5-34,-1 0 0,0 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,0 0 0,0 1 1,1-1-1,-1 1 0,0 0 1,0-1-1,0 1 0,0-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,1 1-1,-1-1 1,0 1-1,0-1 0,0 1 1,-29 21-158,22-12 79,1 0-1,0 1 1,0 0 0,1 0 0,1 0 0,0 1 0,1 0 0,0 0 0,0 1 0,1-1-1,1 1 1,0-1 0,1 1 0,1 23 0,0-34 9,0-1 1,0 1-1,0 0 0,0-1 1,1 1-1,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 1,1-1-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,1 0 1,1 2-1,1-1-11,0 0-1,-1 0 0,1-1 1,0 1-1,0-1 1,0 0-1,0 0 1,8 0-1,-3 0-43,0-1 0,0 0 0,0 0 0,0-1 0,0-1 0,0 1 0,15-6 0,-10 0 30,-1-1-1,1-1 1,-1-1-1,-1 1 1,0-2-1,0 0 1,-1 0-1,0-1 1,-1-1 0,0 1-1,-1-2 1,-1 1-1,11-24 1,-16 45 420,-2-2-390,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,6 10 0,-6-13-5,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 1,-1-1-1,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,3-2 0,0-1 5,1 1 0,-1-1 0,0-1 1,0 1-1,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 0 0,-1 0 1,1 0-1,-1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,0-7 0,-1 10 4,0 0-1,0 0 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,-5 0 1,-2-1 47,1 0 1,0 1 0,-1 0-1,1 1 1,0 0-1,-1 0 1,-12 3 0,20-2-60,1-1 0,-1 1 1,1-1-1,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 1-1,0-1 0,1 1 1,0-1-1,-1 1 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,1 1 0,-1 0 1,0-1-1,0 1 0,1-1 1,0 3-1,-1-1-16,1 0 0,0-1 0,0 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 0 0,1 1 0,0-1 0,-1 0-1,1 0 1,0 1 0,0-1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1-1,3 1 1,2-2-13,-1 1 0,1-1 0,0 0 0,0-1 0,0 1-1,0-2 1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1-1-1,1 0 1,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1-1,-1 0 1,1 0 0,6-7 0,-5 4 10,0 0 0,-1-1-1,1 1 1,-2-1 0,1 0 0,-1 0 0,0-1-1,-1 0 1,0 0 0,0 0 0,-1 0 0,0-1-1,-1 1 1,0-1 0,1-11 0,-1 7 129,-2-1 0,0 0 0,0 1 0,-2-1 0,0 0 0,0 1 0,-9-28 0,5 34 789,2 14-438,1 16-377,2 91 502,3 134 454,7-190-1988,-8-55 630,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0-1 1,0 1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 0-1,0 0 1,3 1 0,15 2-6210</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="415.73">714 230 8724,'0'0'3298,"12"-9"-3096,41-27-68,-52 35-133,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 1 1,1-1-1,0 1 0,0-1 1,-1 1-1,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 1-1,3 0 0,-4 0-18,0 1-1,1-1 1,-1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1 0-1,1 3 1,0 2 74,-1 1 1,1 0 0,-2-1-1,1 1 1,-1 0-1,0-1 1,-4 14 0,0-10 173,-1 0 0,0 0-1,0-1 1,-1 0 0,-10 11 0,9-11 169,-1 1-1,2 1 0,-11 19 0,17-30-388,1-1 0,-1 1-1,1 0 1,0-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1-1,1 0 1,-1-1 0,0 1-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,1-1 0,-1 1-1,0-1 1,1 1 0,-1-1-1,1 1 1,-1-1 0,1 0-1,-1 1 1,1-1 0,0 0-1,-1 1 1,1-1 0,-1 0-1,1 0 1,0 0 0,-1 0-1,2 1 1,37-2 58,-27-1 4,14 0 15,0-2 1,0-1 0,-1-1 0,29-11-1,97-46-254,-142 58-760,-1 0 0,0 0 0,0-1 0,13-11 0,-16 12-857,4-2-2099</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="415.72">714 230 8724,'0'0'3298,"12"-9"-3096,41-27-68,-52 35-133,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 1 1,1-1-1,0 1 0,0-1 1,-1 1-1,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 1-1,3 0 0,-4 0-18,0 1-1,1-1 1,-1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1 0-1,1 3 1,0 2 74,-1 1 1,1 0 0,-2-1-1,1 1 1,-1 0-1,0-1 1,-4 14 0,0-10 173,-1 0 0,0 0-1,0-1 1,-1 0 0,-10 11 0,9-11 169,-1 1-1,2 1 0,-11 19 0,17-30-388,1-1 0,-1 1-1,1 0 1,0-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1-1,1 0 1,-1-1 0,0 1-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,1-1 0,-1 1-1,0-1 1,1 1 0,-1-1-1,1 1 1,-1-1 0,1 0-1,-1 1 1,1-1 0,0 0-1,-1 1 1,1-1 0,-1 0-1,1 0 1,0 0 0,-1 0-1,2 1 1,37-2 58,-27-1 4,14 0 15,0-2 1,0-1 0,-1-1 0,29-11-1,97-46-254,-142 58-760,-1 0 0,0 0 0,0-1 0,13-11 0,-16 12-857,4-2-2099</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9754,9 +7762,9 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">156 203 2913,'0'0'6707,"-11"-14"-1918,5 14-4770,0 0 0,0 1 0,0-1 0,0 1 0,0 1 1,0-1-1,1 1 0,-1 0 0,0 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,0 1 0,0-1 0,1 1 0,-8 8 0,7-7-34,1 1-1,0 0 1,0 0 0,1 1-1,0-1 1,0 1-1,0-1 1,1 1 0,0 0-1,0 0 1,1 0-1,0 0 1,0 0 0,0 13-1,1-16 5,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1-1 1,1 1 0,0 0-1,0-1 1,1 0 0,3 5 0,-3-5 15,1 0 1,0 0 0,0-1 0,0 1-1,1-1 1,-1 0 0,0 0-1,1 0 1,-1-1 0,1 0 0,0 0-1,0 0 1,8 0 0,-12 0-84,10 0 262,-1 0 1,0-1 0,1 0-1,17-2 1,-26 2-221,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,-1 0 1,1-1-1,1-2 0,-2 2-214,0 1 0,0-1 1,0 0-1,0 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0-2 1,0-2-3518</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="529.31">263 249 5987,'0'0'7446,"0"-1"-7409,1 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,1 1-1,1 4 21,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0 0-1,1 7 1,-1 4 23,0-1-1,-1 1 0,-3 20 0,-11-13-31,14-24-38,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0-4-47,0 0-1,1-1 1,-1 1 0,1 0-1,0-1 1,1 1 0,-1 0-1,1 0 1,0-1 0,0 1-1,3-7 1,1 4-38,0 0 1,1 0 0,0 0-1,0 1 1,1 0 0,-1 0-1,2 1 1,10-8 0,-3 3-2,0 0 1,1 1-1,24-10 1,-39 19-486,3 0-46</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="915.34">481 216 5426,'0'0'9925,"0"62"-9365,0-37-352,0 1-48,0-6-160,-3-2-160,3-5-576,-4-3-977</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916.34">510 1 9957,'0'0'4930,"0"38"-8964,0-9-1328</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="529.3">263 249 5987,'0'0'7446,"0"-1"-7409,1 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,1 1-1,1 4 21,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0 0-1,1 7 1,-1 4 23,0-1-1,-1 1 0,-3 20 0,-11-13-31,14-24-38,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0-4-47,0 0-1,1-1 1,-1 1 0,1 0-1,0-1 1,1 1 0,-1 0-1,1 0 1,0-1 0,0 1-1,3-7 1,1 4-38,0 0 1,1 0 0,0 0-1,0 1 1,1 0 0,-1 0-1,2 1 1,10-8 0,-3 3-2,0 0 1,1 1-1,24-10 1,-39 19-486,3 0-46</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="915.33">481 216 5426,'0'0'9925,"0"62"-9365,0-37-352,0 1-48,0-6-160,-3-2-160,3-5-576,-4-3-977</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916.33">510 1 9957,'0'0'4930,"0"38"-8964,0-9-1328</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1377.97">623 178 1201,'0'0'8107,"11"-17"-3022,-10 20-5032,1 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,-1 6 1,2-3 80,-1 232 1003,0-238-1157,0 1-1,0-1 1,0 1 0,0-1 0,1 0 0,-1 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,1 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1-1,0 0 1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1-1,0-1 1,1 0 0,-1-1 0,2 1 0,0 0-313,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 1,0-1-1,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 1,3-4-1,7-14-3739</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1778.62">658 310 7139,'0'0'7908,"89"-23"-15608</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2231.91">790 272 2849,'0'0'7708,"7"1"-7260,-2-1-375,0 1-1,0-2 1,0 1-1,0 0 1,0-1-1,0 0 1,0 0-1,7-3 1,-10 3-70,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 0 0,1 1-1,-1-1 1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1-4 0,0 6 62,-1-1-1,1 1 0,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 0 1,-1 1-1,-19 8 831,16-2-851,-1 0 1,1 0-1,0 1 0,1-1 1,0 1-1,0 0 1,1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,1 0 1,-1 0-1,2 9 1,-1-16-150,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0 0,0-1-1,1 1 1,-1 0-1,1-1 1,-1 1 0,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1-1,1-1-180,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,2-2 0,3-1-676,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,6-7 0,3-8 307,-6 8 1887,-1 1 0,1 0 0,1 0 1,18-16-1,-25 24-1111,-1 1-1,1 0 1,0-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,1 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 1 0,-1-1-1,3 3 1,-1 1-71,0-1 0,0 1 0,0 0 0,0 0 0,-1 1 0,0-1 0,0 0 0,-1 1 0,3 10 0,-4-14-15,1 0-1,-1-1 1,1 1 0,-1 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1 0,-2 0-1,4-2 4,-1 0 0,1 0 0,-1-1-1,1 1 1,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,0-1 0,0 1 0,-1-1 0,1 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,0 1 0,1-1 0,5-27-347,3 11-176,1 0-1,1 1 1,1 0 0,1 1 0,0 1-1,0 0 1,17-13 0,-30 35 1246,0-1 0,0 0 0,0 0 1,-1 1-1,-2 9 0,-16 61 868,17-43-6728</inkml:trace>
@@ -9904,10 +7912,10 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 323 3458,'0'0'10020,"4"-4"-8889,2-1-898,0 0 0,0 1 0,0-1 0,1 2 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 1 0,12-1 0,24-2-367,47 2 0,-77 2-269,0 0-699,19 1-6176</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="417.43">61 421 5811,'0'0'6227,"99"-7"-4867,-42-10-752,13 1-399,4-3-65,-4 3-144,-9 6-609,-11 1-2256,-13 7-1905</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="417.42">61 421 5811,'0'0'6227,"99"-7"-4867,-42-10-752,13 1-399,4-3-65,-4 3-144,-9 6-609,-11 1-2256,-13 7-1905</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="808.29">1408 278 7892,'0'0'9479,"0"-7"-8887,0 4-548,0 6 416,0 40-231,-2 0 0,-2 0-1,-11 45 1,12-73-557,-6 39-3997,13-44 70,13-6-1849</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1334.01">1855 246 2081,'0'0'11661,"-14"1"-10775,-47 8-422,58-8-427,1 1-1,-1-1 0,0 0 1,0 1-1,1-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1 0 1,-1 5-1,0 1 165,-1 0 1,2 0-1,-1 0 0,1 1 1,1 8-1,-1-15-176,1 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 1,0 1-1,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,4 4 1,-2-4-3,0 0 0,0 0 1,0-1-1,0 1 0,1-1 1,-1 0-1,0 0 1,1 0-1,-1-1 0,0 1 1,1-1-1,-1 1 0,1-1 1,4-1-1,7 1 18,0-1-1,0 0 0,-1-2 1,1 1-1,24-9 0,-31 8-59,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 0 0,10-12 0,-13 14 25,-1 0 0,1 0 0,-1-1 0,0 1 1,0-1-1,0 0 0,0 1 0,-1-1 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,-1 0 0,1 0 0,-1 1 0,0-1 1,0 0-1,0 1 0,-1 0 0,1-1 0,-1 1 1,0 0-1,0 0 0,-5-4 0,-2-3-14,-1 0 0,-1 1 0,0 0 0,0 1 0,-1 0-1,0 1 1,-1 1 0,-25-12 0,38 19-2,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,2-1 1,0-2-24,0 0 1,0 1 0,1 0 0,-1-1 0,1 1-1,0 0 1,5-4 0,1 1 6,1 0-1,0 1 1,1 0 0,-1 1-1,1 0 1,0 1 0,0 0-1,0 1 1,0 0 0,0 0-1,1 1 1,-1 1 0,1 0-1,10 1 1,-21 0 0,0 0 0,1-1-1,-2 1 1,1 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 2 0,-3 37-30,0-33 126,1 0 1,-2 0 0,1 0 0,-1 0-1,0-1 1,-1 1 0,1-1 0,-1 0 0,0 0-1,-1-1 1,1 1 0,-12 7 0,-10 6-483,-44 25 0,62-41-5343</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2510.22">1055 791 5410,'0'0'9410,"-6"0"-8604,-12 0-479,22 0-175,45 0 28,39-5 530,-1-4 0,99-23 0,-102 17-607,916-202 361,-967 208-1139,-26 7-1624,-21 5-871,-18 6-1408,-12 3-3682</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2510.21">1055 791 5410,'0'0'9410,"-6"0"-8604,-12 0-479,22 0-175,45 0 28,39-5 530,-1-4 0,99-23 0,-102 17-607,916-202 361,-967 208-1139,-26 7-1624,-21 5-871,-18 6-1408,-12 3-3682</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9969,7 +7977,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2302.77">569 606 4802,'0'0'10602,"1"-10"-9740,0 3-769,-1 3-18,1-1 0,-1 1-1,1-1 1,-1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1-1,-1 1 1,1 0 0,0-1 0,-1 1-1,0 0 1,0 0 0,0 0-1,-1 0 1,-4-5 0,3 5-34,0 1 0,0 0 0,0 0-1,0 0 1,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 1 0,-7-2 0,9 2-27,1 0 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,-1 2 1,-1 5-23,0 1 0,0 0 1,1 1-1,0-1 1,1 1-1,0-1 1,1 1-1,0 0 1,0-1-1,1 1 1,1 0-1,0 0 1,0-1-1,1 1 1,0-1-1,5 12 0,-5-19-2,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1-1,1-1 1,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0-1,0-1 1,1 1 0,-1-1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0-1,-1 0 1,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1-1,6-5 1,-3 1-5,0-1-1,-1-1 1,0 1-1,0-1 1,-1 0-1,-1 0 1,1 0-1,-1 0 1,-1-1-1,1 1 1,-2-1-1,1 1 1,-2-1-1,1 0 1,-2-12 725,1 38-558,0-8-145,0 14 71,1 0-1,4 24 1,-5-41-92,1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0-1,1 0 1,-1-1 0,1 1 0,-1-1 0,1 1 0,1-1 0,-1 0 0,8 6 0,-10-8-42,1-1 0,1 1 0,-1-1 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1-1,-1 0 1,0 1 0,0-1 0,1-1 0,-1 1 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0 0,0 0 0,1-2-1,3-2 56,-1-1-1,0 0 1,0 0-1,-1 0 1,0-1-1,0 0 1,0 1-1,4-18 1,-5 10 71,0 0 0,-1-1 0,0 1 0,-1-24 0,-1 34-36,0 1-1,0-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,0 0 0,0-1 0,-1 1 1,0 0-1,1 0 0,-1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 1 0,0 0 1,0 0-1,-6-5 0,7 7-5,-1 0 0,1 1 0,0-1-1,-1 0 1,1 1 0,-1 0 0,1 0 0,-1-1-1,1 1 1,0 1 0,-1-1 0,1 0 0,-1 0-1,1 1 1,-1 0 0,1-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,0 1 0,0-1 0,0 0-1,-4 4 1,5-4-42,-1 0 0,0 1 0,1-1 0,-1 1 0,0 0-1,1-1 1,0 1 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,0 0 0,0 0 0,0 0-1,1 1 1,-1-1 0,2 4 0,0-5-33,1 0-1,0 0 1,0-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 0-1,0 0 1,-1 0 0,6-2-1,-1 2-22,56-8-180,-52 5 216,0 1 1,0 0-1,0 1 0,0 1 0,13 0 0,-23 0 34,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 2 0,9 32 404,-7-25-320,1 20 277,-2-17-227,1 0 0,-1 0 0,2 0 0,5 18 0,-7-30-124,-1 1 0,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,1 0 0,-1 0 1,0-1-1,1 1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,1-1 1,-1 0-1,1 1 0,0-1 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 1 1,0-1-1,2-1 0,2-1 26,-1 0-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 1,-1-1-1,0 1 0,0-1 0,0 1 0,-1-1 0,4-9 1,19-64 21,-21 58-161,0 0 0,-2-1 0,1-23 0,25 46-784,-26 0 871,0-1 1,-1 1-1,1-1 0,-1 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 0,-1-1 1,1 3-1,4 43 330,-3-24-214,0-12-76,6 37 140,-7-47-163,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,0-1 0,-1 1 0,1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,2 2-1,-2-3 9,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,3-3 0,29-38 209,-24 29-249,16-30-165,12-17-337,-34 57 491,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 1 1,1 0-1,0 0 1,-1 0-1,1 0 1,6-1-1,-9 2 36,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,-1 0 1,1-1-1,0 1 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1 2-1,-1-3 240,-50-4 161,41 2-404,-1 1 0,1 0 0,0 0 0,-1 1 0,-14 2-1,21-1 14,-1 0-1,1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 0,-1 0 1,1 1-1,0-1 0,-1 0 1,1 1-1,0 0 0,1-1 1,-1 1-1,0 0 0,-1 4 1,-2 3 3,2 0 0,-1 0 0,1 0 0,1 0 1,0 0-1,0 0 0,1 1 0,1-1 0,-1 1 0,2 12 0,0-22-6,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1-1-1,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,3 0 0,2 0 6,-1 0 1,1 0 0,-1-1-1,1 1 1,-1-1-1,9-3 1,-9 1 29,1 0-1,-1-1 1,1 1-1,-1-1 1,0-1-1,0 1 1,-1-1-1,0 1 1,1-1-1,-1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,0 0-1,-1 0 1,0 0-1,0 0 1,0-1 0,1-10 882,-3 20-903,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 1,0 0-1,1 2 0,-2-5-7,1 2-3,0 0 1,0 0 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,0 1-1,0-1 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,0-1-1,0 0 1,0 1 0,1-1 0,-1 0-1,0 0 1,0-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0-1-1,0 0 1,2 0 0,3-2 6,-1 0 0,-1 1 0,1-2 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,-1-1 0,9-9 0,-9 8 16,0 0 0,0 0 1,0-1-1,0 0 0,-1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0-1 1,-1 1-1,0-11 560,-4 51-577,2-30-10,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,2 5 0,-1-6-5,-1-1-1,1 1 1,0 0-1,0-1 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,0 0 1,5 0 0,-3-1-15,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1-1 0,-1 0 0,0 1-1,0-1 1,0 0 0,0-1 0,-1 1-1,1 0 1,-1-1 0,3-5 0,4-6 22,0-2 1,-1 1-1,7-23 0,0-17 71,-8 27-1,-9 67-80,-9 330 78,11-287 38,0-69-94,-1 0 1,0 0-1,-1 0 0,0 0 1,-1 0-1,0-1 0,-1 1 1,-6 11-1,9-20 2,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,-1-1 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 0 0,0-1 0,-1 1 1,1-1-1,0 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,0-1 1,-1 1-1,-5-3 0,3 1 15,0-1 1,0 0-1,0-1 0,1 1 0,-1-1 1,1 0-1,0-1 0,0 1 0,1-1 1,-1 0-1,1 0 0,0 0 0,-6-12 1,-1-2 84,1-1 1,-15-37 0,22 49-196,1 0 0,-1 0 0,1 0 0,1 0 0,-1 0 0,1 0 0,1 0 0,0 0 0,0-11 0,1 15-29,0-1-1,1 0 1,-1 1 0,1-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 1 0,1-1-1,-1 1 1,8-5 0,33-24-2738,5-1-1627</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2826.17">1969 315 9012,'0'0'8380,"4"-1"-8191,3-3-52,-1 0-1,1 0 1,-1 0-1,0 0 1,0-1-1,-1 0 1,1-1-1,-1 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,0-1 1,-1 1-1,0-1 1,0 0-1,0 0 1,-1 0-1,2-9 1,-5 32 70,1 1 0,1 0 0,0 0 0,5 18 0,0 21-87,-2 154-204,-4-164-46,1-43 119,-1-1-1,0 0 0,0 1 0,0-1 0,0 1 1,-1-1-1,1 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 1,0-1-1,1 1 0,-1 0 0,0-1 1,0 1-1,-3 1 0,-2-1 109,1 0 1,-1 0-1,0-1 0,1 0 1,-1 0-1,0 0 0,-12-2 1,45-15 206,65-17-208,64-25 56,-150 55-402,-7 1-1445,-10 2-1769,10 0 3372,-18 0-4727</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3272.05">2453 505 10309,'0'0'9252,"4"119"-8724,-24-74-336,-5-1-192,-4-1-96,5-8-1392,3-2-1298,5-15-2496,7-6-4771</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4773.9">2987 368 4898,'0'0'8874,"2"-14"-7802,2-4-724,-2 8 26,0-1 0,-1 0 0,1-21 0,-3 31-325,1 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 1 1,-1-1-1,1 0 0,0 0 0,-1 1 1,1-1-1,-1 0 0,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 1 0,1-1 1,-1 1-1,0 0 0,0-1 0,1 1 1,-1-1-1,0 1 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 0 1,0 0-1,1 1 0,-1-1 0,-1 1 1,-3 0-25,1 1 1,-1-1-1,1 1 1,0 0-1,0 0 0,0 0 1,-7 5-1,0 3-23,1 0 0,1 0 0,-1 1 0,2 0 0,-1 0 0,2 1 0,-1 0 0,2 1 0,-1 0 0,2 0 0,0 0 0,0 1 0,2-1 0,-1 1 0,2 0 0,0 0 0,0 0 0,2 20 0,0-33-9,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,2-1 0,2 0-30,-1 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,5-5 0,0 0-40,-1-2 0,0 1 0,0-1 0,-1 0 0,0-1 0,0 1 0,-1-1 0,-1-1 0,0 1 0,0-1 1,-1 0-1,0 0 0,-1 0 0,0-1 0,-1 1 0,1-13 0,-3 23 139,0 11 43,-1 22-25,1 46 370,1-73-424,-1 0-1,1 0 0,0 0 1,0-1-1,0 1 1,1 0-1,0-1 0,0 1 1,0-1-1,0 0 0,1 1 1,0-1-1,3 3 1,-5-5-15,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1-1 0,-1 0 0,1 1-1,-1-1 1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1-1 0,3 0-1,-1 0 12,1-1 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,4-4 0,3-6-49,-1 0-1,-1-1 1,0 0 0,6-16-1,0-13-350,-9 29 266,0 0 1,1 1-1,12-24 1,-17 36 109,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,3 1-1,-2 0 17,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,1 4 0,0 4 88,1 1 1,-2 0 0,1 0-1,-2 0 1,1 1 0,-1-1-1,-1 16 1,0-15-47,1 0-1,-1 0 1,2 0-1,0-1 1,5 21 0,-6-30-53,-1 0 1,0-1-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1-1 0,-1 1-1,1 0 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1-1 0,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,1-1 1,27-35 359,-16 16-424,-2 0-1,0 0 0,-1-1 1,-2-1-1,0 0 1,-1 1-1,-1-2 0,-2 1 1,2-31-1,-4 54 38,0 0 0,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 0-1,1 1 1,0-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1-1,-1 1 1,1 0 0,0 1-1,23 31 68,-16-25 5,-1 1 1,0 0 0,0 1 0,-1-1-1,-1 1 1,0 0 0,0 1 0,-1-1-1,0 1 1,-1 0 0,0 0 0,0 0 0,-2 1-1,2 11 1,-4-22-27,1 1 1,0-1-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 1,0 0-1,1 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 0,0 0 1,1 0-1,1 1 0,-1-2-14,0-1 0,1 1 0,-1-1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,-1 1 0,2-3 0,11-10 25,9-8-22,-1-1-1,-1-1 1,-2-1-1,0-1 1,16-28-1,-35 53-6,0 1 1,1 0-1,-1-1 0,0 1 0,0 0 0,0-1 1,1 1-1,-1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,-1 1 1,1 0-1,0-1 0,0 1 0,0 0 0,-1-1 1,1 1-1,0 0 0,0-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1-1 0,0 1 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 1 0,0-1 0,-1 0 0,-24 8 111,21-5-113,-1 0-1,1 0 1,0 0 0,0 1-1,0 0 1,1-1-1,0 2 1,-1-1 0,1 0-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1-1-1,1 1 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,1 0 1,0 9-1,0-13-8,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0-1,1-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,2-1 0,38-4-546,-30 0 435,1 0 1,-2-1-1,1 0 1,-1-1-1,0 0 0,0-1 1,0 0-1,-1 0 1,-1-1-1,1 0 0,6-11 1,-18 30 405,1 1 0,0-1 0,0 1 0,1-1 0,0 21 1,1-30-290,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,1-1 1,3 0-19,-1 1 1,0-1 0,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,-1 0 0,6-4-1,1-6 23,1-1-1,-2 0 0,0-1 0,0 0 0,12-30 0,-17 114 77,3 1 1,19 81-1,-12-82 402,-3 1-1,1 85 1,-11-133-132,0-17-206,0-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,-2 11 0,2-15-130,1-1-1,-1 1 1,0 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,-1-1-1,-28-15-365,26 12 124,1 0-1,-1 0 1,1 0 0,1-1-1,-1 1 1,0-1-1,1 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0-8 1,-2-68-5336,4 66 4106,0-49-4833</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4773.89">2987 368 4898,'0'0'8874,"2"-14"-7802,2-4-724,-2 8 26,0-1 0,-1 0 0,1-21 0,-3 31-325,1 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 1 1,-1-1-1,1 0 0,0 0 0,-1 1 1,1-1-1,-1 0 0,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 1 0,1-1 1,-1 1-1,0 0 0,0-1 0,1 1 1,-1-1-1,0 1 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 0 1,0 0-1,1 1 0,-1-1 0,-1 1 1,-3 0-25,1 1 1,-1-1-1,1 1 1,0 0-1,0 0 0,0 0 1,-7 5-1,0 3-23,1 0 0,1 0 0,-1 1 0,2 0 0,-1 0 0,2 1 0,-1 0 0,2 1 0,-1 0 0,2 0 0,0 0 0,0 1 0,2-1 0,-1 1 0,2 0 0,0 0 0,0 0 0,2 20 0,0-33-9,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,2-1 0,2 0-30,-1 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,5-5 0,0 0-40,-1-2 0,0 1 0,0-1 0,-1 0 0,0-1 0,0 1 0,-1-1 0,-1-1 0,0 1 0,0-1 1,-1 0-1,0 0 0,-1 0 0,0-1 0,-1 1 0,1-13 0,-3 23 139,0 11 43,-1 22-25,1 46 370,1-73-424,-1 0-1,1 0 0,0 0 1,0-1-1,0 1 1,1 0-1,0-1 0,0 1 1,0-1-1,0 0 0,1 1 1,0-1-1,3 3 1,-5-5-15,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1-1 0,-1 0 0,1 1-1,-1-1 1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1-1 0,3 0-1,-1 0 12,1-1 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,4-4 0,3-6-49,-1 0-1,-1-1 1,0 0 0,6-16-1,0-13-350,-9 29 266,0 0 1,1 1-1,12-24 1,-17 36 109,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,3 1-1,-2 0 17,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,1 4 0,0 4 88,1 1 1,-2 0 0,1 0-1,-2 0 1,1 1 0,-1-1-1,-1 16 1,0-15-47,1 0-1,-1 0 1,2 0-1,0-1 1,5 21 0,-6-30-53,-1 0 1,0-1-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1-1 0,-1 1-1,1 0 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1-1 0,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,1-1 1,27-35 359,-16 16-424,-2 0-1,0 0 0,-1-1 1,-2-1-1,0 0 1,-1 1-1,-1-2 0,-2 1 1,2-31-1,-4 54 38,0 0 0,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 0-1,1 1 1,0-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1-1,-1 1 1,1 0 0,0 1-1,23 31 68,-16-25 5,-1 1 1,0 0 0,0 1 0,-1-1-1,-1 1 1,0 0 0,0 1 0,-1-1-1,0 1 1,-1 0 0,0 0 0,0 0 0,-2 1-1,2 11 1,-4-22-27,1 1 1,0-1-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 1,0 0-1,1 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 0,0 0 1,1 0-1,1 1 0,-1-2-14,0-1 0,1 1 0,-1-1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,-1 1 0,2-3 0,11-10 25,9-8-22,-1-1-1,-1-1 1,-2-1-1,0-1 1,16-28-1,-35 53-6,0 1 1,1 0-1,-1-1 0,0 1 0,0 0 0,0-1 1,1 1-1,-1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,-1 1 1,1 0-1,0-1 0,0 1 0,0 0 0,-1-1 1,1 1-1,0 0 0,0-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1-1 0,0 1 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 1 0,0-1 0,-1 0 0,-24 8 111,21-5-113,-1 0-1,1 0 1,0 0 0,0 1-1,0 0 1,1-1-1,0 2 1,-1-1 0,1 0-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1-1-1,1 1 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,1 0 1,0 9-1,0-13-8,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0-1,1-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,2-1 0,38-4-546,-30 0 435,1 0 1,-2-1-1,1 0 1,-1-1-1,0 0 0,0-1 1,0 0-1,-1 0 1,-1-1-1,1 0 0,6-11 1,-18 30 405,1 1 0,0-1 0,0 1 0,1-1 0,0 21 1,1-30-290,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,1-1 1,3 0-19,-1 1 1,0-1 0,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,-1 0 0,6-4-1,1-6 23,1-1-1,-2 0 0,0-1 0,0 0 0,12-30 0,-17 114 77,3 1 1,19 81-1,-12-82 402,-3 1-1,1 85 1,-11-133-132,0-17-206,0-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,-2 11 0,2-15-130,1-1-1,-1 1 1,0 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,-1-1-1,-28-15-365,26 12 124,1 0-1,-1 0 1,1 0 0,1-1-1,-1 1 1,0-1-1,1 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0-8 1,-2-68-5336,4 66 4106,0-49-4833</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5204.87">4370 144 12246,'0'0'6701,"12"-11"-6421,38-29 83,-49 39-356,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,1 0 0,-1 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0-1,0 1 1,0-1 0,0 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,0 1 0,1 1 0,2 5 25,-1 1 0,-1 0 0,1-1 1,0 15-1,-2-22-31,0 9 17,0 0-1,-1 0 1,0-1 0,-1 1 0,0 0-1,0 0 1,-1-1 0,0 0 0,-1 1-1,0-1 1,0 0 0,-8 11 0,-6 5 540,-1 0 0,-36 35 1,10-12 1803,45-47-2356,0-1-1,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,1 0 0,-1 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0-1 1,0 1-1,1 0 0,13 1-107,-4-2-126,1-1 1,-1 0-1,0-1 0,0 0 0,0 0 1,0-1-1,13-7 0,64-43-4705,-41 18-488</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5592.4">4558 58 10965,'0'0'6955,"24"-9"-6685,77-26-281,-91 32-25,-1 0 0,1 1 1,0 0-1,0 0 0,0 1 0,1 1 0,-1-1 0,0 2 1,18 2-1,-25-3 32,1 1 1,-1 0 0,0 1-1,0-1 1,0 1-1,0-1 1,-1 1 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 1 1,-1-1 0,0 1-1,0 0 1,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,-1 0-1,1 0 1,0 6-1,1 24 386,-1-1 0,-1 0-1,-2 0 1,-1 0-1,-2 0 1,-1-1 0,-13 41-1,-4-2 61,-3-1 0,-37 71-1,61-135-507,-1 1-1,0 0 0,1-1 0,-2 1 0,1-1 0,-1 0 0,1 0 0,-1-1 1,-1 1-1,1-1 0,-1 0 0,1 0 0,-1 0 0,-1-1 0,1 1 0,0-1 0,-1 0 1,1-1-1,-1 1 0,0-1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 1,0-1-1,0 1 0,-12-2 0,-67-1-7403,23-8-1110</inkml:trace>
 </inkml:ink>
@@ -10002,7 +8010,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">279 205 10181,'0'0'5885,"-5"-36"-3407,0 32-2468,0-1-1,-1 1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 1 1,0 0-1,1 1 0,-1-1 0,-8 1 0,9 0-2,-1 0 1,1 1-1,-1 0 1,1 0-1,-1 0 1,1 1-1,0 0 1,0 0 0,-1 0-1,1 1 1,1 0-1,-1 0 1,0 0-1,1 1 1,0 0-1,0 0 1,-8 8-1,8-6-39,1-1-1,0 1 0,0 0 0,1 0 1,0 0-1,0 1 0,0-1 1,0 1-1,1 0 0,1-1 1,-1 1-1,1 0 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 1,1 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,2 0 1,-1-1-1,1 1 0,0-1 0,0 1 1,0-1-1,1 0 0,0-1 1,1 1-1,-1-1 0,1 1 1,0-1-1,0-1 0,0 1 0,1-1 1,10 7-1,52 15-567,5 4-251,-72-30 846,-1 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,-1-1 1,1 1-1,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 0,-1 1 1,-14 10 113,14-11-77,-21 11 489,0-1 0,-28 8 0,26-10-596,1 1 1,-26 14-1,44-18-2118,10-4-1460,12-5-385,14-14 175</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="402.39">357 321 1457,'0'0'14830,"-5"5"-13994,3-1-817,0 0 1,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 1-1,0-1 1,0 1 0,1-1 0,1 8 0,-2-11-22,1 1 1,-1-1-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 1,2 0-1,-1 0 6,0-1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,0 0 1,3-3 0,0 1 29,0-1 1,-1 0-1,1 0 1,-1 0-1,0-1 1,0 0-1,-1 1 1,1-1-1,-1 0 1,0-1-1,0 1 1,-1-1-1,1 1 0,1-10 1,0 0-19,-1 0 1,0 0-1,-2 0 1,1-25-1,11 40-7448,-1 4 2594</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="892.42">669 238 7812,'0'0'7318,"0"16"-6822,-2 4-396,1-11-74,0-1 0,1 1 0,0 0 0,1-1 0,-1 1 1,4 10-1,-4-19-34,-1 1 0,1-1 0,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 1,0 0-1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,1 0 0,-1-1 0,0 1 0,1-1 1,-1 1-1,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 1,1 0-1,20-27-106,-20 27 214,13-16 1182,-8 27 640,4 13-2098,-9-23 178,3 8 33,0-1 1,1 0-1,0 1 1,10 10-1,-14-17-27,-1 0-1,1 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,1-1-1,-1 1 1,0-1 0,0 0-1,0 1 1,1-1 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0-1 1,1 1 0,-1-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1-2-1,43-60 263,-45 62-272,0 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,1 0 1,-1 0-1,0 1 0,0-1 1,0 0-1,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,0 1 1,15 20-172,8 6 11,-22-27 156,0 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1-1 1,1 1-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 0,-1 1 1,0-1-1,2-1 0,23-33 86,-23 30-66,0 0 1,-1 1-1,2-1 1,-1 1-1,0 0 0,1 0 1,0 0-1,0 1 1,5-4-1,-7 6-161,-1 1 1,1 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 1-1,-1 0 0,1-1 1,0 1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,0 2 0,17 8-5338,-6-8 610</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1314.68">1152 0 5843,'0'0'8596,"0"9"-8311,0 553 2540,0-561-2729,0-13 988,1-15-865,1 0 1,0 0 0,2 1-1,2-1 1,0 1 0,11-30-1,-10 40-273,0 0 0,0 0 1,2 1-1,0 0 0,0 0 0,2 1 0,-1 0 0,2 1 0,0 0 0,22-18 0,-2 11-10,-30 19 45,0 0 0,-1 0 0,1 0 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 1 1,0-1 0,2 1 0,-4 2 16,0 0-1,1 0 1,-1 0 0,-1-1-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1-1 0,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,-3 3 0,-7 8 143,0 1 0,-1-2 0,-1 0 0,0 0 0,-1-1 0,0-1 0,-25 15 0,-7 3-2502,-64 27-1,80-45-2887,1-5-2799</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1314.67">1152 0 5843,'0'0'8596,"0"9"-8311,0 553 2540,0-561-2729,0-13 988,1-15-865,1 0 1,0 0 0,2 1-1,2-1 1,0 1 0,11-30-1,-10 40-273,0 0 0,0 0 1,2 1-1,0 0 0,0 0 0,2 1 0,-1 0 0,2 1 0,0 0 0,22-18 0,-2 11-10,-30 19 45,0 0 0,-1 0 0,1 0 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 1 1,0-1 0,2 1 0,-4 2 16,0 0-1,1 0 1,-1 0 0,-1-1-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1-1 0,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,-3 3 0,-7 8 143,0 1 0,-1-2 0,-1 0 0,0 0 0,-1-1 0,0-1 0,-25 15 0,-7 3-2502,-64 27-1,80-45-2887,1-5-2799</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -10031,7 +8039,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">837 350 3682,'0'0'6867,"0"-5"-5883,0-23 2437,0 47-3152,-2 8 58,-1 0 0,-2 0 1,0-1-1,-15 43 0,-8 38-1273,21-34-3799</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="607.35">668 1076 6307,'0'0'7539,"-1"-13"-6944,0 8-555,1 1-16,-1 0-1,0 0 0,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,1-1 0,-1 0 0,1 1 1,0-1-1,0 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,0 1 0,4-4 0,-2 2-7,1 0 1,-1 0-1,1 0 0,0 0 0,1 1 0,-1 0 1,0 0-1,1 1 0,0 0 0,-1 0 0,1 0 1,0 1-1,12-1 0,-17 3-26,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 1,2 41-91,-2-37 118,-1 3 9,0 0 1,-1 0-1,-1 0 1,0 0-1,0-1 1,0 0-1,-1 1 1,0-1-1,-1 0 1,0-1-1,0 1 1,-1-1-1,0 0 1,-7 7-1,5-6 5,1 1 0,0 0 1,0 0-1,1 0 0,0 1 0,1 0 0,0 0 0,-6 20 0,11-29-34,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,1-1 0,42-1 31,-40 1 2,28-5 283,-1-2 0,0-1 0,-1-2 0,0-1 0,0-1 0,30-19 0,-56 31-301,-4 1-349,-1 11-5891,-7 4 2391,-7 4-1433</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="607.34">668 1076 6307,'0'0'7539,"-1"-13"-6944,0 8-555,1 1-16,-1 0-1,0 0 0,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,1-1 0,-1 0 0,1 1 1,0-1-1,0 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,0 1 0,4-4 0,-2 2-7,1 0 1,-1 0-1,1 0 0,0 0 0,1 1 0,-1 0 1,0 0-1,1 1 0,0 0 0,-1 0 0,1 0 1,0 1-1,12-1 0,-17 3-26,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 1,2 41-91,-2-37 118,-1 3 9,0 0 1,-1 0-1,-1 0 1,0 0-1,0-1 1,0 0-1,-1 1 1,0-1-1,-1 0 1,0-1-1,0 1 1,-1-1-1,0 0 1,-7 7-1,5-6 5,1 1 0,0 0 1,0 0-1,1 0 0,0 1 0,1 0 0,0 0 0,-6 20 0,11-29-34,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,1-1 0,42-1 31,-40 1 2,28-5 283,-1-2 0,0-1 0,-1-2 0,0-1 0,0-1 0,30-19 0,-56 31-301,-4 1-349,-1 11-5891,-7 4 2391,-7 4-1433</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1179.28">730 1517 7139,'0'0'8623,"3"-3"-8130,7-5-394,0 1 0,1 0 0,0 0 0,1 1 0,0 1 0,-1 0 0,2 1 0,-1 0 0,0 0 0,1 1 0,0 1-1,20-1 1,-33 3-106,1 1 0,-1 0 0,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,-2 21-11,-1-10 55,-1-1 1,0 1-1,-1-1 1,0 0-1,-1 0 1,0-1-1,0 0 1,-1 0-1,-1 0 1,0-1-1,-10 10 1,7-8-39,1 1-1,1 0 1,-1 0-1,2 1 1,0 1 0,-10 21-1,21-34-71,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 0 1,0 0-1,-1 0 1,5 0-1,-3 0 31,18 2 40,-7-1-10,-1 0-1,1 0 1,-1 2 0,0 0-1,0 0 1,15 7 0,-28-10-1,1 1 0,-1 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,-1 0-1,0 0 0,-1 2 1,-1 3 45,-1 0-1,0-1 1,0 1 0,0-1 0,-1 0 0,-7 6 0,-13 9 81,0-2 0,-2-1 0,1 0 0,-2-2 0,0-2 0,-1 0 0,-1-2 0,-35 9 1,41-15-1980,-1 0 1,0-2 0,-38 1 0,55-4-2126</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35138.47">192 387 4194,'0'0'4050,"-2"-14"-3164,0-5-435,-2-11-131,3 3 4282,0 54-4584,-10 48 1,-1 0 157,-3 586 300,17-433-365,8 156 284,-4-192-134,-5 258 486,-9-331-277,8-118 130,9-1-464,973-5 641,-980 5-701,-1 0 1,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 0 0,-1-1 0,1 1 0,2-2 0,14-39 375,-12 23-445,-2-1 1,3-29 0,1-455-393,-1 17 217,0-305-843,-8 449 648,1 295 362,-2 1-1,-10-59 0,12 105-16,1-1 1,-1 1-1,0-1 0,0 0 0,1 1 1,-1-1-1,0 1 0,0-1 1,0 1-1,-1 0 0,1 0 1,0-1-1,0 1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 1-1,0-1 0,1 1 1,-1-1-1,0 1 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 1,-2 1-1,-7 1 8,1 0 0,0 1 1,-1 0-1,-15 8 0,-57 25 34,-1-3-1,-1-4 0,-130 26 1,130-41 94,0-3 0,-135-2 1,173-10 37,-122 7 282,161-5-384,8 0-110,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 1,0 1-1,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 1,-1-1-1,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1 0 0,10 19-1950,-3-13 794,1-1 1,-1 1-1,1-2 0,13 9 0,12 5-4022</inkml:trace>
 </inkml:ink>
@@ -10189,7 +8197,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">271 180 4786,'0'0'6259,"0"0"-6164,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,-5-3-98,0 1 0,-1 0 1,1 0-1,-1 1 0,1 0 0,-1 0 1,0 0-1,0 1 0,1 0 1,-1 0-1,0 1 0,1 0 1,-1 0-1,0 0 0,1 1 0,0 0 1,-1 0-1,1 1 0,0 0 1,0 0-1,-8 5 0,5-1-12,0 0-1,1 0 1,0 1 0,0 0 0,0 1-1,1-1 1,0 1 0,1 1-1,0-1 1,1 1 0,0 0-1,-6 17 1,5-5-55,1 0 1,1 1-1,1-1 0,2 1 0,0 0 1,1-1-1,5 40 0,-4-53 60,0 0 0,1 0-1,0-1 1,1 1-1,0 0 1,0-1 0,1 1-1,7 10 1,-9-16 12,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,7 0 0,-3-2-559,1 1 1,-1-1 0,1-1 0,-1 0-1,0 0 1,0-1 0,0 1 0,0-2-1,0 1 1,-1-1 0,8-5 0,16-10-3641</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1298.36">379 453 4514,'0'0'6921,"-8"2"-6206,6-3-668,0 2 0,-1-1 1,1 0-1,0 0 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,0 1 1,0-1-1,-1 0 1,2 5-1,-2 11 18,0-12-82,1 0 0,0 0 0,0 0 0,1 1 0,1 9 0,-1-15 14,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1-1 0,0 1 1,0 0-1,0-1 0,1 1 0,-1-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 1,1 0-1,-1 0 0,3 0 0,1 0 20,0-1 0,1 0-1,-1 0 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0-1-1,0 0 1,-1 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,-1-1-1,0 1 1,1 0 0,-2-1-1,1 1 1,-1 0 0,0-1-1,0 1 1,0-1 0,-1 1-1,1 0 1,-2-1 0,-1-5-1,2 9-12,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,-1 0 1,1 1-1,0-1 0,0 1 1,-1-1-1,1 1 0,0 0 1,-1 0-1,0 0 0,1 0 1,-1 1-1,1-1 0,-1 1 1,0-1-1,1 1 0,-6 0 1,3 0-1,1-1 1,0 1 0,0 0-1,0 1 1,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,0 0 0,0 1-1,1-1 1,-1 1 0,-3 2-1,3-1-27,1 1-1,0-1 0,0 1 1,0-1-1,1 1 0,0 0 1,-1 0-1,1 0 0,0 0 1,1 0-1,-1 1 0,1-1 1,0 0-1,0 1 0,0-1 1,1 1-1,-1-1 0,1 1 0,0 4 1,1-8-27,0 1 1,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0-1 1,1 1-1,-1 0 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1-1-1,3 1 1,45-5-781,-34-1 967,0-2-1,-1 0 1,0-1-1,0 0 0,-1-1 1,-1 0-1,1-1 1,15-19 973,-28 33-1082,1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,4 4 1,-1-2-10,0 1 0,0-1 0,0-1 0,0 1 0,0-1 1,12 6-1,-13-7-48,1-1 1,0 1-1,0-1 1,0 0 0,0-1-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,0-1 0,0 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,1-1 1,0 0 0,-1-1-1,1 1 1,-1-1-1,0 0 1,0 0-1,5-4 1,-4 2 78,0-1-1,-1 1 1,1-1 0,-1 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,0 0-1,-1 0 1,0 0 0,0 0 0,0-12-1,-1 19 218,8 26-44,-7-23-263,0-1 0,0 1 0,1 0 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1-1 1,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 0 0,0 1 0,-1-1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1-1,0-1 1,0 0 0,-1 0 0,5-1 0,1-3-16,0 1 0,0-1-1,-1 0 1,1-1 0,-1 0 0,0 0-1,-1 0 1,1-1 0,-1 0 0,7-11 0,-13 17 116,0 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 1 1,1-1 0,0 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,0 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,0 1-1,-1-1 1,1 1-1,0 0 1,2-1 0,3 18 1276,-1 4-1490,-4-18 144,0-1-1,-1 1 1,1-1-1,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 1,1-1-1,-1 0 0,0 0 1,0 1-1,1-1 0,-1 0 1,1-1-1,-1 1 1,1 0-1,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 0 0,0 0 1,1 0-1,2-2 0,7-4-10,1 0-1,-1-2 0,-1 1 0,0-1 0,0-1 0,10-11 0,-7 3-67,14-10 711,-27 28-607,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1-2 0,6-7 10,0-1 1,-1 1-1,-1-2 1,9-21-1,-9 14 44,-1 0-1,-1-1 0,0 1 1,-2-1-1,0-27 1,2-4 1768,-9 92-1777,-20 252-35,25-269-417,0 30-1014,0-19-2577,0-29-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1298.35">379 453 4514,'0'0'6921,"-8"2"-6206,6-3-668,0 2 0,-1-1 1,1 0-1,0 0 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,0 1 1,0-1-1,-1 0 1,2 5-1,-2 11 18,0-12-82,1 0 0,0 0 0,0 0 0,1 1 0,1 9 0,-1-15 14,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1-1 0,0 1 1,0 0-1,0-1 0,1 1 0,-1-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 1,1 0-1,-1 0 0,3 0 0,1 0 20,0-1 0,1 0-1,-1 0 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0-1-1,0 0 1,-1 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,-1-1-1,0 1 1,1 0 0,-2-1-1,1 1 1,-1 0 0,0-1-1,0 1 1,0-1 0,-1 1-1,1 0 1,-2-1 0,-1-5-1,2 9-12,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,-1 0 1,1 1-1,0-1 0,0 1 1,-1-1-1,1 1 0,0 0 1,-1 0-1,0 0 0,1 0 1,-1 1-1,1-1 0,-1 1 1,0-1-1,1 1 0,-6 0 1,3 0-1,1-1 1,0 1 0,0 0-1,0 1 1,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,0 0 0,0 1-1,1-1 1,-1 1 0,-3 2-1,3-1-27,1 1-1,0-1 0,0 1 1,0-1-1,1 1 0,0 0 1,-1 0-1,1 0 0,0 0 1,1 0-1,-1 1 0,1-1 1,0 0-1,0 1 0,0-1 1,1 1-1,-1-1 0,1 1 0,0 4 1,1-8-27,0 1 1,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0-1 1,1 1-1,-1 0 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1-1-1,3 1 1,45-5-781,-34-1 967,0-2-1,-1 0 1,0-1-1,0 0 0,-1-1 1,-1 0-1,1-1 1,15-19 973,-28 33-1082,1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,4 4 1,-1-2-10,0 1 0,0-1 0,0-1 0,0 1 0,0-1 1,12 6-1,-13-7-48,1-1 1,0 1-1,0-1 1,0 0 0,0-1-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,0-1 0,0 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,1-1 1,0 0 0,-1-1-1,1 1 1,-1-1-1,0 0 1,0 0-1,5-4 1,-4 2 78,0-1-1,-1 1 1,1-1 0,-1 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,0 0-1,-1 0 1,0 0 0,0 0 0,0-12-1,-1 19 218,8 26-44,-7-23-263,0-1 0,0 1 0,1 0 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1-1 1,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 0 0,0 1 0,-1-1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1-1,0-1 1,0 0 0,-1 0 0,5-1 0,1-3-16,0 1 0,0-1-1,-1 0 1,1-1 0,-1 0 0,0 0-1,-1 0 1,1-1 0,-1 0 0,7-11 0,-13 17 116,0 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 1 1,1-1 0,0 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,0 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,0 1-1,-1-1 1,1 1-1,0 0 1,2-1 0,3 18 1276,-1 4-1490,-4-18 144,0-1-1,-1 1 1,1-1-1,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 1,1-1-1,-1 0 0,0 0 1,0 1-1,1-1 0,-1 0 1,1-1-1,-1 1 1,1 0-1,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 0 0,0 0 1,1 0-1,2-2 0,7-4-10,1 0-1,-1-2 0,-1 1 0,0-1 0,0-1 0,10-11 0,-7 3-67,14-10 711,-27 28-607,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1-2 0,6-7 10,0-1 1,-1 1-1,-1-2 1,9-21-1,-9 14 44,-1 0-1,-1-1 0,0 1 1,-2-1-1,0-27 1,2-4 1768,-9 92-1777,-20 252-35,25-269-417,0 30-1014,0-19-2577,0-29-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1699.36">1239 219 9588,'0'0'5811,"34"-22"-7396,20 22-256,3 0-3009</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2165.15">1673 127 6131,'0'0'9151,"-3"16"-8124,-36 157 530,30-141-1439,-1-1 0,-2 0 0,-2 0 0,-17 28 0,31-59-128,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,0 0 0,-1 1 0,1-1-1,0 0 1,0 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,1 0 0,0 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,0 0 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1-1 0,-3-20-664,8-37-222,5 18 674,2 1 0,1 0 0,20-42 0,-11 27-136,-16 41 290,21-49-240,-24 58 357,0 1-1,0-1 1,1 0-1,-1 1 1,1-1-1,0 1 0,-1 0 1,2 0-1,-1 0 1,0 0-1,1 1 0,4-4 1,-8 6-13,1 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 1 0,0-1-1,0 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1 0,-1 1-1,1-1 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1 0,-1 0-1,0-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1 1 0,12 31 342,-10-23-133,15 39 429,-2 1-1,16 96 1,-26-99-1503,1 75 0,-6-119 330,-1 1 0,0-1 1,0 1-1,-1-1 0,1 1 1,-1-1-1,0 1 0,0-1 1,0 0-1,-2 6 0,-5-1-4323</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2166.15">1566 362 11125,'0'0'5619,"118"-22"-5619,-53 16-80,-1-1-705,1 1-1520,-12-3-2145,-18 3-2417</inkml:trace>
@@ -10287,7 +8295,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="821.72">513 1 4834,'0'0'7804,"-15"12"-7420,-315 277 2569,302-266-2629,-4 2 230,1 2 0,-46 52-1,78-79-584,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,13-4-1315,14-9-1526,-4 0-831</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3412.35">475 570 3522,'0'0'8041,"0"-7"-7452,0-20-37,0 20 1065,-7 15-1398,-95 73 858,68-57-848,2 2 0,1 0 0,-44 50 0,74-75-355,0 1 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 4 0,1-6-20,0 1 0,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1-1,0 1 1,0-1 0,1 0 0,-1 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0-1,1 0 1,0-1 0,10-2-3677</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3798.85">214 616 4530,'0'0'8054,"-2"-7"-7189,-5-17-441,43 49-523,18 39 180,16 17 328,-64-74-678,1-1-1,0-1 0,0 1 1,1-1-1,-1 0 0,1-1 1,0 1-1,1-2 1,9 4-1,-11-6-2195,-2-1-1644</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4639.77">534 1011 5426,'0'0'6129,"-6"4"-5625,-26 22 479,2 1-1,0 2 1,-28 36 0,20-22-297,-45 39 1,80-79-1358,-15 13 1909,13-11-3680</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4639.76">534 1011 5426,'0'0'6129,"-6"4"-5625,-26 22 479,2 1-1,0 2 1,-28 36 0,20-22-297,-45 39 1,80-79-1358,-15 13 1909,13-11-3680</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5028.29">268 1044 6995,'0'0'5952,"3"-2"-5754,-2 2-175,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 2 0,36 53 544,-27-39-536,19 40 203,-23-45-230,-1 0 1,2 0-1,-1-1 0,2 0 0,0 0 0,0 0 0,11 10 0,-7-14-378,-9-7-3446</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6055.37">260 1668 4178,'0'0'7313,"0"-5"-6321,2-10-63,2 19 361,9 31 1010,-5-11-2073,5 12 283,-5-13-251,0-2-1,1 1 1,2-2 0,19 32 0,-30-52-219,1 0 1,-1 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1-1 0,-1 1 0,0 0-1,1-1 1,-1 1 0,0-1 0,1 1-1,-1 0 1,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 1-1,1-1 1,21-34 73,-9 13-54,34-35-279,3 1 0,78-67 0,-43 42 262,-60 49-1,-22 27-36,1 0 0,-1 0 0,1 0-1,0 0 1,0 1 0,1-1 0,6-4-1,-9 8 475</inkml:trace>
 </inkml:ink>
@@ -10320,8 +8328,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">909 55 5186,'0'0'7620,"-7"74"-6916,3-42-64,0-4-255,4-4-225,-4-2-96,4-7-64,0-6-320,0 0-1393,0-29-10661</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="422.67">862 124 2897,'0'0'2188,"-2"-13"-110,-1 2-1320,-7-42 752,14 15 2815,-3 37-4258,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,3 0 0,31 3 299,-28-1-298,1 0-1,0 1 1,-1 0 0,0 0-1,0 1 1,0 0-1,0 0 1,0 1-1,-1 0 1,0 0-1,0 0 1,0 1-1,-1 0 1,0 0-1,0 0 1,0 0-1,-1 1 1,0 0-1,0 0 1,-1 0-1,0 1 1,0-1-1,-1 1 1,0-1 0,0 1-1,0 0 1,-1 0-1,0 13 1,-2-18-13,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,-1 0 0,1-1 0,-1 1 0,0-1-1,1 1 1,-1-1 0,0 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,-3 1 0,-60 30 661,56-29-581,-38 14 145,31-13-578,1 1 0,0 1 0,-20 11-1,27-12-1381,7-2-2567</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="841.15">1159 163 6995,'0'0'10562,"0"0"-10546,0 0 0,1 0 0,-1 0-1,1 0 1,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 1 0,1 3 120,1 1 0,-1-1 0,1 0 0,-1 1-1,0 0 1,-1-1 0,1 1 0,-1 0 0,1 6 0,7 56 617,-6-45-614,-3-19-661,3 15 1554,-3-12-8454</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1275.6">972 450 7299,'0'0'10405,"4"55"-9524,-4-16 191,0-2-768,0-3-128,0-1-96,0-7-80,0-2-96,0-7-976,0-6-1281,8-9-1889,7-2-2689</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1276.6">976 500 9172,'0'0'6134,"15"-4"-5988,3-1-82,-1 1-1,1 1 0,0 0 1,30 0-1,-43 4-42,1-1 1,-1 0-1,1 1 0,-1 0 0,1 1 1,-1-1-1,0 1 0,1 0 0,-1 0 0,6 4 1,-8-4-1,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,-1 0 0,1 0 0,0 0 0,-1 1 0,0 2 0,1-1 41,-1 0-1,0 0 1,-1 0 0,1 0 0,-1-1 0,0 1-1,0 0 1,-1 0 0,1-1 0,-1 1 0,0-1-1,0 1 1,-1-1 0,1 0 0,-5 6 0,-4 2 217,0-1 1,0 0 0,-19 14 0,-11 10-2146,8 5-3589,31-33-3168</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1275.59">972 450 7299,'0'0'10405,"4"55"-9524,-4-16 191,0-2-768,0-3-128,0-1-96,0-7-80,0-2-96,0-7-976,0-6-1281,8-9-1889,7-2-2689</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1276.59">976 500 9172,'0'0'6134,"15"-4"-5988,3-1-82,-1 1-1,1 1 0,0 0 1,30 0-1,-43 4-42,1-1 1,-1 0-1,1 1 0,-1 0 0,1 1 1,-1-1-1,0 1 0,1 0 0,-1 0 0,6 4 1,-8-4-1,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,-1 0 0,1 0 0,0 0 0,-1 1 0,0 2 0,1-1 41,-1 0-1,0 0 1,-1 0 0,1 0 0,-1-1 0,0 1-1,0 0 1,-1 0 0,1-1 0,-1 1 0,0-1-1,0 1 1,-1-1 0,1 0 0,-5 6 0,-4 2 217,0-1 1,0 0 0,-19 14 0,-11 10-2146,8 5-3589,31-33-3168</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1821.25">1206 565 9300,'0'0'3501,"19"-1"-2786,63-5-195,-79 6-476,1-1 1,0 1-1,0-1 1,0 1 0,0 1-1,-1-1 1,1 0-1,0 1 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 1 1,1-1-1,-1 1 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 1 1,0 0-1,3 3 1,-5-3 9,1 0 0,-1 1 1,0-1-1,0 0 0,0 0 1,-1 1-1,1-1 0,-1 0 1,0 1-1,0-1 0,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 1,0 0-1,-1 0 0,-3 6 0,-60 77 3388,65-85-3429,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 1-1,1-1 0,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 0,1 1 0,-1-1 1,0 0-1,0 1 0,1-1 0,-1 0 1,0 1-1,1-1 0,-1 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 1,1 0-1,0-1 0,29 0-45,-28 1 69,23-4-87,-1-1-1,0-1 1,0-1-1,32-15 0,-29 11-822,1 1-1,49-10 1,-70 19-52,-16 1-8763</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2223.13">966 981 2369,'0'0'15991,"23"108"-15190,-19-71-353,0-2-192,-4-2-64,0-7-128,0-2-64,0-5-448,0-8-1521,0-7-1697</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2638.96">978 1017 7764,'0'0'4455,"14"-6"-3233,-4 0-964,-6 3-178,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1-1 0,-1 1 0,1 1 0,7 0 0,-7 2 59,1-1 0,-1 1 0,1 1 0,-1-1 0,0 1 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,4 8 0,-6-10-80,0 0 1,0 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,-1-1 1,-1 0-1,1 1 0,0-1 1,-1 0-1,0 0 1,0 1-1,0-1 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,-1 1 1,1 0-1,-6 6 0,-24 20 99,-49 37 0,39-33-2597,30-27-1769,4-6-2997</inkml:trace>
@@ -10348,8 +8356,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36522.32">337 2180 3410,'3'0'17079,"19"1"-17433,-3 8 367,6 4 73,1-2 0,0 0 0,0-2 0,1-1 0,0-1 0,0-1 0,53 4 0,-25-10-99,-53 0-265,-37 0-7354,9-1 3510,0-2-1291</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36937.34">504 2065 5619,'0'0'7643,"-9"9"-7075,-39 46 1104,-42 64-1,-33 39-1497,122-157-594,0 0-78</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37628.03">398 2709 4098,'0'0'8172,"0"-1"-8054,-1 0 1,1 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,1-1 0,-1 0 0,0 1-1,1-2 1,2 3-36,-1-1 0,1 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1-1,0 1 1,0 0 0,0-1 0,3 4 0,30 40 1061,-16-20-831,-11-15-228,16 15 622,-23-25-677,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0-1,1-1 1,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,2-1 0,93-126 409,-69 89-516,2 1 0,48-50 0,-61 70 62,16-11-346,-30 29-26,-8 16-8833,2-2 2967</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38693.09">3821 2556 2097,'0'0'13457,"0"-4"-12419,-3-8-394,4 17-48,9 29-209,5 6 201,-2-7 249,28 54 0,-40-87-812,-1 0-1,1 1 0,0-1 0,0 0 1,-1 0-1,1 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,2 0 1,25-21 334,-24 19-283,56-47-43,188-149 25,-192 159-582,2 3 0,104-50 0,-151 83-341,5-3 758,-38 9-16388</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41327.62">350 3113 4018,'0'0'7593,"4"-6"-6617,0 1-853,1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,0 0 0,0 0 1,0 1-1,1-1 0,-1 2 0,1-1 0,8 0 0,26-5 544,55-1 0,-62 6-368,410-7 1558,-33 2-857,176-35 133,656-22-559,-835 89-496,46-4 1168,-454-41-697,19-312-917,-19 309 359,-8-263-265,8 283 260,0 1 0,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,-3 0 0,-76-5-58,-1 4 0,-124 14 0,-35 1 59,149-10 5,-180 33-1,43-2-67,-154-5-424,-32 3-481,140 9 722,-58 5-312,-115-1-96,377-37 635,-1 3 0,-121 37 0,88-20 104,19-10-10,-1-5-1,-1-3 0,-152-2 1,135-14-41,105 5-45,2 26-483,36 112 611,-10-45 182,-19-58-104,2 0 0,2-1 0,1-1-1,24 44 1,-35-75-132,1 0-1,-1 0 0,1-1 1,0 1-1,-1-1 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,6 0 0,-8 2-1273,-20-15-13012</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38693.08">3821 2556 2097,'0'0'13457,"0"-4"-12419,-3-8-394,4 17-48,9 29-209,5 6 201,-2-7 249,28 54 0,-40-87-812,-1 0-1,1 1 0,0-1 0,0 0 1,-1 0-1,1 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,2 0 1,25-21 334,-24 19-283,56-47-43,188-149 25,-192 159-582,2 3 0,104-50 0,-151 83-341,5-3 758,-38 9-16388</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41327.61">350 3113 4018,'0'0'7593,"4"-6"-6617,0 1-853,1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,0 0 0,0 0 1,0 1-1,1-1 0,-1 2 0,1-1 0,8 0 0,26-5 544,55-1 0,-62 6-368,410-7 1558,-33 2-857,176-35 133,656-22-559,-835 89-496,46-4 1168,-454-41-697,19-312-917,-19 309 359,-8-263-265,8 283 260,0 1 0,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,-3 0 0,-76-5-58,-1 4 0,-124 14 0,-35 1 59,149-10 5,-180 33-1,43-2-67,-154-5-424,-32 3-481,140 9 722,-58 5-312,-115-1-96,377-37 635,-1 3 0,-121 37 0,88-20 104,19-10-10,-1-5-1,-1-3 0,-152-2 1,135-14-41,105 5-45,2 26-483,36 112 611,-10-45 182,-19-58-104,2 0 0,2-1 0,1-1-1,24 44 1,-35-75-132,1 0-1,-1 0 0,1-1 1,0 1-1,-1-1 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,6 0 0,-8 2-1273,-20-15-13012</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -10438,7 +8446,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">186 55 6611,'0'0'8551,"0"0"-8531,0 0 1,-1-1-1,1 1 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 0 1,-1 1-1,-1 2 23,0 1-1,-1 0 0,1 0 1,1 0-1,-1 0 0,1 0 0,-2 7 1,-3 8 187,-74 208 1170,94-310-575,-2 46-888,1 1 1,2 1 0,1 0 0,2 2-1,26-40 1,-43 73 63,-1-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,1 0-1,7 19-35,0 33 52,-7-47 36,17 179 634,-16-144-4160,-2-1-3687</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="389.12">1 247 6019,'0'0'7219,"66"-2"-6755,-13 0-96,3 0-368,-4 0-160,-7 0-1024,-6 0-753,-15-2-944,-7-1-1569</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="775.79">362 152 3650,'0'0'9420,"0"8"-9153,-1 7-8,1 4-61,-1-1 1,2 1-1,0-1 0,2 0 0,0 0 0,7 28 0,-9-46-183,-1 1-1,0 0 1,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1 0,0 0-1,-1-1 1,1 1 0,0-1 0,-1 0 0,1 1-1,0-1 1,0 1 0,-1-1 0,1 0-1,0 0 1,0 1 0,-1-1 0,1 0-1,0 0 1,0 0 0,0 0 0,1 0-1,0-1 70,0 0-1,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 1,0-1-1,-1 1 0,3-3 0,32-47 1338,30-84-2230,-61 128-1879,0 7-3548</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2176.18">592 179 7347,'0'0'5539,"6"-2"-5144,0 0-334,0 0 1,-1-1-1,1 0 1,-1 0 0,0 0-1,6-6 1,-9 8-55,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,-1-4-1,1 4-5,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,-1-1 1,1 0-1,0 1 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 1,-1 0-1,0 0 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-3 2 0,1 0 3,-1-1-1,1 0 0,0 1 1,0 0-1,0-1 0,0 1 1,0 1-1,1-1 0,-1 0 1,0 1-1,-3 3 0,2 2 47,0 0 0,1 1-1,0-1 1,0 1 0,0-1-1,1 1 1,0 0-1,1 0 1,0 0 0,0 0-1,1 0 1,0 0 0,1 0-1,2 13 1,-2-19-33,0 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,0-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 0 0,5 0 1,0 1 1,0-1 1,0 0-1,0 0 1,0-1-1,0 0 1,0-1-1,-1 1 1,1-2-1,0 1 1,10-6-1,-12 5 3,-1 0 0,1-1 1,-1 0-1,0 0 0,0-1 0,0 1 0,-1-1 1,0 0-1,1-1 0,-2 1 0,1-1 0,-1 0 1,1 0-1,-2 0 0,1 0 0,-1 0 0,1-1 1,-2 1-1,1-1 0,-1 1 0,0-1 0,0 0 1,-1 1-1,0-12 0,0 17-13,0 0-1,-1 0 1,1 0 0,0 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 0-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,0-1-1,0 1 1,-1-1 0,2 1-77,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1-1,125 2-1670,-124-1 1756,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1 2 1,-2 33 1047,-6-13-432,7-20-571,0 0-1,0 0 1,1 0-1,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,1 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 1,0 1-1,1 3 1,2-6-79,0 0 1,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,5-2 0,1 2 28,-4 0-15,0-1 0,1 1 1,-1-1-1,0-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,4-6 0,-3 5-38,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,-2-14 0,1 19 44,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,-2 1-1,0-1 10,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-1 0 1,0 0-1,0 1 1,1-1 0,-4 3-1,1 1 4,1 0 0,0 1 0,0 0 0,0 0 0,1 0-1,0 1 1,0-1 0,0 1 0,1 0 0,0-1 0,0 1 0,0 0 0,1 0-1,0 1 1,1-1 0,0 0 0,0 0 0,0 0 0,2 8 0,-1-13-42,0 0 0,0-1 1,1 1-1,-1-1 0,0 1 0,1-1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,3-2-1,0 2-36,-1 0 0,0-1 1,0 0-1,1 0 0,-1 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 1,4-4-1,-4 2 78,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,0-1 0,1-9 0,-2 14 357,0 41 178,-1-39-553,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,2 3 0,-2-4-27,1 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0-1 1,0 1-1,0-1 0,3-1 0,39-22 22,-37 19 84,0 1 0,1-1 0,-1 2 0,13-6 0,-20 9-66,0 1 1,1-1-1,-1 0 1,0 0 0,0 1-1,1-1 1,-1 0-1,0 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 1,0 0 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1 0,0 0-1,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 0 0,-8 20 418,5-15-353,0 0 1,0 0-1,1 0 1,0 1-1,0-1 1,0 1-1,1 0 1,0 0-1,-1 7 1,24-12-364,-13-3 254,-1 0 1,1 0 0,-1-1 0,1 0 0,-1 0 0,0-1-1,12-7 1,20-9 32,-40 22 12,0-1 0,0 1-1,1-1 1,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1-1,1 0 1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0-1,-1-1 1,0 1 0,2 0 0,1 0 8,1-1 1,-1 0-1,0 0 1,0 0-1,0 0 1,0-1-1,1 0 1,-1 1-1,0-2 1,0 1-1,0 0 1,0-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1-1 1,-1 1-1,0 0 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-2-6-1,1 10-13,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,-11 9 10,7 0-33,0-1 1,0 1-1,1 0 1,0 0-1,1 0 1,0 1 0,0-1-1,0 18 1,3 87-60,0-55 9,-1-51 103,1 6-183,-1-1 0,0 1 1,-2-1-1,1 1 0,-7 24 1,6-34 98,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1-1 0,-1 1 1,0-1-1,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 1,0-1-1,0 0 1,0-1-1,0 1 0,0-1 1,-7 2-1,5-1 114,0-1-1,1 1 1,-1-1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 0-1,0-1 1,-7-1 0,11 1-17,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 1,1 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,1-2-1,-1-3-51,1 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,1 1 0,-1 0 0,1-1-1,0 1 1,0 0 0,1 0 0,0 1 0,0-1-1,0 1 1,0 0 0,1 0 0,0 0 0,0 1 0,0 0-1,1 0 1,-1 0 0,8-3 0,15-9-1031,1 2 0,1 1 0,39-12 1,-53 19-173,13-4-2314</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2176.17">592 179 7347,'0'0'5539,"6"-2"-5144,0 0-334,0 0 1,-1-1-1,1 0 1,-1 0 0,0 0-1,6-6 1,-9 8-55,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,-1-4-1,1 4-5,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,-1-1 1,1 0-1,0 1 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 1,-1 0-1,0 0 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-3 2 0,1 0 3,-1-1-1,1 0 0,0 1 1,0 0-1,0-1 0,0 1 1,0 1-1,1-1 0,-1 0 1,0 1-1,-3 3 0,2 2 47,0 0 0,1 1-1,0-1 1,0 1 0,0-1-1,1 1 1,0 0-1,1 0 1,0 0 0,0 0-1,1 0 1,0 0 0,1 0-1,2 13 1,-2-19-33,0 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,0-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 0 0,5 0 1,0 1 1,0-1 1,0 0-1,0 0 1,0-1-1,0 0 1,0-1-1,-1 1 1,1-2-1,0 1 1,10-6-1,-12 5 3,-1 0 0,1-1 1,-1 0-1,0 0 0,0-1 0,0 1 0,-1-1 1,0 0-1,1-1 0,-2 1 0,1-1 0,-1 0 1,1 0-1,-2 0 0,1 0 0,-1 0 0,1-1 1,-2 1-1,1-1 0,-1 1 0,0-1 0,0 0 1,-1 1-1,0-12 0,0 17-13,0 0-1,-1 0 1,1 0 0,0 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 0-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,0-1-1,0 1 1,-1-1 0,2 1-77,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1-1,125 2-1670,-124-1 1756,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1 2 1,-2 33 1047,-6-13-432,7-20-571,0 0-1,0 0 1,1 0-1,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,1 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 1,0 1-1,1 3 1,2-6-79,0 0 1,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,5-2 0,1 2 28,-4 0-15,0-1 0,1 1 1,-1-1-1,0-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,4-6 0,-3 5-38,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,-2-14 0,1 19 44,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,-2 1-1,0-1 10,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-1 0 1,0 0-1,0 1 1,1-1 0,-4 3-1,1 1 4,1 0 0,0 1 0,0 0 0,0 0 0,1 0-1,0 1 1,0-1 0,0 1 0,1 0 0,0-1 0,0 1 0,0 0 0,1 0-1,0 1 1,1-1 0,0 0 0,0 0 0,0 0 0,2 8 0,-1-13-42,0 0 0,0-1 1,1 1-1,-1-1 0,0 1 0,1-1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,3-2-1,0 2-36,-1 0 0,0-1 1,0 0-1,1 0 0,-1 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 1,4-4-1,-4 2 78,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,0-1 0,1-9 0,-2 14 357,0 41 178,-1-39-553,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,2 3 0,-2-4-27,1 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0-1 1,0 1-1,0-1 0,3-1 0,39-22 22,-37 19 84,0 1 0,1-1 0,-1 2 0,13-6 0,-20 9-66,0 1 1,1-1-1,-1 0 1,0 0 0,0 1-1,1-1 1,-1 0-1,0 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 1,0 0 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1 0,0 0-1,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 0 0,-8 20 418,5-15-353,0 0 1,0 0-1,1 0 1,0 1-1,0-1 1,0 1-1,1 0 1,0 0-1,-1 7 1,24-12-364,-13-3 254,-1 0 1,1 0 0,-1-1 0,1 0 0,-1 0 0,0-1-1,12-7 1,20-9 32,-40 22 12,0-1 0,0 1-1,1-1 1,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1-1,1 0 1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0-1,-1-1 1,0 1 0,2 0 0,1 0 8,1-1 1,-1 0-1,0 0 1,0 0-1,0 0 1,0-1-1,1 0 1,-1 1-1,0-2 1,0 1-1,0 0 1,0-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1-1 1,-1 1-1,0 0 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-2-6-1,1 10-13,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,-11 9 10,7 0-33,0-1 1,0 1-1,1 0 1,0 0-1,1 0 1,0 1 0,0-1-1,0 18 1,3 87-60,0-55 9,-1-51 103,1 6-183,-1-1 0,0 1 1,-2-1-1,1 1 0,-7 24 1,6-34 98,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1-1 0,-1 1 1,0-1-1,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 1,0-1-1,0 0 1,0-1-1,0 1 0,0-1 1,-7 2-1,5-1 114,0-1-1,1 1 1,-1-1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 0-1,0-1 1,-7-1 0,11 1-17,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 1,1 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,1-2-1,-1-3-51,1 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,1 1 0,-1 0 0,1-1-1,0 1 1,0 0 0,1 0 0,0 1 0,0-1-1,0 1 1,0 0 0,1 0 0,0 0 0,0 1 0,0 0-1,1 0 1,-1 0 0,8-3 0,15-9-1031,1 2 0,1 1 0,39-12 1,-53 19-173,13-4-2314</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2643.01">1717 133 5603,'0'0'9324,"3"-3"-9196,-3 2-120,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 1-1,2-1 1,0 2 4,0-1-1,0 0 1,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 2-1,1 3 34,1 0 0,-2 0-1,1 0 1,-1 0-1,0 0 1,2 15-1,-3-10-5,0 45 179,-1-54-205,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,-2 1 0,4-2 96,-1-8-40,0 1 1,1-1 0,0 1 0,0 0 0,0-1-1,1 1 1,0 0 0,0-1 0,0 1-1,1 0 1,0 0 0,0 0 0,6-10 0,-3 5-84,1 0-1,1 1 1,0-1 0,0 1 0,18-17 0,-23 25-101,0 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0 0-1,0 0 1,1 0 0,-1 0 0,1 1-1,-1-1 1,1 1 0,2-1 0,-4 1-141,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,-1 0-1,1 1 1,0-1 0,0 1-1,0 0 1,0-1 0,-1 1-1,1 0 1,0-1 0,-1 1 0,2 1-1,5 11-4061</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3890.39">2045 178 3394,'0'0'10546,"-10"-9"-9957,-32-28-210,40 35-345,0 1 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,0 0-1,-1-1 1,1 1 0,-1 0 0,1 0-1,-1 0 1,1 1 0,-1-1 0,1 0-1,-1 1 1,1 0 0,-1 0 0,1 0-1,0 0 1,-4 2 0,-2 2 60,1 0 0,0 0-1,1 0 1,-12 13 0,16-16-52,-3 4-26,0-1-1,0 1 0,0 0 0,1 0 0,0 1 0,0-1 0,1 1 0,0 0 1,0 0-1,0 0 0,1 0 0,0 1 0,0-1 0,1 0 0,0 1 0,0 0 0,1 12 1,1-19-58,-1 1 1,1-1 0,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,2 0 0,2 0-54,0 0 1,1 0 0,-1 0 0,0-1-1,1 0 1,9-2 0,-12 0 79,1 0 0,0-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0-1 0,-1 1 0,1 0-1,-1-1 1,0 0 0,0 0 0,1-5 0,0 2 100,0 1 0,-1-1 0,0 0 1,-1 0-1,0 0 0,0-1 0,-1 1 0,1-10 0,-2 17 611,-4 27-490,1-17-181,2-5-24,-1 1 1,1 0 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 1 0,1 0-1,0 0 1,2 8-1,1-12-99,0 0 0,1 0-1,-1 0 1,0-1 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,4-1 0,0-1 45,0 0 0,-1-1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,0 0 0,0-1 0,5-7-1,-4 5 189,0 1-1,1-1 0,0 1 0,1 1 1,12-10-1,-20 45 573,-20 40-67,20-68-669,14-5-577,35-28 283,-41 25 274,1 1 1,-1 0 0,1 1-1,0 0 1,17-6 0,-24 22 557,-2-8-462,0-1 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,3 2 0,1-3-24,1 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,0-1 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1-1 0,-1 1-1,1-1 1,-1 0-1,8-5 1,-9 6-11,-1-1 1,1 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0 0,0 1-1,-1-2 1,1 1 0,-1 0 0,0 0-1,0-1 1,0 1 0,0-1 0,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,-1 0-1,2-5 1,-2-3 15,0-12 200,0 23-214,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0-22,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,1 1-1,-2 38-14,2-33-3,-1 191-148,-1-195 164,1 0-1,-1 1 1,1-1 0,-1 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1-1-1,-1 1 1,0 0 0,0-1-1,0 0 1,0 1 0,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1-1-1,-1 1 1,0-1-1,0 0 1,-4 2 0,-4 1 71,1-1 0,-1 0 1,1-1-1,-1 0 1,0-1-1,-14 0 1,24-1-36,0-1 1,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0 0-1,1 0 1,-1-1 0,1-1-1,7-33-36,-2 25-19,1 1 0,0 1 0,1-1 0,0 1 0,1 0 0,17-13 0,67-43-616,-60 43 471,-25 17 156,12-7 25,-1-1 1,0-1 0,0 0 0,-2-2 0,0 0 0,0-1 0,21-29 0,-37 45 6,-1-1 0,1 1 1,0 0-1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,1 1 0,-1-3 0,0 3-2,-1 1-1,1-1 0,0 1 0,0-1 1,0 1-1,-1 0 0,1-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,0 0 0,-1-1 0,1 1 1,0 0-1,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,1-1 1,0 1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-4 0 7,1 1 1,0-1-1,0 1 0,0 0 0,0-1 0,0 2 0,0-1 0,0 0 0,1 0 0,-1 1 1,0 0-1,-3 2 0,-3 4 39,0 1 0,0 0 0,1 1 1,0 0-1,0 0 0,-9 18 0,14-23-29,0 0 0,1 1 0,-1-1-1,1 1 1,0-1 0,1 1 0,-1 0-1,1 0 1,0 0 0,1-1 0,-1 1-1,1 0 1,0 0 0,1 0 0,-1 0 0,4 10-1,-3-13-28,0-1 1,0 0-1,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,4 0 0,62 2-1328,-48-3 193,7-1-1244,-5-6-1929</inkml:trace>
 </inkml:ink>
@@ -10535,7 +8543,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2 3394,'0'0'8531,"19"25"-8389,24 4 1200,-27 11-1270,-10-19-62,0 1 0,-1 1 0,-2-1-1,0 0 1,-1 1 0,-2 25 0,0-47 212,-3-2-213,1 1 1,0-1 0,0 1 0,-1-1 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1 0,0 1-1,1-1 1,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,1 1 0,0 0 0,-1 0-1,1-5 1,0 2-24,-1-1 0,1 1 0,0 0-1,0-1 1,0 1 0,1 0 0,0 0 0,0-1-1,0 1 1,1 0 0,0 0 0,0 0 0,3-5-1,5-1 4,0 1-1,1 0 1,0 1-1,0-1 1,1 2-1,19-11 1,-16 10 64,-1 0 1,0-1-1,-1 0 1,18-18-1,-25 26-723</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1100.84">370 76 2673,'0'0'7356,"-11"-28"-4995,9 27-2343,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 1,1 0-1,0 0 0,-3 2 0,1-1-22,1 1 0,-1 0 0,1 1 0,0-1 0,0 0 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,1 0 0,-1 0 0,0 0 0,0 7 0,0-6-14,1 0 1,0 0-1,1 1 0,-1-1 0,1 0 0,0 1 0,1-1 0,-1 0 1,1 0-1,0 1 0,1-1 0,2 7 0,-3-10 18,0 1 0,0-1-1,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1 0,1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,-1 1 0,1 0-1,5-1 1,-4 0 1,-1 1-1,1-2 1,-1 1 0,1 0 0,-1-1-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,0-1-1,1 1 1,-1-1 0,0 0 0,0 1-1,0-1 1,-1-1 0,1 1-1,0 0 1,-1-1 0,0 1-1,1-1 1,-1 1 0,0-1-1,3-6 1,-1 1 184,-1-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0-17 1,-1 26 67,0 11-546,0-6 285,0 0 1,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,1 1 0,0 0 0,-1-1 0,2 1 0,3 5 0,-5-8 5,0-1 0,0 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1-1 0,1 1 0,0 0-1,0-1 1,0 0 0,0 1 0,0-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,-1 1 0,1-1 0,0 0 0,0 0-1,-1 1 1,1-1 0,-1 0 0,3-2 0,3-2-7,-1 1 0,0-1 0,0 0 0,-1 0 1,1-1-1,-1 0 0,0 0 0,-1 0 0,0 0 1,0-1-1,0 1 0,3-10 0,-6 12 20,-2 26-259,0 33 184,1-52 65,0 0 1,0-1-1,1 1 1,-1 0 0,1 0-1,0-1 1,-1 1-1,1-1 1,0 1 0,1 0-1,-1-1 1,1 0-1,-1 1 1,4 3 0,-4-5 2,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0-1,0-1 1,26-28 42,-24 26-58,10-14 10,-9 12-18,0-1 0,1 1-1,0 0 1,0 0-1,0 1 1,1-1-1,6-4 1,-9 11 2,-1 0-1,0 1 1,0-1 0,1 0 0,-1 1-1,0-1 1,0 1 0,0 0 0,-1-1 0,1 1-1,0 0 1,-1 0 0,1 0 0,-1 0-1,2 4 1,10 9 70,-11-13-44,-1 0 1,1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1-1 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,3-3 1,-2 2 15,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-7 0,-2 11-21,1 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 1 1,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 1-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,0 1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,-3 31-27,2 0 1,0 1-1,3-1 1,8 53-1,-2-55-589,-5-51-900,-3 21 1315,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0-1 1,-1 1-1,1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 0,0 0 0,-1 0 1,0-1-1,-9-3-3871</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1100.83">370 76 2673,'0'0'7356,"-11"-28"-4995,9 27-2343,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 1,1 0-1,0 0 0,-3 2 0,1-1-22,1 1 0,-1 0 0,1 1 0,0-1 0,0 0 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,1 0 0,-1 0 0,0 0 0,0 7 0,0-6-14,1 0 1,0 0-1,1 1 0,-1-1 0,1 0 0,0 1 0,1-1 0,-1 0 1,1 0-1,0 1 0,1-1 0,2 7 0,-3-10 18,0 1 0,0-1-1,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1 0,1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,-1 1 0,1 0-1,5-1 1,-4 0 1,-1 1-1,1-2 1,-1 1 0,1 0 0,-1-1-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,0-1-1,1 1 1,-1-1 0,0 0 0,0 1-1,0-1 1,-1-1 0,1 1-1,0 0 1,-1-1 0,0 1-1,1-1 1,-1 1 0,0-1-1,3-6 1,-1 1 184,-1-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0-17 1,-1 26 67,0 11-546,0-6 285,0 0 1,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,1 1 0,0 0 0,-1-1 0,2 1 0,3 5 0,-5-8 5,0-1 0,0 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1-1 0,1 1 0,0 0-1,0-1 1,0 0 0,0 1 0,0-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,-1 1 0,1-1 0,0 0 0,0 0-1,-1 1 1,1-1 0,-1 0 0,3-2 0,3-2-7,-1 1 0,0-1 0,0 0 0,-1 0 1,1-1-1,-1 0 0,0 0 0,-1 0 0,0 0 1,0-1-1,0 1 0,3-10 0,-6 12 20,-2 26-259,0 33 184,1-52 65,0 0 1,0-1-1,1 1 1,-1 0 0,1 0-1,0-1 1,-1 1-1,1-1 1,0 1 0,1 0-1,-1-1 1,1 0-1,-1 1 1,4 3 0,-4-5 2,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0-1,0-1 1,26-28 42,-24 26-58,10-14 10,-9 12-18,0-1 0,1 1-1,0 0 1,0 0-1,0 1 1,1-1-1,6-4 1,-9 11 2,-1 0-1,0 1 1,0-1 0,1 0 0,-1 1-1,0-1 1,0 1 0,0 0 0,-1-1 0,1 1-1,0 0 1,-1 0 0,1 0 0,-1 0-1,2 4 1,10 9 70,-11-13-44,-1 0 1,1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1-1 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,3-3 1,-2 2 15,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-7 0,-2 11-21,1 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 1 1,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 1-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,0 1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,-3 31-27,2 0 1,0 1-1,3-1 1,8 53-1,-2-55-589,-5-51-900,-3 21 1315,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0-1 1,-1 1-1,1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 0,0 0 0,-1 0 1,0-1-1,-9-3-3871</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3209.81">1068 118 3330,'0'0'9471,"-10"1"-8903,3-1-518,1 1 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 1 1,0-1-1,0 1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,-5 9 0,8-12-79,1-2 82,14-3 190,13-8-77,50-28 0,-69 35-132,0-1 0,-1 0-1,1 0 1,-1-1-1,0 0 1,-1 0-1,0 0 1,0-1-1,0 0 1,8-15-1,-13 21 11,0 0-1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-2-1 0,1 2-26,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,-1 0 0,-2 0-24,0 0-1,1 1 0,-1 0 0,0-1 1,1 2-1,-1-1 0,1 0 1,-1 1-1,1 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 1 1,-3 3-1,1 2-1,0-1 0,0 2 0,1-1 0,0 1 0,1-1 1,0 1-1,0 1 0,1-1 0,0 0 0,1 1 0,0-1 0,1 1 0,0 0 0,0-1 1,1 1-1,2 16 0,-1-25 5,0 1 0,0 0 1,0-1-1,1 1 0,-1 0 0,0-1 1,1 1-1,-1-1 0,1 0 0,0 1 1,-1-1-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,4 0 1,60-2 143,-63 2-126,12-4-167,0 0 0,0-2 0,-1 1 0,1-2-1,-1 0 1,-1 0 0,1-1 0,22-19 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -10660,14 +8668,14 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4604">2872 87 9428,'0'0'4730,"4"-12"-3270,13-37-908,-16 47-532,1 0-1,-1 0 0,1 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 1 1,1 0-1,4 0 0,-3 0 18,1-1 0,-1 2 0,1-1 0,-1 0 0,1 1 0,-1 0 0,0 0 0,1 0 0,7 4 0,-10-3-23,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 4 0,0 2 15,-1-1 0,1 1 0,-1 0 0,-1-1 0,0 1 0,-6 12 0,-15 16 110,17-29-85,1 1 0,1-1 1,-1 1-1,2 1 0,-7 14 1,11-24-50,0 0 1,0 0 0,0 1 0,0-1 0,0 0 0,1 1-1,-1-1 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0 0,0 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,18-1 103,-15 1-53,21-4 40,1-1 0,-1-1 0,0-1 1,32-14-1,50-13-236,-102 33-1385,-9 1-3133,-5 1 909,-11-1-4778</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5378.44">201 852 5603,'0'0'5503,"7"-13"-4652,3-2-585,-6 10-128,0 0 1,-1-1-1,0 1 1,0-1 0,0 0-1,0 0 1,-1 0 0,2-8-1,-4 14-88,0-1 1,0 1-1,0 0 0,1 0 0,-1-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,0 0 0,-1 0 1,1 0-1,-16 4 357,-13 15-495,17-8 97,2 1 0,-1 0 0,2 1 0,0 0 0,-9 17 0,14-24 5,1 1 1,0 0 0,1-1-1,-1 1 1,1 0 0,1 0-1,-1 0 1,1 0 0,1 0-1,-1 0 1,1 1 0,0-1-1,3 14 1,-2-19-18,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1-1,1 1 1,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,4-1 0,51-1-1985,-31-7-1640,-1-5-2164</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5886.46">354 942 6819,'0'0'5333,"9"-3"-4303,-4 1-973,1 0-1,-1 0 1,0 0 0,0-1-1,0 1 1,-1-1 0,1 0-1,0-1 1,-1 1 0,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1-1-1,6-9 1,-3 0 54,23-37-155,-28 49 19,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1-1,-1 0 1,4-1 0,-5 2 24,1-1-1,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,1 1 1,-1-1-1,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 3 0,2 39 390,-2-40-373,-1 33 370,0-19-199,0 1 1,4 29-1,-2-46-183,-1-1-1,0 1 1,0 0-1,1-1 0,-1 1 1,0 0-1,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 0-1,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,-1-1 1,1 1-1,0 0 0,0-1 1,31-17 156,-17 5-121,-1 0 1,18-23-1,-28 32-23,-1 0-1,0-1 1,0 0 0,0 1-1,0-1 1,-1 0 0,0-1-1,0 1 1,0 0 0,-1-1-1,0 1 1,0-1-1,1-5 1,-2 10 257,3 26-240,-2-20-679,8 29 1973,-1-22-3046,-8-12 1494,0 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,1-1 1,-1 1-1,1 0 1,-1 0 0,0 0-1,1-1 1,-1 1-1,10-10-7795</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6277.93">835 598 1873,'0'0'8084</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6278.93">977 645 1809,'0'0'10773,"-11"76"-8948,4-37-401,0-1-479,7 3-289,-4-4-336,4-4-288,-3-4-32,3-7 0,0-6-864,-4-5-881,4-24-12037</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6277.92">835 598 1873,'0'0'8084</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6278.92">977 645 1809,'0'0'10773,"-11"76"-8948,4-37-401,0-1-479,7 3-289,-4-4-336,4-4-288,-3-4-32,3-7 0,0-6-864,-4-5-881,4-24-12037</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6686.75">988 813 3778,'0'0'10821,"60"-51"-10821,-42 49-481,3 2-1776,-3 0-1936</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6687.75">1112 825 1761,'0'0'10026,"10"-1"-9261,-3 0-683,1 0-1,-1 0 0,0-1 0,1 0 0,-1-1 0,8-3 0,-12 5-97,-1-1 1,0 1-1,1 0 0,-1-1 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,-1-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,-1 0 0,0 1 1,1-6-1,-1 7 15,-1 0 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,0 1-1,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 1 0,-2 0 1,-1-1 64,1 0 0,0 0 0,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-2 3 0,0 2 98,1 0 0,0 0 0,1 0 0,-1 1-1,1 0 1,-3 14 0,5-19-145,0 0 0,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0 0,0 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,1 2 0,-1-4-149,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 0,1-1 1,1 0-1,-1 0-295,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,-1-1 0,1 1 0,0-1 0,2-1 0,13-14-5090</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7078.6">1331 752 3362,'0'0'8988,"12"11"-8220,36 38-205,-47-48-498,0 1-1,1-1 1,-1 0 0,0 1-1,0-1 1,0 1 0,0 0 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,-1-1-1,1 1 1,0 0 0,-2 3-1,2-5-40,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1-1 0,5-20 106,-1 14-461,1 0-1,0 0 1,0 0-1,0 1 1,1 0-1,0 0 1,0 0 0,8-7-1,31-20-5313,-20 20 141</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7473.79">1553 672 8100,'0'0'3409,"-13"14"-2075,-40 45-387,50-57-908,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0-1,0-1 1,1 1 0,-1-1 0,2 4 0,-1-6-33,-1 0 0,1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,1-1 0,26-4-7,-22 2-73,-1 0 1,1 0-1,-1-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,-1 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,-1-1 0,0 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,2-12-1,-13 82 919,7-55-627,0 1 0,0 0 0,1 0 0,0 0 1,0-1-1,1 1 0,1 0 0,0 0 0,0 0 0,3 13 0,9-11 298,-13-12-594,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0 0,0 0-1,1-1 1,-1-7-4064</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7474.79">1592 459 6275,'0'0'2849</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7843.93">1838 598 7203,'0'0'9135,"-15"6"-8916,-47 22-59,58-25-159,0-1-1,1 0 1,-1 1 0,1 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 1 0,1-1-1,-1 1 1,1 0 0,0-1-1,0 1 1,0 1 0,0-1-1,1 0 1,0 0 0,0 0-1,0 1 1,0-1 0,1 1-1,-1 5 1,4-9-43,-1-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1-1 0,-1 1 0,3-2 0,2-1-57,1 0 0,-1-1 0,0 0 0,0 0 0,-1-1-1,12-9 1,20-14-29,-37 28 154,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 1 0,0-1-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,0 1 0,0-1 0,1 0 0,-1 0-1,0 1 1,0-1 0,0 1 0,7 17 258,-3 26-390,-3-39 167,-1 6-215,5 21-1765,5-12-2956,4-5-2440</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7843.92">1838 598 7203,'0'0'9135,"-15"6"-8916,-47 22-59,58-25-159,0-1-1,1 0 1,-1 1 0,1 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 1 0,1-1-1,-1 1 1,1 0 0,0-1-1,0 1 1,0 1 0,0-1-1,1 0 1,0 0 0,0 0-1,0 1 1,0-1 0,1 1-1,-1 5 1,4-9-43,-1-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1-1 0,-1 1 0,3-2 0,2-1-57,1 0 0,-1-1 0,0 0 0,0 0 0,-1-1-1,12-9 1,20-14-29,-37 28 154,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 1 0,0-1-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,0 1 0,0-1 0,1 0 0,-1 0-1,0 1 1,0-1 0,0 1 0,7 17 258,-3 26-390,-3-39 167,-1 6-215,5 21-1765,5-12-2956,4-5-2440</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8217.18">2180 600 9428,'0'0'4237,"16"-10"-3578,53-28-267,-63 35-348,-1 1 0,1 0 0,0 0 0,0 0 1,1 0-1,-1 1 0,0 0 0,0 1 0,1 0 0,-1-1 0,0 2 0,1-1 0,-1 1 0,0 0 0,0 0 1,0 1-1,0 0 0,10 4 0,-14-4-43,0-1 1,-1 1-1,1 0 1,-1 0-1,1-1 0,-1 1 1,0 0-1,1 0 1,-1 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 0,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 1-1,-2 3 1,0 2 273,-1 1 0,0-1 1,-1 0-1,0 0 1,-11 13-1,6-9 359,6-9-393,0 1 0,0 0 0,0 0-1,1 0 1,-1 1 0,1-1 0,1 1 0,-1 0 0,0 0 0,1 0-1,-2 6 1,27-21-46,-11 3-181,43-28-1510,-24 2-3649,-13 6-1111</inkml:trace>
 </inkml:ink>
 </file>
@@ -10731,7 +8739,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">257 65 3458,'0'0'9060,"0"-10"-7625,0-44 2420,0 65-3748,-1 113-266,13 302 462,5-113-154,-17-312-142,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1-1,-1 0 1,0 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 0 0,-2 2-1,2-3 4,0 0-1,0 1 0,0-1 1,0 0-1,-1 0 1,1 0-1,0 1 0,0-1 1,0 0-1,-1-1 0,1 1 1,0 0-1,0 0 1,0 0-1,-1-1 0,1 1 1,0-1-1,0 1 0,-1-2 1,-4-1 12,1 0 0,-1-1 0,1 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,-5-5 0,-2-7-2,0 0 0,2-1-1,0 0 1,0-1 0,2 0 0,-10-38 0,25 86-66,0 0 0,2 0 0,2-1 0,0 0 0,2-1 0,0 0-1,20 25 1,-32-49 58,0 0-1,0-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1-1 1,0 0-1,7 1 1,-6-2 11,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 0 0,0 0 0,-1 0 0,0 0 1,4-5-1,4-6 13,0-1 0,-2 0 0,1-1 0,-2 0 1,0 0-1,-1-1 0,6-19 0,-13 33-90,3-5-355,-1 0 1,0 0-1,0 0 1,0-14-1,-2 22 324,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-2 1-895,-13 2-6481</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="779.8">175 1389 5346,'0'0'11086,"0"-5"-10113,0-18-266,0 22-674,-1 0-1,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,-2 1 1,-1-1 17,-1 1-54,-1 0-1,1 0 1,-1 0-1,1 1 1,0 0-1,0 0 1,-1 0-1,1 0 1,1 1-1,-1 0 0,0 0 1,1 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,1 0 1,-1 1-1,1-1 1,0 1-1,0 0 1,0 0-1,-3 10 1,-1-1 3,2 0 0,0 1 0,0-1 1,2 1-1,-1 0 0,2 0 0,-1 27 1,2-40 4,1 0 0,0 0 0,0 0 1,0 0-1,1 1 0,-1-1 0,0 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 0,0 0 1,1-1-1,-1 1 0,1-1 0,2 2 1,-1-1 33,1-1 0,-1 0-1,0 0 1,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,4 0 0,6-3 135,1 0 0,-1-1 1,0 0-1,0-1 0,20-13 0,-25 14-914,45-31 2559,-32 12-4185,-21 22 1560,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1157.35">175 1402 7523</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1157.34">175 1402 7523</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1639.92">175 1389 7523,'39'-14'847,"-28"10"-277,1 0 1,-1-1-1,-1 0 0,1 0 1,14-11-1,-23 14-439,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0 0 1,0-1-1,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,2 4 1,0 0-96,-1-1 0,1 1 1,-1-1-1,0 1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,-1 0-1,0 6 1,-1-5 3,-1 0-1,0 1 1,0-1 0,0-1 0,-1 1 0,0 0 0,0-1 0,0 0-1,0 0 1,-1 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1-1-1,-9 5 1,15-18 240,2 1-287,0 0 0,1 1-1,0-1 1,1 1-1,0 0 1,0 0-1,1 0 1,0 0 0,0 1-1,0 0 1,12-11-1,-4 5-94,0-1-1,2 2 0,-1 0 0,28-16 1,-41 27 104,0-1 1,1 1 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 0-1,1 1 1,0-1 0,-1 1 0,1 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 1 0,-1-1 0,1 0-1,0 1 1,-1 0 0,1-1 0,-1 1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,0 1 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 4-1,3 10 161,0 0 0,-1 0 0,-1 1 0,-1 19 0,0-28-95,-7 46 560,-5-28-2015,12-24 1020,-1 0-1,0-1 1,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,-2 1 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1640.92">620 1168 9044,'0'0'5747,"3"36"-11814,4-22-688</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1641.92">805 1174 7860,'0'0'7459,"-10"84"-6146,-1-43-593,4-3 96,-3 2-592,3 3 129,0-1-289,0-2-64,-4-1-449,-3-7-1151,7-12-1394,7-12-2912</inkml:trace>
@@ -10816,7 +8824,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1529.53">673 1991 6339,'69'43'5747,"-69"-35"-4339,0 16-511,0 13 991,0 5-495,-4 3-240,-3-3-145,0-3-448,3-5-208,0-5-319,1-5-33,-1-6-16,-3-4-721,3-5-1424</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1903.87">645 2218 11429,'0'0'6675,"97"-34"-6675,-65 30-912,0 4-1761,-10-4-2354</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1904.87">871 2186 1425,'0'0'13633,"12"13"-12145,-10-12-1443,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,2-3 0,-2 3-37,-1 0-1,0 1 1,0-1 0,0 0-1,0-1 1,0 1-1,0 0 1,-1 0 0,1 0-1,0-1 1,-1 1-1,1 0 1,0-1 0,-1 1-1,0 0 1,1-1-1,-1 1 1,0 0 0,0-1-1,1 1 1,-1-1-1,0 1 1,-1-1-1,1 1 1,0-1 0,0 1-1,-1 0 1,1-1-1,0 1 1,-1 0 0,0-1-1,1 1 1,-1 0-1,0-1 1,-1-1 0,0 2 8,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 2 0,0-1 0,0 0 1,0 0-1,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 1,-1-1-1,1 0 0,0 1 0,0 0 0,-3 0 0,0 1 66,0 0 1,1 0-1,-1 0 0,0 0 0,1 1 1,0-1-1,0 1 0,0 0 1,0 0-1,0 1 0,-3 3 1,2-1 3,2 1 0,-1-1 0,1 0 1,-1 1-1,2 0 0,-1 0 1,1-1-1,0 1 0,1 1 1,-1-1-1,1 0 0,1 13 1,-1-17-115,1 0 0,0-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,1-1 0,-1 1 0,1-1 1,-1 0-1,1 0 0,0 0 0,0 0 0,0-1 0,4 1 1,1 1-1311,1-1 0,0-1 1,0 0-1,-1 0 1,1-1-1,0 1 0,15-5 1,6-10-6293</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2311.68">1067 2180 6275,'0'0'8052,"10"10"-7308,31 38-136,-40-46-560,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1-1 0,-3 3-1,0 1 89,0-1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0-1,0 0 1,0 0 0,-7 3 0,12-6-121,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,0-1-1,0 1 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,-1 0-1,1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,5-16 179,12-16-259,-5 18-85,0 0 0,1 1 0,0 0 0,1 1 0,1 1-1,0 0 1,32-19 0,-46 31 154,0-1-1,0 1 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 0,-1-1 1,2 2-1,0 0 38,0 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 5-1,1 11 354,-1 0-1,-4 32 1,2-43-261,1-6-239,-5 35 787,5-36-851,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,-1 0 0,3-19-12158</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2311.67">1067 2180 6275,'0'0'8052,"10"10"-7308,31 38-136,-40-46-560,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1-1 0,-3 3-1,0 1 89,0-1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0-1,0 0 1,0 0 0,-7 3 0,12-6-121,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,0-1-1,0 1 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,-1 0-1,1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,5-16 179,12-16-259,-5 18-85,0 0 0,1 1 0,0 0 0,1 1 0,1 1-1,0 0 1,32-19 0,-46 31 154,0-1-1,0 1 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 0,-1-1 1,2 2-1,0 0 38,0 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 5-1,1 11 354,-1 0-1,-4 32 1,2-43-261,1-6-239,-5 35 787,5-36-851,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,-1 0 0,3-19-12158</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2678.41">1318 2042 1489,'0'0'12549,"0"42"-16390,0-21-1154</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3051.77">1444 2157 1857,'0'0'12269,"-15"0"-11324,13 0-925,-4-1 72,0 1 0,0 0 0,0 0 0,0 0 1,0 1-1,0 0 0,0 0 0,0 0 0,1 1 0,-1 0 1,0 0-1,1 0 0,0 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,1 1 0,-1 0 0,-6 7 0,4-2 16,1 0-1,0 1 1,0 0-1,-4 10 1,9-17-96,-1 1 0,1-1 0,0 1 1,0 0-1,0-1 0,0 1 1,1 0-1,-1-1 0,1 1 0,0 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,1 6 0,-1-9-37,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,2-2 1,38-13-703,-16-4 823,-1-2-1,-1 0 0,27-32 1,-49 57 2620,0 22-2212,-17 35 206,0-22-4163,12-35 30,-2-3-1947</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3670.83">1710 1978 7395,'0'0'6350,"7"-13"-5411,-4 9-880,1-3 116,0 0-1,0 0 1,1 0 0,0 0-1,0 1 1,0 0-1,1 0 1,0 0 0,1 1-1,-1 0 1,1 0 0,13-7-1,-16 9-91,1 1-1,0 0 1,1 1-1,-1-1 1,0 1-1,0 0 1,1 0-1,-1 0 1,10 1-1,-14 0-74,0 0 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,-1-1 0,1 1 0,0 0-1,0-1 1,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1-1,0 1 1,0 0-10,-1 0-1,1 0 0,-1 0 1,1 1-1,-1-1 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,-2 3 1,-1 5 18,-1 1 1,-1-1 0,1 0-1,-2 0 1,1-1 0,-1 0-1,-12 14 1,-59 60 137,40-45-129,9-12-5,21-20-19,0 1 0,0-1 0,0 1 0,1 1-1,0-1 1,-4 9 0,10-16-3,0 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,1 0 0,-1 1 1,0-1-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1-1 1,20 3 8,-19-2-2,76 0-3,-1-4 0,148-26 0,-223 30-802,-20 0-3171,-17 3 1029,-13 4-1128</inkml:trace>
@@ -10850,7 +8858,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">441 92 2225,'0'0'4663,"0"-14"-3142,2-63 4188,-18 159-5567,-20 136 616,0 684 170,36-901-699,-2-17 1113,-16-51-1010,6 21-251,-27-69 0,39 115-96,0 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0 0,0 1-1,0-1 1,-1 0 0,1 0-1,0 1 1,0-1 0,0 0-1,-1 1 1,1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,1 1 0,-8 20-208,4-2 216,0 1 1,1-1-1,1 1 0,1 0 1,3 28-1,-3-46 12,1 0 1,-1 1-1,1-1 1,0 0-1,-1-1 1,1 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,0-1 1,-1 0-1,1 0 0,4 2 1,-1-1 19,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1-1-1,8 0 1,-2-1 29,1 0 0,-1-1 0,1 0 0,-1 0 0,0-2 0,1 1 0,13-8 0,-9 2 8,-1-1-1,0-1 1,0-1 0,-1 0 0,21-23 0,5-11-2881,-24 28 289</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="556.3">183 1679 1921,'0'0'10319,"-1"-8"-9140,1 7-1159,-1-2 48,1 1-1,0-1 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,-2-3-1,2 5-53,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,-2 0 1,-5 3 32,0 1 0,0-1 0,1 1 0,-1 1 0,1-1 1,1 1-1,-1 0 0,1 1 0,0-1 0,1 1 0,-1 1 0,-4 8 1,5-7 62,-1 0 0,2 0 1,-1 1-1,1-1 1,1 1-1,-1 0 0,2 0 1,0 0-1,0 1 1,-1 11-1,3-20-63,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 1,0 1-1,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,2 1 0,3-1 67,1 1-1,-1-1 1,1-1-1,-1 1 1,1-1-1,10-1 1,7 0-158,-16 1-268,0 0 0,0-1 1,-1 0-1,1-1 0,17-4 1,-22 4-328,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,-1-1 1,5-4-1,8-13-5915</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="556.29">183 1679 1921,'0'0'10319,"-1"-8"-9140,1 7-1159,-1-2 48,1 1-1,0-1 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,-2-3-1,2 5-53,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,-2 0 1,-5 3 32,0 1 0,0-1 0,1 1 0,-1 1 0,1-1 1,1 1-1,-1 0 0,1 1 0,0-1 0,1 1 0,-1 1 0,-4 8 1,5-7 62,-1 0 0,2 0 1,-1 1-1,1-1 1,1 1-1,-1 0 0,2 0 1,0 0-1,0 1 1,-1 11-1,3-20-63,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 1,0 1-1,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,2 1 0,3-1 67,1 1-1,-1-1 1,1-1-1,-1 1 1,1-1-1,10-1 1,7 0-158,-16 1-268,0 0 0,0-1 1,-1 0-1,1-1 0,17-4 1,-22 4-328,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,-1-1 1,5-4-1,8-13-5915</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="955.93">266 1653 8292,'0'0'5248,"14"9"-4349,44 32-403,-55-38-465,0 1 0,-1-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0 0 0,-1-1 1,1 1-1,-1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,0 0 1,0-1-1,0 0 0,0 1 0,-1-1 0,0 0 1,1 0-1,-7 4 0,-13 6 188,26-20 153,36-28 14,-30 26-611,13-11 15,1 1 1,41-24-1,-63 42 308,-2 34-23,-1-23-36,0 0-1,-1 0 1,1 0-1,-2 0 1,1 0 0,-2-1-1,1 0 1,-1 1-1,-1-1 1,1 0 0,-2-1-1,-8 13 1,8-17-908,2-3-2459</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1348.94">608 1557 3810,'0'0'8388,"3"-32"-14087</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1349.94">750 1488 8964,'0'0'4514,"-25"96"-2641,7-51-1025,-3 1-47,7-3-241,0-2-64,3-3-240,0-7-224,1-7-32,3 1-832,-8-9-1473,5-8-1905,2-6-3105</inkml:trace>
@@ -10998,14 +9006,14 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7210.31">925 668 2449,'0'0'5635,"27"5"-5427,-12 8 288,-4 6-176,1 1 16,-1 2-240,1 0-48,-8 2-48,3 0-688,9-7-1233,3-8-1873</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7616.8">1477 592 3586,'0'0'5640,"1"3"-5512,4 15 164,-2 0 1,-1 0 0,0 0-1,-1 1 1,-3 31 0,2-9-155,-2-31 149,-3-14 267,-3-20-219,6 5-408,1 0-1,1 1 1,1-1-1,0 0 1,8-34-1,-8 49 62,0 0 0,0 0 0,1-1-1,-1 1 1,1 0 0,0 0 0,0 0 0,0 1 0,1-1-1,-1 0 1,1 1 0,0 0 0,0-1 0,0 1-1,0 0 1,1 1 0,-1-1 0,1 0 0,0 1-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0 0,0 1 0,8-1-1,-10 1 10,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,-1 0 1,1-1 0,0 1 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,-1 1 0,1-1-1,0 2 1,-1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 1 0,-1 2 0,-2 2 24,0 1 0,-1-1 0,1 0 0,-2-1 0,1 1 0,0-1 0,-1 0 0,-13 10 0,-11 13 40,71-19-1216,-39-10 1160,1 0-1,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,-1 0 0,4 4 1,-5-5 8,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,0-1-1,0 1 1,-1 0 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1 0-1,1-1 1,-2 1 0,-28 16 608,-40-1 103,3-1-1275,27 2-4013</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8029.39">1863 699 2065,'0'0'8094,"-3"-11"-7541,-16-31-273,18 40-273,-1 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,-2 1-1,-38 8-52,37-6 40,0 0 1,0 1-1,1 0 1,0 0 0,-1 0-1,1 0 1,1 0-1,-1 1 1,1 0-1,-1 0 1,1 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,0 1-1,0-1 1,1 1-1,0 0 1,0 0-1,0 0 1,1-1-1,0 8 1,1-13-4,0 1 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1-1,1-1 1,-1 1 0,0-1 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,2-1-1,37-2-153,-33 0 139,0 0 1,0 0-1,-1-1 0,1 0 0,-1 0 1,0-1-1,0 0 0,-1 0 1,0 0-1,1 0 0,-2-1 1,1 0-1,-1 0 0,0 0 1,0-1-1,0 1 0,4-15 1,-8 22 18,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 1,1 1-1,-1-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 1,0 0-1,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 1,0 1-1,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,9 38-63,-8-29 106,-2 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1 0 0,-2-1 0,1 1 0,-1-1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,1 0 0,-2 0 0,1 0 0,0-1 0,-1 0-1,0 0 1,-9 4 0,11-7-668,8-8-7159</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8540.45">2103 605 2801,'0'0'5590,"-14"-2"-5209,-40-1-74,53 3-287,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,1 2 1,6 37 926,-4-32-666,1 0 0,0 0 0,1 0 0,0 0 0,7 7 0,-8-10-188,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1 11 0,-2-15-660,-1-7-977,-2-17-3178,2 11 3573,1 1 0,0 0 1,1 0-1,0 0 0,2-10 0,5-10 2133,-2-1 0,-1 0-1,3-61 4913,37 73-7030,181-71-6003</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8540.44">2103 605 2801,'0'0'5590,"-14"-2"-5209,-40-1-74,53 3-287,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,1 2 1,6 37 926,-4-32-666,1 0 0,0 0 0,1 0 0,0 0 0,7 7 0,-8-10-188,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1 11 0,-2-15-660,-1-7-977,-2-17-3178,2 11 3573,1 1 0,0 0 1,1 0-1,0 0 0,2-10 0,5-10 2133,-2-1 0,-1 0-1,3-61 4913,37 73-7030,181-71-6003</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9369.13">246 1108 2673,'0'0'5221,"-10"-5"-4871,4 3-327,4 0-22,1 1 1,-1 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 1 0,0 0 1,-1 0-1,1-1 0,0 1 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 1 0,0-1 1,0 1-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,-2 3 1,-11 10 60,1 1-1,0 0 1,0 1 0,-15 27-1,24-35-10,1-1 0,0 1-1,1 0 1,-1 1-1,2-1 1,-1 1-1,1-1 1,0 1-1,1 0 1,0-1 0,1 1-1,-1 0 1,3 13-1,-2-21-39,1 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 0,0-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1-1-1,3 0 1,47-10 323,79-44-671,-47 12-4254,-52 24 886</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9777.35">508 1086 2113,'0'0'4573,"-16"-4"-3992,-55-10-330,69 13-240,-1 1-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 1 0,-1-1-1,0 1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1 0 0,0 0-1,0-1 1,0 1 0,1 0-1,-1 1 1,0-1 0,1 0 0,-2 4-1,0 0 4,0 0 1,1 0-1,0 0 0,1 0 0,-1 1 0,1-1 1,1 1-1,-1 10 0,1-16-14,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,1 1 0,29 2-214,-24-3 259,0-1 1,1-1-1,-1 1 0,0-1 0,0 0 1,9-4-1,-9 3 16,12-11 204,-18 13-260,-1 43-115,0-31 254,0 14 258,-1 0 0,-4 27 0,4-45-339,0 0 0,-1 0 0,0-1 0,0 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1-1 0,0 1 0,-8 8 0,7-7-1142</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9777.34">508 1086 2113,'0'0'4573,"-16"-4"-3992,-55-10-330,69 13-240,-1 1-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 1 0,-1-1-1,0 1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1 0 0,0 0-1,0-1 1,0 1 0,1 0-1,-1 1 1,0-1 0,1 0 0,-2 4-1,0 0 4,0 0 1,1 0-1,0 0 0,1 0 0,-1 1 0,1-1 1,1 1-1,-1 10 0,1-16-14,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,1 1 0,29 2-214,-24-3 259,0-1 1,1-1-1,-1 1 0,0-1 0,0 0 1,9-4-1,-9 3 16,12-11 204,-18 13-260,-1 43-115,0-31 254,0 14 258,-1 0 0,-4 27 0,4-45-339,0 0 0,-1 0 0,0-1 0,0 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1-1 0,0 1 0,-8 8 0,7-7-1142</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10279.41">630 1112 3730,'0'0'5560,"16"-7"-5096,47-22-91,-59 27-329,-1 1-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 1-1,1-1 0,-1 1 1,1 0-1,3 0 1,-6 0-40,0 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 0 1,-1 1-1,1 0 0,0-1 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1-1 0,1 2 1,-1 1 0,0-1 1,1 1 0,-1-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 0-1,-1 1 1,1-1 0,-1 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,-2 3 0,-101 102 375,150-105-1717,-41-2 1343,0 0 1,0 1 0,0-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 1 0,0 0 0,-1-1 0,0 1 0,1 1-1,5 3 1,-8-4 18,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,-3 2-1,-5 6 161,-1 0 1,0-1-1,-1 0 1,0 0-1,-13 6 1,-39 30-393,58-36-606,16-5-8025</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10697.76">1005 1163 3602,'0'0'6579,"-46"26"-6435,20 2 32,3 3-32,0 2-48,7 0 32,9-3-128,-5 3-320,8-5-785,4-4-752,0-10-1360</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11068.41">877 1171 3506,'0'0'5922,"46"16"-5698,-20 3 1,1 3 15,0 4-48,-4 1 16,4 1-208,-1-2-256,1 3-465,-8-7-2048,-3-5-272</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11577.8">1609 1104 3394,'0'0'6333,"-3"6"-6173,-8 13 59,2 2 1,1-1-1,-8 27 0,7-19 387,-22 49 0,27-76 208,1-9-370,0-30-323,3 24-212,0 0 0,1-1-1,0 1 1,4-14 0,-2 19 16,1-1 0,1 2 0,-1-1 0,1 0 0,1 1-1,0 0 1,0 0 0,0 1 0,8-7 0,-9 9 90,0 1-1,-1 0 1,2 0 0,-1 1-1,0-1 1,1 1 0,-1 0 0,1 0-1,0 1 1,0 0 0,0 0-1,0 0 1,1 1 0,11-1-1,-17 3-27,0 1 0,-1-1 0,1 1 0,0-1-1,-1 1 1,0-1 0,1 1 0,-1 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,-1-1-1,1 1 1,0 0 0,-2 2 0,0 2 50,-1 0 1,0 0-1,0 0 1,0-1 0,-1 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,-10 7 1,9-8-47,-1 1 0,1 0 0,0 1 0,1-1 1,-1 1-1,1 0 0,0 0 0,-6 12 0,11-18-31,-1 1-1,0 0 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,1 1 0,-1-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 0 0,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,27 6 66,-16-3-31,-10-3 16,45 19 125,-46-18-125,0-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1-1-1,0 1 0,1 0 0,-2 1 1,-9 6 169,0 1 0,-1-2 1,0 1-1,0-2 0,-1 1 1,-20 6-1,-28 15-3782</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13509.36">2022 1106 2801,'0'0'5219,"-14"-6"-4278,4 1-771,-1 0 19,-1 0-1,0 0 1,0 1-1,-1 1 1,1 0-1,-1 0 1,-16 0 0,21 3-170,0 1 0,0-1 1,1 2-1,-1-1 0,0 1 1,1 0-1,-1 1 1,1-1-1,-12 7 0,16-7-30,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,1 1 0,0 0-1,-1 0 1,1 0-1,0 0 1,1 0 0,-1 0-1,1 1 1,-1-1-1,1 0 1,0 1 0,0-1-1,0 1 1,1 0-1,-1-1 1,1 5 0,1-7-32,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0 0-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,1 0-1,-1-1 1,0 1 0,2 0-1,40-4-290,-36 1 376,0-1 1,0 0-1,-1 0 0,0-1 1,1 0-1,-2 0 0,1 0 1,-1-1-1,0 1 0,0-1 0,0-1 1,5-8-1,-12 46 166,-1-1 0,-9 41-1,-1 8 321,12-49-634,6-24-2690,2-6-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13509.35">2022 1106 2801,'0'0'5219,"-14"-6"-4278,4 1-771,-1 0 19,-1 0-1,0 0 1,0 1-1,-1 1 1,1 0-1,-1 0 1,-16 0 0,21 3-170,0 1 0,0-1 1,1 2-1,-1-1 0,0 1 1,1 0-1,-1 1 1,1-1-1,-12 7 0,16-7-30,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,1 1 0,0 0-1,-1 0 1,1 0-1,0 0 1,1 0 0,-1 0-1,1 1 1,-1-1-1,1 0 1,0 1 0,0-1-1,0 1 1,1 0-1,-1-1 1,1 5 0,1-7-32,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0 0-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,1 0-1,-1-1 1,0 1 0,2 0-1,40-4-290,-36 1 376,0-1 1,0 0-1,-1 0 0,0-1 1,1 0-1,-2 0 0,1 0 1,-1-1-1,0 1 0,0-1 0,0-1 1,5-8-1,-12 46 166,-1-1 0,-9 41-1,-1 8 321,12-49-634,6-24-2690,2-6-33</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13937.59">2294 1003 5170,'0'0'4330,"-15"11"-4255,0-1-35,7-5-16,-1 1-1,1 0 0,1 1 1,-1 0-1,1 0 1,0 0-1,0 1 1,1 0-1,-8 13 1,2-1 208,2 1 0,-15 38 1,22-51-188,0 0 1,1 1-1,1-1 1,-1 1-1,1 0 1,1-1 0,-1 1-1,2 0 1,-1-1-1,4 16 1,-3-21-51,0-1 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,1-1-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 0 0,4 0 0,-5 0 25,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1-1,1-1 1,-1 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0-2-1,0 2 15,0 1 0,1-1-1,-1 0 1,-1 0-1,1 1 1,0-1 0,0 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1-1,0-1 1,0 0 0,1 1-1,-1-1 1,0 1 0,-1 0-1,1-1 1,-2-1-1,0 1-28,0 1-1,0 0 0,-1-1 0,1 1 0,0 1 1,-1-1-1,1 0 0,0 1 0,-1 0 1,-5 0-1,2-1-68,0 1 1,-1 0 0,1 0 0,-1 1-1,1 0 1,0 0 0,0 1 0,-10 3-1,13-3-225,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,2 0 0,-1 0-1,0 0 1,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0 0 0,1-1 0,-2 5-1,-1 6-2948</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14871.8">313 1699 960,'0'0'9205,"0"-4"-8165,0 3-979,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,-1-1 1,-38 1 350,30 3-414,1-1 0,-1 2 0,1-1 0,0 1 0,-1 1 1,2-1-1,-1 2 0,-11 7 0,-64 57-32,74-61 34,0 0-17,1 0 0,0 0-1,0 1 1,-6 11 0,13-19 11,0 1-1,0 0 1,0 0 0,1 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0 1-1,1-1 1,-1 1 0,1-1 0,0 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,1 1 0,1 3-1,-1-6-5,1 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 0,0 0 1,0-1-1,1 1 1,-1 0-1,0-1 1,1 0-1,-1 0 0,0 1 1,1-1-1,-1-1 1,1 1-1,-1 0 1,0 0-1,3-2 0,7 2-15,5 0 55,0-1 1,-1-1-1,1-1 0,0 0 1,-1-1-1,0-1 1,0 0-1,0-1 1,0-1-1,-1 0 1,0-1-1,23-17 1,-37 24-243,0 1 1,0-1 0,0 0-1,1 1 1,-1-1-1,0 1 1,0-1 0,1 1-1,-1 0 1,0 0-1,1 0 1,-1-1 0,0 1-1,1 0 1,1 1 0,2-1-1584,6 0-1739</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15321.29">582 1718 2769,'0'0'4674,"-14"-7"-4455,-46-24-157,58 30-55,-1-1 0,0 1 0,0 0 1,0 0-1,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 1,1 0-1,-1 1 0,1 0 0,-1 0 1,1 0-1,0 0 0,-3 3 0,2-1 6,0 1 0,0-1 1,0 1-1,0-1 0,1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 7 0,2-12-26,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,2 1 0,33-3-123,-29 0 193,-1 0-1,0 0 1,1-1-1,-1 1 0,-1-1 1,1-1-1,0 1 0,-1-1 1,0 0-1,0 0 0,-1 0 1,1-1-1,-1 0 0,0 1 1,0-2-1,2-5 0,-13 86 1011,7-73-1076,-7 30 200,-7 62 1,17-40-3039,0-43 102</inkml:trace>
@@ -11013,7 +9021,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16196.55">1196 1596 4706,'0'0'6179,"-30"22"-6179,3 6 160,0 7 160,-3 2-208,3-2-96,4 2 96,4-2-224,7 0-368,1-4-1137,3-11-592,8-11-1777</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16551.75">1066 1615 5699,'0'0'5010,"39"24"-4818,-16-4 272,0 4 160,-1 5-575,1-1-49,4-2 0,0-2-673,4-6-511,7-12-1746,0-6-1952</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16911.79">1714 1609 5170,'0'0'4424,"0"8"-4200,1 13 87,-1-1-1,-1 0 1,-1 0 0,-1 0 0,-1 0 0,0 0-1,-10 24 1,1-28-128,2-18 131,9 0-298,1 1 0,0-1 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,0 0 1,-1-4 0,0-9-44,0 0-1,1-1 1,1 1-1,0 0 1,1 0 0,6-20-1,-6 29 22,-1 1-1,1 0 1,1-1 0,-1 1-1,1 0 1,0 0-1,0 0 1,0 0 0,1 1-1,0-1 1,0 1-1,0 0 1,0 0 0,1 0-1,-1 1 1,1-1-1,0 1 1,0 1 0,9-5-1,-13 10-56,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,0 4 0,-2 0 91,0 0 0,0 1 0,0-1-1,-1 0 1,0-1 0,-1 1 0,0-1-1,0 0 1,-11 11 0,9-10-121,0 1 1,1-1-1,0 1 1,0 1-1,-8 14 1,14-22 30,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 1 0,1-1 0,0-1 0,30 7 255,-16-4-263,-13-1 71,0 0 1,1-1-1,-1 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,-1-1 1,1 1 0,-1 0-1,1 0 1,1 3-1,-2-4 35,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-2 3 0,-1 1 112,0 0 1,-1-1 0,1 1-1,-1-1 1,0 1-1,0-1 1,-1 0-1,1-1 1,-1 1-1,0-1 1,-6 4 0,-10 5-181,-27 14 476,18-18-5295</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17353.33">2028 1707 2673,'0'0'7131,"-12"-6"-6904,-37-21-107,45 26-111,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 1 0,-4 3 1,-2 1-2,0 1 1,1 1 0,0-1 0,1 2 0,-10 13 0,16-21-30,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1 0-1,0 0 1,1-1 0,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,1 3 0,1-4-13,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,0 0 0,-1 0-1,1 1 1,0-1 0,3-1 0,4 1-47,-1-1 1,1 0-1,0-1 0,-1 1 1,1-2-1,-1 1 1,1-1-1,13-8 1,19-23-265,-38 32 383,-1-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1 0,-1-1 0,1 0-1,-1 0 1,0 0 0,0-1 0,0 1-1,0-4 1,0 50 394,0-28-149,0 0 0,-1 1 1,-1-1-1,0 1 0,-1-1 0,-8 29 0,0-18-230,5-15-290,0 1 1,2-1 0,-1 1-1,1-1 1,-2 20-1,6-26-2124,6-4-1384</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17353.32">2028 1707 2673,'0'0'7131,"-12"-6"-6904,-37-21-107,45 26-111,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 1 0,-4 3 1,-2 1-2,0 1 1,1 1 0,0-1 0,1 2 0,-10 13 0,16-21-30,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1 0-1,0 0 1,1-1 0,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,1 3 0,1-4-13,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,0 0 0,-1 0-1,1 1 1,0-1 0,3-1 0,4 1-47,-1-1 1,1 0-1,0-1 0,-1 1 1,1-2-1,-1 1 1,1-1-1,13-8 1,19-23-265,-38 32 383,-1-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1 0,-1-1 0,1 0-1,-1 0 1,0 0 0,0-1 0,0 1-1,0-4 1,0 50 394,0-28-149,0 0 0,-1 1 1,-1-1-1,0 1 0,-1-1 0,-8 29 0,0-18-230,5-15-290,0 1 1,2-1 0,-1 1-1,1-1 1,-2 20-1,6-26-2124,6-4-1384</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17771.07">2150 1685 5442,'0'0'3346,"73"-78"-3122,-31 58-128,4 2-96,-4 3 304,-11 9-80,-9 3 113,-6 3 479,-9 5-560,-79 308 1937,60-278-4114,5-11 208,3-9-1216,0-11-1201</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18138.68">2195 1786 1905,'0'0'7988,"91"-39"-7652,-37 28 32,240-136-10965,-320 132 10597,-5 2 0,-3 8 0,-5 3 0,-7-7 0,0 5 0,-3 2 0</inkml:trace>
 </inkml:ink>
@@ -11074,7 +9082,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">177 201 368,'0'0'5400,"-3"-9"-4450,-2-1-685,4 7-203,-1 0 1,1 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,1-4-1,-3 7 189</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404.26">177 187 720</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="775.39">177 201 720,'22'-85'1257,"-22"84"-1035,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0-1-1,0 1-148,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1-1,0-1 1,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0-1,1 0 1,-3 1 0,-40 9-479,37-7 424,-1 0 0,1 1 1,0-1-1,0 1 0,0 1 1,0 0-1,1 0 0,0 0 1,0 1-1,0-1 0,1 2 1,-1-1-1,1 0 0,1 1 1,-1 0-1,1 0 0,1 1 0,-1-1 1,1 1-1,0 0 0,1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,1 1 0,-1-1 1,2 14-1,0-21-19,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,2 0 1,31-3 484,27-17 333,-19 5-4331,-23 9 837</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1149.63">478 86 2881,'0'0'2876,"-9"-6"-2689,5 4-193,-1-1 40,0-1 0,0 1 1,-1 1-1,1-1 0,-1 1 0,-9-3 0,12 5-26,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,0 0 0,-3 4 0,-2 1-11,1 1 0,-1 0-1,2 1 1,-8 14 0,11-21 0,1 1 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,0 0 0,1 0-1,-1 0 1,1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,1 3 1,0-4-26,0 0-1,0-1 0,0 1 1,1-1-1,-1 0 0,0 1 1,1-1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,0-1 0,-1 1 1,1-1-1,0 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,3 0-1,4 0-41,-1-1 1,1 1-1,-1-2 0,13-4 1,-15 4 86,0 0 0,1-1 0,-1 0 0,-1 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,-1-1 0,1 0 0,-1 0 0,6-9 0,0 68-115,-9-28 387,0-6-98,-1 0 1,0 0 0,-1 0-1,-1 0 1,-1 0 0,-5 18-1,6-33-109,-1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,-4 2-1,3-2-414,-1 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,1 0 0,-7 0 0,8-1-2388</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1149.62">478 86 2881,'0'0'2876,"-9"-6"-2689,5 4-193,-1-1 40,0-1 0,0 1 1,-1 1-1,1-1 0,-1 1 0,-9-3 0,12 5-26,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,0 0 0,-3 4 0,-2 1-11,1 1 0,-1 0-1,2 1 1,-8 14 0,11-21 0,1 1 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,0 0 0,1 0-1,-1 0 1,1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,1 3 1,0-4-26,0 0-1,0-1 0,0 1 1,1-1-1,-1 0 0,0 1 1,1-1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,0-1 0,-1 1 1,1-1-1,0 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,3 0-1,4 0-41,-1-1 1,1 1-1,-1-2 0,13-4 1,-15 4 86,0 0 0,1-1 0,-1 0 0,-1 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,-1-1 0,1 0 0,-1 0 0,6-9 0,0 68-115,-9-28 387,0-6-98,-1 0 1,0 0 0,-1 0-1,-1 0 1,-1 0 0,-5 18-1,6-33-109,-1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,-4 2-1,3-2-414,-1 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,1 0 0,-7 0 0,8-1-2388</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1553.79">689 133 3201,'0'0'3928,"3"-13"-3213,13-44-294,-15 54-397,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 1 1,1-1-1,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 1,1 0-1,5-2 0,45-11 143,-52 14-153,55-4 58,-56 6-69,-1-1-1,1 1 0,0 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,-1-1 0,1 1 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 2 1,-6 35 84,2-27-26,-1 0 1,0-1 0,-1 0-1,-13 16 1,13-18-51,1 0-1,-1 1 1,1 0 0,1 1 0,-1-1 0,-5 16 0,11-24-41,0 0 0,0 0 0,-1-1 0,1 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,0 1 0,-1 0-1,1 0 1,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,0-1-1,-1 1 1,1-1 0,2 1 0,41 6-330,-22-5 285,-16-1 61,1 1 0,-1 0-1,0 0 1,0 0 0,9 6-1,-14-7 34,0-1 1,0 1-1,0-1 0,0 1 1,-1 0-1,1-1 0,0 1 1,0 0-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 1,0 0-1,0-1 0,1 1 1,-3 0-1,-39 31 984,36-28-1020,0-1 0,0 1 0,1-1 0,-1 2 0,1-1 0,0 1 0,0-1 0,1 1 0,-1 1 0,-4 6 0,10-9-3302,5-3 636</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2011.9">1216 113 1793,'0'0'8628,"-87"18"-8628,56 16 128,4 2-48,5-2 16,3 0-96,7-7-80,8 0-224,1-5-609,3-6-335,3-7-817,9-9-2161</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2402.62">1052 140 4290,'0'0'4802,"35"47"-4258,-20-22-448,-4 2 33,5 3-97,-1-6-32,0 1-113,8-5-1119,4-6-1073,7-10-1921</inkml:trace>
@@ -11181,7 +9189,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6191.1">2282 661 4114,'0'0'6678,"0"14"-6169,-1 8-114,0-14-276,1-1-1,-1 0 1,2 0 0,-1 0-1,1 0 1,2 10-1,-2-15-98,-1-1 0,1 0-1,0 1 1,0-1-1,0 0 1,-1 1 0,1-1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,1-1-1,-1 1 1,1-1 0,-1 0-1,1 1 1,0-1 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1-1-1,-1 1 1,1 0-1,-1-1 1,2 0 0,0 0-1,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,3-5 0,20-46 68,-17 38-64,-3 3 15,6-12-184,-6 22-28,-3 15-67,-10 177 1406,-1 4-3600</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8585.71">85 1201 3554,'0'0'4946,"0"-3"-4400,0 7-436,-2 22 556,-2-1 0,0 0-1,-1 0 1,-16 42 0,-1 13-297,3-19-593,19-60 26,1-14 150,6-15 103,0 1 0,2-1-1,2 2 1,0 0 0,17-27-1,-23 43-62,0 0 0,1 1-1,0-1 1,1 2-1,0-1 1,0 1-1,9-8 1,-12 13-2,-1 0 1,1 1-1,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 1 1,1-1-1,-1 1 1,1 0-1,-1 0 0,0 1 1,7 1-1,-8-1 3,0 0-1,-1 0 1,1 0-1,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,-1 1 1,0-1-1,1 1 1,-1 0 0,0-1-1,0 1 1,-1 0-1,1 0 1,0 3-1,1 9 21,0 0-1,-1 1 0,0 18 1,-1-23 28,-1-8 0,1 1 0,0-1 1,-1 1-1,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,-5 2 0,-2 1-109,1-1 0,-1-1 0,0 0 0,-14 1 0,-16-1-2911</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9011.41">580 1291 3282,'0'0'5517,"-2"-13"-4095,-7-39-462,8 50-950,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-3 0 0,-1 1-17,1-1 0,0 1-1,-1 0 1,1 0 0,0 0 0,0 1-1,0 0 1,-5 2 0,2 1-33,0 0 1,1 0 0,0 0 0,0 1 0,0 0 0,1 0-1,0 1 1,0 0 0,1-1 0,0 1 0,0 1-1,0-1 1,1 1 0,0-1 0,1 1 0,-1 0 0,2 0-1,-3 12 1,5-19 3,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1-1,0-1 1,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,1-1 0,22-2-99,-15-1 135,0-1 0,0 0 0,0-1 0,-1 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,0 0 0,-1-1 0,7-11 0,-23 80 1593,-1-31-1025,-11 51 0,10-5-3750,11-60-198</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9415.96">689 1251 3314,'0'0'6154,"13"-11"-5561,38-32-223,-52 43-365,1 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 1-1,0-1 1,0 0-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,1-1-1,-1 1 1,1-1-1,-8 29 188,-9-4 209,14-21-381,-1-1 0,1 1 1,0-1-1,1 1 0,-1 0 0,0 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,1 0-1,-1 1 0,0-1 0,0 5 1,5-5-12,0 0 0,0 0 0,0-1 0,1 1-1,-1-1 1,1 0 0,-1-1 0,8 3 0,3 1 15,-14-4-26,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,1 1 0,-2-2 33,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,-1 0 0,-8 5 317,1-1 0,-1 1 0,0-2 1,-15 5-1,1 1-411,32-8-9120,9-11 4741</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9415.95">689 1251 3314,'0'0'6154,"13"-11"-5561,38-32-223,-52 43-365,1 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 1-1,0-1 1,0 0-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,1-1-1,-1 1 1,1-1-1,-8 29 188,-9-4 209,14-21-381,-1-1 0,1 1 1,0-1-1,1 1 0,-1 0 0,0 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,1 0-1,-1 1 0,0-1 0,0 5 1,5-5-12,0 0 0,0 0 0,0-1 0,1 1-1,-1-1 1,1 0 0,-1-1 0,8 3 0,3 1 15,-14-4-26,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,1 1 0,-2-2 33,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,-1 0 0,-8 5 317,1-1 0,-1 1 0,0-2 1,-15 5-1,1 1-411,32-8-9120,9-11 4741</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9794.58">1161 1256 2945,'0'0'7812,"-49"41"-7476,26-14 0,4 1-256,-4 3-32,0 6-48,-4 2-240,4-2-1184,4-8-1538,0-16-2176</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10199.76">1035 1218 2769,'0'0'7059,"19"29"-6610,-11-3 287,3 7-176,-3-2-416,4 1 48,3-3-192,4 1-272,4-8-1040,4-9-1410,7-10-3520</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10841.82">1636 1210 5394,'0'0'7364,"-2"6"-7025,-20 70 124,-7 31-27,27-101-894,2-25 404,7-29 112,0 25-103,2-1 0,1 1 0,15-26 1,-20 40 13,0 0 0,0 1 0,1 0 1,1 0-1,-1 0 0,1 1 1,1 0-1,-1 0 0,1 1 0,17-11 1,-24 16 31,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,4 2 0,-3-1 11,-1 0 1,1 0-1,-1 0 0,1 1 0,-1-1 1,0 0-1,0 1 0,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,-1 0 1,0-1-1,0 5 0,0 7 70,-1 1 0,0-1 0,-1 0 0,-1 0 1,-7 23-1,6-25-57,-1-1 1,0 0 0,0 0-1,-2-1 1,-11 18 0,15-25 42,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 1,-1-1-1,1 0 0,0 0 0,0 0 0,-9 0 0,11-2-66,-1-1 1,0 1-1,1-1 0,-1 0 0,1 1 1,-1-1-1,1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,1 1 0,-1-1 1,1 0-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0-4 0,3 5-10,0 1 0,-1 0-1,1-1 1,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,0 0-1,0-1 1,3 1 0,37-2-167,-24 1 173,-15 1-12,1 0 1,0-1-1,0 1 1,0 1-1,-1-1 1,1 1-1,0-1 0,6 3 1,-8-2-4,-1 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 1 1,0 3 33,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-4 6 0,4-8 34,-1-1 1,0 1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 0 0,-1 0-1,1-1 1,-1 1 0,1 0-1,-1-1 1,1 0 0,-1 0-1,0 0 1,0-1 0,0 1-1,1-1 1,-7 0-1,-5 1-76,-48-1 1294,60 0-1559,-1 0 1,1-1-1,0 1 1,-1-1-1,1 0 0,0 0 1,0-1-1,-1 1 1,1 0-1,0-1 1,1 0-1,-1 0 1,0 0-1,-4-4 0,6 3-2439,1-1-851</inkml:trace>
@@ -11283,11 +9291,11 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">19 231 384,'0'0'13281,"0"12"-13321,4 681 686,-21-366-294,13-304-169,2-32-1503,3-49-3351,0 37 2534,-1-26-2220</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1304.09">57 292 688,'0'0'3666,"-35"-22"-2073,18 14 121,31 8 1070,11 2-2808,17-3 252,-7 0-162,-1 2 0,55 7 1,-87-5-31,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,-1 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 3-1,0 7 15,8 248 653,-1-10-349,4 71 16,-11-303-283,-2-9 43,1 0 0,-1-1 0,-1 1 1,0 0-1,0-1 0,-1 0 0,-9 18 1,-7 18-35,20-45-61,-1 1 1,0-1-1,1 1 0,-1 0 1,0-1-1,0 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,-1-1-1,-28-9 52,29 10-80,-18-6 22,0 1 0,-26-4-1,22 5-9,23 3-435,-1 0-1,0-1 0,1 1 0,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,-1-1 1,1 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,1-1 0,-1 1 0,1-3 1,2-9-5473</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1304.08">57 292 688,'0'0'3666,"-35"-22"-2073,18 14 121,31 8 1070,11 2-2808,17-3 252,-7 0-162,-1 2 0,55 7 1,-87-5-31,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,-1 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 3-1,0 7 15,8 248 653,-1-10-349,4 71 16,-11-303-283,-2-9 43,1 0 0,-1-1 0,-1 1 1,0 0-1,0-1 0,-1 0 0,-9 18 1,-7 18-35,20-45-61,-1 1 1,0-1-1,1 1 0,-1 0 1,0-1-1,0 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,-1-1-1,-28-9 52,29 10-80,-18-6 22,0 1 0,-26-4-1,22 5-9,23 3-435,-1 0-1,0-1 0,1 1 0,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,-1-1 1,1 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,1-1 0,-1 1 0,1-3 1,2-9-5473</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1881.3">34 1024 672,'0'0'6811,"-1"-1"-6416,0-1 0,1 0-1,-1 1 1,1-1 0,0 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,1-4 0,9 2-283,1 0 1,-1 0-1,1 2 0,0-1 1,0 1-1,0 1 1,16 1-1,42-5 285,-67 4-531,-1 0 249</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2607.08">12 548 1489,'0'0'7158,"16"0"-4653,114-4 1193,4 0-3498,-134 4-409,3 0-2516</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3836.36">656 55 2849,'0'0'5659,"0"-8"-5310,14 150 1143,-10-18-1092,-16 171 0,7-224-357,1 24-14,-13 114 30,5-115 148,-2 137-1,18-273-4640,-4 6-1544</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4874.27">611 63 1489,'0'0'5597,"6"-3"-5112,12-6-198,1 1-1,1 1 1,-1 0-1,1 2 0,0 0 1,23-2-1,10 1 634,68 0 0,-120 7-884,-1-1 1,1 0 0,0 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0 0,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-1 0-1,0-1 1,0 1-1,1 0 1,-1 1 0,7 26 298,-5-20-205,12 55 175,-2 0 0,7 117 0,-17 134-194,-3-176-14,1 401 1686,-1-537-1760,1 0 1,-1-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,0 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,0-1-1,0 1 1,1-1 0,-3 1 0,-50 7 57,-3-4-396,1-3 0,-98-9 0,152 7 211,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,-2-3 1,3 3-260,0-1 1,0 1 0,0-1 0,0 1 0,1-1-1,-1 0 1,0 1 0,1-1 0,-1 0 0,1 1-1,-1-1 1,1 0 0,0 0 0,-1-3 0,1-12-3411</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4874.26">611 63 1489,'0'0'5597,"6"-3"-5112,12-6-198,1 1-1,1 1 1,-1 0-1,1 2 0,0 0 1,23-2-1,10 1 634,68 0 0,-120 7-884,-1-1 1,1 0 0,0 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0 0,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-1 0-1,0-1 1,0 1-1,1 0 1,-1 1 0,7 26 298,-5-20-205,12 55 175,-2 0 0,7 117 0,-17 134-194,-3-176-14,1 401 1686,-1-537-1760,1 0 1,-1-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,0 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,0-1-1,0 1 1,1-1 0,-3 1 0,-50 7 57,-3-4-396,1-3 0,-98-9 0,152 7 211,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,-2-3 1,3 3-260,0-1 1,0 1 0,0-1 0,0 1 0,1-1-1,-1 0 1,0 1 0,1-1 0,-1 0 0,1 1-1,-1-1 1,1 0 0,0 0 0,-1-3 0,1-12-3411</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5435.23">682 399 2225,'0'0'5661,"1"-1"-5570,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,2-1 0,55-16 1033,0 3 0,1 2 1,60-5-1,-117 18-1123,1-1-1060,-11 1-4288,-11 0 377</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5888.62">614 763 2689,'0'0'7609,"7"0"-7078,54-1 479,-1-3 0,-1-3-1,76-17 1,-115 18-1033,35-6-365,-23 14-4331,-32-1 4559,1-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 1 0,0-1-32,0 17-2583</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6321.18">650 1181 5330,'0'0'9626,"-10"4"-8452,43-6-1048,0-2 1,0-2-1,41-11 0,21-5-65,49 7 265,-31 4-4758</inkml:trace>
@@ -11347,7 +9355,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 180 816,'0'0'833</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1153.65">233 95 5250,'0'0'7935,"-1"-11"-6521,-3-6-971,-2-29 2505,6 49-3026,-3 39 109,-1-1 0,-10 44-1,6-43 9,2 1 0,-1 48-1,7-28-3602,0-63 3405,0 0 0,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 1,0 0-1,1-1 0,18-9-2893,-4-9-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1153.64">233 95 5250,'0'0'7935,"-1"-11"-6521,-3-6-971,-2-29 2505,6 49-3026,-3 39 109,-1-1 0,-10 44-1,6-43 9,2 1 0,-1 48-1,7-28-3602,0-63 3405,0 0 0,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 1,0 0-1,1-1 0,18-9-2893,-4-9-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1676.8">288 193 3282,'0'0'2206,"-4"-13"-408,1 2-1513,-1 0 237,0 0 0,1-1 1,0 1-1,1-1 0,0 0 1,1 0-1,1-15 0,1 25-488,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 1 0,1-1 1,-1 1-1,0 0 0,0 0 1,1 0-1,-1 0 0,4-1 1,54-14 62,-48 14-58,-1 0-1,1 1 0,-1 0 1,1 1-1,0 0 1,12 3-1,-22-3-35,0 0 1,-1 1-1,1-1 0,0 1 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,-1 0-1,1 0 0,0 1 0,-1-1 1,0 0-1,1 0 0,-1 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,0 0-1,-1 0 0,1 0 0,-1 0 1,0-1-1,0 1 0,0 0 0,1 0 1,-2 0-1,1 0 0,0 0 0,0 0 1,-1-1-1,1 1 0,-1 0 0,1 0 1,-1 0-1,0-1 0,1 1 0,-3 2 1,-3 8 65,-1-1 0,0 1 0,0-1 0,-1-1 1,-1 0-1,0 0 0,0 0 0,-1-1 0,0-1 1,-1 0-1,-15 9 0,8-3-21,0 0 1,-28 29-1,46-43-73,0 1 1,-1-1-1,1 0 1,0 1-1,1-1 0,-1 0 1,0 1-1,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,1 1 0,-1-1 1,0 0-1,0 0 1,0 1-1,1-1 0,-1 0 1,0 1-1,0-1 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 0,1 0 1,19 7-126,-17-6 94,0 0 53,24 7-258,1 2 0,-1 1 1,41 24-1,-67-35 287,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,-5 5 363,-1 0 1,0 0 0,0-1-1,-9 4 1,16-8-381,-28 12 385,1-1 0,-2-1-1,-41 9 1,27-8-3754,37-9 243,3-2-564</inkml:trace>
 </inkml:ink>
 </file>
@@ -11419,7 +9427,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="385.85">121 153 4258,'0'0'4258,"111"-74"-4226,-69 70-32,-4 4-80,4 0-512,-11 0-1185,-1 13-1521</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="820.78">624 138 5218,'0'0'6523,"-12"-10"-6200,-37-31-171,47 40-150,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,1 0 1,-4 3-1,-3 1-3,1 1 0,0 1 0,0 0 0,-7 9-1,8-10 3,2-2-74,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0-1,0 1 1,1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,0 6 0,1-11 3,0 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1-1 0,-1 1-1,1-1 1,-1 0 0,1 1 0,0-1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,1-1 0,42-2-422,-39 1 468,0 0 0,0-1 0,0 1-1,0-1 1,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0-1,0-1 1,0 1 0,-1-1 0,0 0 0,0 0 0,4-7-1,9-9 233,-13 47-176,-6-8 258,0-1-1,-1 0 0,-1 0 0,0 0 1,-1 0-1,-1-1 0,-9 18 0,-16 51-466,30-68-4452</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1220.94">738 149 5234,'0'0'3090,"17"-7"-2639,51-19-48,-67 25-393,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,0-1-1,2 2 1,-3-1-4,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,-24 44 395,-53 35 139,78-80-555,-1-1 1,1 0-1,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 1 1,0-1-1,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,1 1 0,-1-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 1 0,0-1 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,0 0 0,1 0 1,24 7-57,-18-5 49,2 0-41,1 2 0,-1-1 0,0 1 0,16 10 0,-25-13 66,1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,-1 0 0,1 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 2 0,-1-2 35,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1-1,0 1 1,-1 0 0,-1 0 0,-18 7 323,15-6-449,1 0-1,-1 0 0,0 0 1,1 1-1,0 0 0,0 0 1,0 0-1,0 1 0,-5 4 0,9-5-2016</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1621.19">1239 192 1793,'0'0'7219,"-46"54"-6755,27-27-288,0-4-176,4 4-320,3-4-592,5-3-1489,-1-9-1169</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1621.18">1239 192 1793,'0'0'7219,"-46"54"-6755,27-27-288,0-4-176,4 4-320,3-4-592,5-3-1489,-1-9-1169</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2006.96">1159 207 4114,'0'0'5634,"42"35"-5393,-27-13-65,0 2-128,-3 0-48,7-3-368,0 1-1009,0-7-2161</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2412.62">1805 120 5987,'0'0'2750,"-3"15"-2043,1 2-506,-12 60 601,12-69-731,0 0 0,-1 0 0,0 0 0,0-1-1,0 1 1,-1-1 0,0 0 0,-6 7 0,5-60 948,7 35-1015,-1-1 0,1 1 0,1 0-1,0 0 1,1 0 0,0 0 0,1 0 0,0 1-1,0 0 1,1 0 0,0 0 0,1 1-1,0-1 1,1 2 0,0-1 0,0 1 0,1 0-1,13-8 1,-18 13-13,0 2 0,0-1 1,0 1-1,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,6 1 1,-11-1 7,1 0 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,-1 1 1,1 0-1,-1 0 1,-11 28 26,-32 18 236,33-37-274,0 1 1,1 1-1,-10 14 1,19-25-23,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1-1-1,1 1 1,-1 0 0,1 0-1,0 0 1,-1-1 0,1 1-1,0-1 1,0 1-1,0 0 1,-1-1 0,3 1-1,43 24 185,-21-13-189,-24-12 51,0 1-1,1 0 0,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,-1 0-1,1 1 1,-1-1-1,1 0 0,0 2 1,-1-2 23,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0-1,0-1 1,1 1 0,-1 0-1,1 0 1,-1-1 0,0 1-1,0 0 1,1-1 0,-1 1-1,0-1 1,-1 1 0,-9 5 188,0-1-1,0-1 1,0 0 0,-12 3 0,-9 3-1347,30-7 3,25-8-8410</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2875.68">2246 142 2689,'0'0'8023,"-17"-10"-7066,-55-29-524,68 38-416,0-1 0,-1 1 0,1 0 0,0 0 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,0-1 1,0 1-1,0-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,1 0 1,-1 1-1,1-1 0,0 0 0,-1 6 0,2-9-44,0 1 0,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1-1 0,0 1-1,0 0 1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,2-1 0,50 1-167,-40-1 155,-2 0 32,0-1 0,1 0 0,-1-1 0,0 0 0,-1-1 0,14-5 0,-5 1 86,-18 8-71,0 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,0-1 0,1 1-1,-1 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,-1 2-1,-1 28 515,-1-15-280,-1 1-1,-1-2 0,0 1 1,-1 0-1,-11 18 1,-13 32-1932,30-65 1496,0 1 1,0-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,0-1 0,0 1-1,1 0 1,8-1-3836</inkml:trace>
@@ -11616,7 +9624,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">244 103 1121,'0'0'11730,"8"-23"-6437,-9 20-5290,1-1 0,-1 1 0,0 0 0,1 0 0,-2-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,-3-1 0,-2-1-21,0 1 1,0 0-1,0 1 1,0 0-1,0 1 1,-1-1 0,1 2-1,0-1 1,-13 4-1,18-3 11,0 1-1,0 0 1,-1 0-1,1 0 1,0 0-1,1 1 1,-1 0-1,0-1 1,1 1-1,0 1 1,-1-1-1,1 1 1,1-1-1,-1 1 1,0 0 0,1 0-1,0 0 1,0 0-1,0 0 1,-2 8-1,0-2-5,1 0 0,1 0 0,0 1 0,0-1 0,1 1 0,0-1 0,1 1 0,1 12-1,-1-21-2,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 1,0-1-1,-1 0 0,4 2 1,-1-1-7,1 1 0,0-1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-2 0,5 2 0,0-2-4,0 0 0,0 0 0,0-1-1,0 0 1,0-1 0,0 0 0,17-7 0,-20 5 40,0 0-1,0 0 1,0-1 0,-1-1 0,0 1-1,0-1 1,0 0 0,-1-1 0,0 1-1,0-1 1,0-1 0,-1 1 0,0-1-1,-1 0 1,0 0 0,0 0-1,4-12 1,-13 82 414,-22 60 425,16-77-547,1 0 0,2 1 1,-3 74-1,10-102-22,3 9-1018,-2-26 608,1-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,2 0-366,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,4-3 0,16-16-6299</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="543.05">549 145 7700,'0'0'6963,"2"-14"-6158,9-47-146,-10 58-597,1 0 0,0-1 0,0 1 0,-1 0-1,2 0 1,-1 1 0,0-1 0,1 0 0,-1 1-1,1-1 1,0 1 0,-1 0 0,1 0 0,0 0 0,0 0-1,6-1 1,45-13 680,-51 15-691,1 0 1,0 0-1,0 1 0,0-1 0,0 1 1,0 0-1,0 0 0,-1 1 0,1-1 1,0 1-1,0 0 0,0 0 0,0 0 1,4 2-1,-7-1-28,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,-1 1 1,1 2-1,0 3 33,-1-1-1,0 1 1,0-1 0,0 0-1,-1 0 1,0 0 0,-1 1-1,1-2 1,-1 1-1,0 0 1,-6 8 0,-4 3 29,0-1 0,-24 24 0,23-26-59,0 0-1,1 1 0,-15 25 1,108-29-728,-68-10 647,0 0 1,0 0-1,0 2 0,0-1 0,22 11 1,-32-13 78,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,-1 1 0,1-1 0,0 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,-2 2 0,-2 3 172,0 0 0,0-1-1,0 1 1,-1-1 0,0-1-1,-1 1 1,1-1 0,-1 0-1,-13 7 1,-75 35 48,71-36-521,13-6-162,-47 19-3118,15-16-3241,10-7-2508</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="543.04">549 145 7700,'0'0'6963,"2"-14"-6158,9-47-146,-10 58-597,1 0 0,0-1 0,0 1 0,-1 0-1,2 0 1,-1 1 0,0-1 0,1 0 0,-1 1-1,1-1 1,0 1 0,-1 0 0,1 0 0,0 0 0,0 0-1,6-1 1,45-13 680,-51 15-691,1 0 1,0 0-1,0 1 0,0-1 0,0 1 1,0 0-1,0 0 0,-1 1 0,1-1 1,0 1-1,0 0 0,0 0 0,0 0 1,4 2-1,-7-1-28,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,-1 1 1,1 2-1,0 3 33,-1-1-1,0 1 1,0-1 0,0 0-1,-1 0 1,0 0 0,-1 1-1,1-2 1,-1 1-1,0 0 1,-6 8 0,-4 3 29,0-1 0,-24 24 0,23-26-59,0 0-1,1 1 0,-15 25 1,108-29-728,-68-10 647,0 0 1,0 0-1,0 2 0,0-1 0,22 11 1,-32-13 78,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,-1 1 0,1-1 0,0 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,-2 2 0,-2 3 172,0 0 0,0-1-1,0 1 1,-1-1 0,0-1-1,-1 1 1,1-1 0,-1 0-1,-13 7 1,-75 35 48,71-36-521,13-6-162,-47 19-3118,15-16-3241,10-7-2508</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11797,14 +9805,14 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">103 152 4690,'0'0'5267,"-1"-8"-4544,1 6-703,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1 0,0 1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 1 0,1 0-1,-1-1 1,0 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-3 3 1,-2 4-17,0 0 0,1 0 0,-1 1 0,1 0 0,0 0 0,0 1 0,0 0 0,0 1 0,1 0 0,0 0 0,0 0 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 13 0,1-23-6,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,2 0 0,5 2 12,-1-1 1,1-1-1,10-2 0,-11 1 1,0 0 14,-1-1 0,1-1 0,-1 0 0,0-1 0,7-6 0,-9 10-743</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="608.46">294 145 2865,'0'0'3546,"-4"-11"-3111,10 17 4101,28 21-4054,-19-21-124,27 4-1,-18-9-4828,-21-1 1501</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="608.45">294 145 2865,'0'0'3546,"-4"-11"-3111,10 17 4101,28 21-4054,-19-21-124,27 4-1,-18-9-4828,-21-1 1501</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1038.4">378 67 4114,'0'0'5176,"0"-1"-5174,0 1 0,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,1-1-1,-1 0 3,1 1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 0,0 0 0,1-1 1,-1 1-1,1 1 0,13 24 202,-12-23-181,1 2 15,-1 0-1,1 1 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,2 12 1,-4-16 28,1 0 0,-1 1 1,0-1-1,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 1,0-1-1,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,-2 3 1,-11 15 222,11-15-586,-1 0 0,1 0 0,0 1 0,0-1 0,0 2 0,1-1 0,-6 12 0,8-13-2569</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1413.57">549 84 5891,'0'0'8195,"0"13"-8195,0 13 64,0 7 273,0 0-337,0 2 48,0 2-48,0-2-385,0-7-1936,0-12-1632</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1414.57">532 93 6243,'0'0'4607,"6"-3"-4439,-4 1-144,1 0 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0 0-1,0 0 1,0 1 0,-1-1 0,1 1 0,0 0 0,0 1 0,0-1 0,-1 1-1,1 0 1,-1 0 0,1 1 0,3 4 0,-3-3 23,-1 0 1,1 1-1,-1-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 1 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,-1 0-1,1 1 0,-1-1 1,1 1-1,-1-1 1,0 0-1,0 1 0,-1 7 1,0-4 26,0 0 0,0 1 1,-1-1-1,0 0 0,0-1 0,0 1 0,-1-1 1,1 1-1,-1-1 0,0-1 0,0 1 0,-1-1 1,-4 9-1,4-10-338,-5 12-745,3-4-3948</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1800.43">771 232 4882,'0'0'6227,"2"5"-5715,3-1-256,5 1 33,1-5-17,5 0-208,3 0 112,-2-5-176,-2-4-1169,0-1-1232,-2-1-1985</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2225.62">993 60 6771,'0'0'7532,"0"5"-7407,-4 59 271,-5 146 707,9-208-1106,0 1-1,0 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,1 0 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 0,0-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0-1 1,2 3-1,-1-1 0,1 0 1,-1-1-1,1 0 1,0 0-1,0 0 1,-1 0-1,1-1 1,0 0-1,5 0 1,-4 0-245,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 0 0,1-1 0,0 1 0,6-10 0,-10 12-6,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 0-1,0 1 0,0-1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0-2 0,0-15-3948</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2226.62">1014 217 3265,'0'0'8949,"-7"-11"-9206,12 7-655,5 0 640,5-5-528,-2-2-1249,2 0-1345</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2594.7">955 64 5282,'0'0'4450,"27"-26"-4402,-7 15 0,3 0 177,-2 5-209,-2 1 0,-4 1-16,-5 4-657,-3 0-623,-3 0-1329,0 0-433</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2594.69">955 64 5282,'0'0'4450,"27"-26"-4402,-7 15 0,3 0 177,-2 5-209,-2 1 0,-4 1-16,-5 4-657,-3 0-623,-3 0-1329,0 0-433</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11833,7 +9841,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">282 101 5955,'0'0'6411,"-2"-14"-5731,-5-44-125,7 56-511,-1 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,1 0 0,-1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,-1 2 0,-3-2-37,2 1-14,0 0 1,0 0-1,0 1 1,1-1 0,-1 1-1,0 1 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 1-1,1 0 1,0 0 0,0 1-1,0-1 1,0 1 0,-1 7-1,0-6-29,1 0 0,1 0 1,-1 0-1,0 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,1 0 0,-1 0 0,0 1 0,1-1 1,0 0-1,0 0 0,0 15 0,1-20 2,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1-1,-1 0 1,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,1 2 0,0 0-24,0-1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,4-1 0,-2 0 0,0 0 0,0-1-1,0 0 1,0-1 0,0 0-1,0 0 1,0 0 0,5-8-1,-6 6 74,0 0 0,0-1 0,0 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,0-1 0,0-1 0,3-13 0,-4 17-7,-1 46-472,0-12 493,1-13-14,-1-1 1,0 0-1,-1 1 1,1-1-1,-2 0 1,1 0-1,-1 0 1,0 0-1,-4 19 1,4-24-481,2-11 332,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,7 1-2359</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="546.06">352 83 3586,'0'0'6026,"-1"-4"-5311,0 2-565,0 1-101,1 1 0,-1-1 1,1-1-1,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 1,0-1-1,1 1-67,1 1 1,-1-1-1,0 0 1,1 1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 1 1,4 0-1,-4-1-5,3 0 11,0 0-1,0 0 1,0 0-1,0 1 1,0 0 0,5 2-1,-8-1 10,0-1-1,0 1 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0-1 0,1 1 1,-1 0-1,0 4 0,0 5 30,-1-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1-1,-3 9 1,0-2 5,2 1-1,-7 31 0,11-49-59,0 1-1,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,0-1 0,26 1-700,-19-1 658,-4 1 133,15 0-224,-19 0 178,1 0-1,-1 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 0 1,0 1-1,-1 0 1,-2 5 128,0 0 1,-1-1 0,1 0-1,-1 0 1,0-1-1,0 0 1,0 0 0,0-1-1,-7 5 1,1-1-81,-37 25-629,14-24-4228,20-8-507</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="546.05">352 83 3586,'0'0'6026,"-1"-4"-5311,0 2-565,0 1-101,1 1 0,-1-1 1,1-1-1,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 1,0-1-1,1 1-67,1 1 1,-1-1-1,0 0 1,1 1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 1 1,4 0-1,-4-1-5,3 0 11,0 0-1,0 0 1,0 0-1,0 1 1,0 0 0,5 2-1,-8-1 10,0-1-1,0 1 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0-1 0,1 1 1,-1 0-1,0 4 0,0 5 30,-1-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1-1,-3 9 1,0-2 5,2 1-1,-7 31 0,11-49-59,0 1-1,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,0-1 0,26 1-700,-19-1 658,-4 1 133,15 0-224,-19 0 178,1 0-1,-1 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 0 1,0 1-1,-1 0 1,-2 5 128,0 0 1,-1-1 0,1 0-1,-1 0 1,0-1-1,0 0 1,0 0 0,0-1-1,-7 5 1,1-1-81,-37 25-629,14-24-4228,20-8-507</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1057.31">113 85 4194,'0'0'2908,"-8"-6"-2436,4 2-387,-28-17 416,30 20-465,0 1 0,-1-1 0,1 0 0,-1 1 1,1 0-1,0 0 0,-1 1 0,1-1 0,-1 1 1,1 0-1,0 1 0,-1-1 0,1 1 0,-3 2 1,3-1-30,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 1 1,0-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,1 1 1,-1-1-1,0-1 0,1 1 1,0 0-1,-1 0 0,1 0 0,0-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 0 0,4 6 0,0 2 12,0-2-1,1 1 1,0-1-1,0-1 1,8 10-1,-6-8 16,-1 0 1,13 22-1,-19-32-1,0 1 0,-1-1-1,1 1 1,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0-1,0 0 1,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,-1 1 0,-1 3-71,0-1-1,-1 0 1,0 0-1,1 0 1,-1-1 0,0 0-1,0-1 1,0 0-1,0 0 1,-7 1-1,11-3-27,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0-1 0,1-3-780,-1-20-3289</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1506.8">54 1 4386,'0'0'4450,"0"9"-4578,2 616 3164,-1-609-4437,3-6-2870</inkml:trace>
 </inkml:ink>
@@ -12140,8 +10148,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3629.8">287 679 6163,'0'0'6987,"2"-6"-6248,-1-1-696,1 0 340,0 0 1,-1-1-1,0 1 1,0-15-1,-1 21-350,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,-1 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 1-1,-1-1 1,1 1-1,0-1 0,-1 1 1,1 0-1,0-1 1,-4 1-1,1 0-43,0 0-1,0 0 1,0 1-1,0-1 1,-1 1-1,1 0 1,0 0-1,0 0 1,0 1-1,0-1 0,1 1 1,-1 0-1,0 0 1,1 1-1,-4 2 1,0 1 1,0 0 0,0 1 0,1 0 0,0 0 0,1 1 0,-8 11 1,2 1 13,1 1 0,1 0 1,1 0-1,-10 43 0,14-49 11,1 1-1,1-1 0,0 1 0,2 0 1,-1 0-1,4 26 0,-2-39-15,-1 1 1,1 0-1,0-1 0,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,1-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,0 0 1,0 0-1,0-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 0 0,-1 0 1,1 0-1,0-1 0,-1 0 1,1 1-1,5-1 0,-2-1 41,0 1-1,0-1 0,0 0 1,0 0-1,0 0 1,-1-1-1,1 0 1,-1-1-1,1 0 1,6-4-1,21-15-776,-1-6-3298,-21 17 1525,1 0-1868</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4332.56">385 927 2849,'0'0'8874,"0"5"-7831,0-4-983,0 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,0 0-1,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,1 0 1,-1-1-1,1 1 1,-1 0 0,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1 0,-1-1-1,1 1 1,0-1 0,0 1-1,-1-1 1,1 1-1,0-1 1,0 0 0,-1 1-1,3-1 1,-2 0 19,1-1 1,0 0-1,0 0 1,0 1-1,-1-1 1,1 0-1,0-1 0,-1 1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,0-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,-1 0 0,3-3 1,0-3-50,0 1 1,-1-1-1,0-1 0,0 1 0,-1 0 1,1 0-1,-2-1 0,1 1 1,-2-14-1,0 18-50,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,0 0-1,-1 0 1,0 0 0,-2-5 0,3 7 3,-1 1-1,1 0 1,0-1 0,0 1 0,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,0 1 1,0-1 0,1 1 0,-1-1 0,0 1 0,0 0-1,0-1 1,-3 1 0,4 1 10,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,0-1 0,1 1-1,-1 0 1,0-1 0,1 1-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0 0,1 2-1,-2 2-21,0 0 1,1 0-1,0 0 0,0-1 1,1 1-1,-1 0 0,3 6 0,-2-10-19,1 1 0,0-1 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1-1,5-1 1,4 0-93,1-1 0,0 0 1,-1-1-1,18-9 0,-29 13 139,-1 0 1,1-1 0,-1 1 0,1-1 0,-1 1-1,1 0 1,0-1 0,-1 1 0,1 0 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0 0,-1 0-1,1 1 1,0-1 0,-1 1 0,1-1-1,-1 0 1,1 1 0,-1-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1-1,1 1 1,2 36 114,-2-4 142,0-31-236,2 10 37,0 0 1,0-1 0,2 1 0,7 16 0,-11-27-69,-1 0 1,1-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,1-1-1,-1 1 1,0-1 0,1 0 0,-1 1-1,1-1 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 0-1,0 0 1,-1 0 0,1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,3-1-1,-1-1-10,0 0 0,-1 0 0,1-1 0,0 1 0,-1-1-1,0 1 1,0-1 0,0 0 0,0 0 0,-1 0-1,1-1 1,-1 1 0,0-1 0,-1 1 0,1-1 0,-1 0-1,2-8 1,0-8 115,-1 0 0,-1-37 1,-1 44-82,1 14-6,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 1 0,-1-1 1,0 0-1,0 1 1,1-1-1,-1 3 0,-2 5 16,2 1-1,-1 0 1,2-1-1,-1 1 1,2 12-1,-1-20-36,0-1 0,-1 1 0,2-1 1,-1 0-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,3-1 0,-1 0-288,-1 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 0 1,0 1 0,-1-1-1,1 0 1,0 0 0,-1 0 0,0 0-1,3-4 1,9-18-5615</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4739.83">763 553 9124,'0'0'5283,"4"28"-10102,4-5 1378</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5174.43">952 588 5410,'0'0'5387,"-1"19"-4760,-14 156 1523,15-164-1975,-1 3 14,0 1 0,1 0 0,1-1 0,4 28 0,-5-39-194,1-1 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 1 0,0-1-1,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,1 0 1,-1-1 0,1 1-1,0 0 1,-1-1-1,1 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,1 0-1,-1-1 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,1-1 1,-1 1-1,0 0 1,4-2 0,-2 0-300,1 0 0,-1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,1-4 0,9-19-3163</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5175.43">870 733 1377,'0'0'11445,"90"0"-11109,-49 0-336,0 0-64,-8 0-2273,0 0-1857,-16 0-1921</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5174.42">952 588 5410,'0'0'5387,"-1"19"-4760,-14 156 1523,15-164-1975,-1 3 14,0 1 0,1 0 0,1-1 0,4 28 0,-5-39-194,1-1 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 1 0,0-1-1,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,1 0 1,-1-1 0,1 1-1,0 0 1,-1-1-1,1 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,1 0-1,-1-1 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,1-1 1,-1 1-1,0 0 1,4-2 0,-2 0-300,1 0 0,-1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,1-4 0,9-19-3163</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5175.42">870 733 1377,'0'0'11445,"90"0"-11109,-49 0-336,0 0-64,-8 0-2273,0 0-1857,-16 0-1921</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5578.4">1120 775 3490,'0'0'8841,"6"12"-7875,-4-11-938,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1-1 1,-1 1 0,0-1-1,0 1 1,0-1 0,0 0-1,-1 1 1,1-1 0,0 0-1,0-1 1,0 1-1,-1 0 1,1 0 0,2-4-1,0 2 27,0 0-1,0 0 0,-1-1 1,0 0-1,0 1 0,0-1 1,0-1-1,0 1 0,-1 0 1,3-8-1,-4 11-43,-1-1-1,1 0 1,-1 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,-1-3 0,0 4 2,1 1 1,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1 0 0,0-1-1,1 1 1,-1 0 0,0 0-1,1 0 1,-2 0 0,-1 0 18,1 1 0,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 0,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,1 0 0,-1 0 1,-2 4-1,-4 6 177,1-1 1,0 2-1,1-1 0,-8 25 0,12-30-165,0 0-1,0 0 0,1 0 1,-1 1-1,2-1 1,-1 1-1,1-1 0,0 0 1,1 1-1,2 12 1,-2-19-60,0 1 1,0-1 0,0 1 0,1-1-1,-1 0 1,0 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1-1 0,0 1-1,-1 0 1,1 0 0,0-1-1,0 1 1,-1-1 0,1 1 0,0-1-1,0 0 1,0 0 0,-1 0 0,1 0-1,2 0 1,48-5-1145,-43 2 773,1-1 0,-1-1 0,-1 0 0,1 0-1,0 0 1,-1-1 0,0-1 0,-1 1 0,0-1 0,0 0 0,0-1 0,7-10 0,-7 9 728,-1-1-1,1 0 1,-2-1-1,0 1 1,8-23 0,-13 32-285,0 1 0,0 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,12 9 314,8 17-471,-15-14 418,0-1 1,-1 1-1,0 0 1,0 0-1,-2 0 0,1 1 1,2 23-1,-6-54-137,2 0-1,0 1 0,1-1 1,6-22-1,-6 30-478,0 0 0,1 1 0,0 0 0,0-1 0,1 1 0,0 0 0,1 1 0,0 0 0,8-9 0,1 7-4856,-10 9-433</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6295.09">1608 674 5507,'0'0'7515,"-5"-2"-6739,-1 0-724,0 0 0,0 0 1,0 0-1,-1 1 0,1 0 0,-1 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,-1 0 0,1 1 1,0 0-1,-1 0 0,1 0 0,0 1 0,1 0 0,-1 0 0,-10 8 0,10-7-48,0 0 0,0 0 0,1 1-1,0 0 1,0 0 0,0 1 0,0 0 0,1 0-1,0 0 1,0 0 0,0 0 0,1 1 0,0-1-1,0 1 1,1 0 0,0 0 0,0 0 0,1 0-1,-2 14 1,3-13-1,1-1-1,-1 0 1,1 1-1,0-1 0,1 0 1,0 0-1,3 8 1,-5-14 0,1 0-1,-1 1 1,1-1-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 1 0,0-1-1,0 0 1,1-1 0,-1 1-1,0 0 1,0 0 0,0 0-1,0-1 1,1 1 0,1 0-1,-1-1 2,0 0 0,0 1 0,0-2 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,2-3 0,7-6 56,0 0 0,-1-1 0,-1 0 1,0 0-1,0-1 0,-1-1 1,-1 1-1,0-1 0,-1 0 1,0-1-1,-1 0 0,0 0 0,-2 0 1,4-20-1,-3 56 111,1-1 0,1 1-1,1-1 1,1-1 0,16 32-1,-23-50-148,1 0-1,-1 1 0,1-1 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,3 0 0,-1-1 13,0 0 0,-1-1-1,1 1 1,0-1-1,0 0 1,-1 0 0,1 0-1,0-1 1,-1 0 0,6-3-1,4-3-320,0-1 1,0 0-1,-1-1 0,0-1 0,15-15 1,-26 24-167,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0-1 1,-1 1-1,0 0 0,0-1 1,1 1-1,-1-1 1,-1 1-1,2-5 0,-1-8-5885</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8805.53">246 1272 6067,'0'0'7174,"0"-11"-6342,-1-37 3,1 47-780,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 1 0,-1-1-1,0 0 1,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,1 0-1,-1-1 1,0 1 0,0 0-1,0 0 1,-1 0-1,1 0 1,-1 0 0,-33 3 323,33-3-305,-6 3-75,0-1 1,1 1-1,-1 0 1,1 1-1,0 0 1,0 0-1,0 1 1,0-1-1,1 1 0,0 1 1,0-1-1,0 1 1,1 0-1,0 1 1,0-1-1,1 1 1,-1 0-1,2 0 0,-1 0 1,1 1-1,0-1 1,0 1-1,1 0 1,0 0-1,0 0 1,1 0-1,0 0 1,1 0-1,-1 0 0,3 15 1,-1-19-22,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,1 0-1,-1 1 1,1-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,5 1 0,10 4-373,0-1 1,33 6 0,-50-12 315,2 0 34,-1 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0 0,0 0 0,0 1-1,5 1 1,-11-1 111,0-1-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,-1-1 1,1 1-1,-5-1 1,-3 1 115,-37 8 328,26-4-667,0-1-1,-36 1 1,56-5-1149,13-5-4622,11-9 1573</inkml:trace>
@@ -12486,6 +10494,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -12681,7 +10692,7 @@
   <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35061,7 +33072,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C64" t="s">
@@ -35099,8 +33110,8 @@
         <v>701</v>
       </c>
     </row>
-    <row r="73" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="8" t="s">
+    <row r="73" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="7" t="s">
         <v>113</v>
       </c>
     </row>
@@ -35226,8 +33237,8 @@
         <v>823</v>
       </c>
     </row>
-    <row r="125" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="8" t="s">
+    <row r="125" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B125" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -35336,7 +33347,7 @@
         <f>COUNT(G2:G6)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -35345,37 +33356,37 @@
         <f>COUNT(G2:G9)</f>
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>3</v>
       </c>
     </row>
@@ -35390,13 +33401,13 @@
         <f>COUNTBLANK(G2:G10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D11">
@@ -35405,7 +33416,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="14" spans="2:8" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
@@ -35424,8 +33435,8 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
         <v>111</v>
       </c>
     </row>
@@ -35534,8 +33545,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -35708,8 +33719,8 @@
         <v>74228.210000000006</v>
       </c>
     </row>
-    <row r="31" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="7" t="s">
         <v>156</v>
       </c>
     </row>
@@ -35764,8 +33775,8 @@
         <v>24.478835978835978</v>
       </c>
     </row>
-    <row r="51" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="8" t="s">
+    <row r="51" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -35793,8 +33804,8 @@
         <v>87669.176470588238</v>
       </c>
     </row>
-    <row r="75" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="8" t="s">
+    <row r="75" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -35879,42 +33890,42 @@
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="7">
         <v>1</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="7">
         <v>2</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="7">
         <v>3</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F93" s="7">
         <v>4</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="7">
         <v>5</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H93" s="7">
         <v>6</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I93" s="7">
         <v>7</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J93" s="7">
         <v>8</v>
       </c>
-      <c r="K93" s="8">
+      <c r="K93" s="7">
         <v>9</v>
       </c>
-      <c r="L93" s="8">
+      <c r="L93" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>1</v>
       </c>
       <c r="C94">
@@ -35959,7 +33970,7 @@
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>2</v>
       </c>
       <c r="C95">
@@ -36004,7 +34015,7 @@
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>3</v>
       </c>
       <c r="C96">
@@ -36049,7 +34060,7 @@
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>4</v>
       </c>
       <c r="C97">
@@ -36094,7 +34105,7 @@
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B98" s="8">
+      <c r="B98" s="7">
         <v>5</v>
       </c>
       <c r="C98">
@@ -36139,7 +34150,7 @@
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>6</v>
       </c>
       <c r="C99">
@@ -36184,7 +34195,7 @@
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>7</v>
       </c>
       <c r="C100">
@@ -36229,7 +34240,7 @@
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>8</v>
       </c>
       <c r="C101">
@@ -36274,7 +34285,7 @@
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B102" s="8">
+      <c r="B102" s="7">
         <v>9</v>
       </c>
       <c r="C102">
@@ -36319,7 +34330,7 @@
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <v>10</v>
       </c>
       <c r="C103">
@@ -36371,7 +34382,7 @@
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.45">
       <c r="F109" t="s">
-        <v>320</v>
+        <v>178</v>
       </c>
       <c r="H109">
         <f>E109</f>
@@ -36427,769 +34438,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06AD590-6AEC-42E4-BB59-A43572A2D6EF}">
-  <dimension ref="B2:B193"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="M178" sqref="M178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B2" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B17" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B27" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B28" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B32" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B38" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B43" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B47" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B52" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B53" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B54" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B55" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B56" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B57" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B58" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B62" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B64" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B65" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B66" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B67" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B68" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B69" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B70" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B71" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B72" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B73" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B77" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B79" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B80" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B81" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B82" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B83" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B84" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B85" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B86" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B87" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B88" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B92" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B93" s="5"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B94" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B95" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B96" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B97" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B98" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B99" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B100" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B101" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B102" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B103" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B107" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B108" s="5"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B109" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B110" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B111" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B112" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B113" s="12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B114" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B115" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B116" s="12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B117" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B118" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B122" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B123" s="5"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B124" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B125" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B126" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B127" s="12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B128" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B129" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B130" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B131" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B132" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B133" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B137" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B138" s="5"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B139" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B140" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B141" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B142" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B143" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B144" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B145" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B146" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B147" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B148" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B152" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B153" s="5"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B154" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B155" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B156" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B157" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B158" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B159" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B160" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B161" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B162" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B163" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B167" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B168" s="5"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B169" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B170" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B171" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B172" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B173" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B174" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B175" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B176" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B177" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B178" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B182" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B183" s="5"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B184" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B185" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B186" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B187" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B188" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B189" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B190" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B191" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B192" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B193" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>